--- a/data/hotels_by_city/Houston/Houston_shard_334.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_334.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="574">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d1773009-Reviews-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
   </si>
   <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Holiday-Inn-Express-Suites-Houston-NWBeltway-8-West-Road.h3510819.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1642 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r593807484-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>1773009</t>
+  </si>
+  <si>
+    <t>593807484</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>Worst Experience EVER</t>
+  </si>
+  <si>
+    <t>The housekeeping and front desk was rude and the whole time we were there the rooms didn’t get clean. They made up my bed with dirty sheets, we had to ask for tissue for room. They told us to leave a day early it was just horrible I would never go there again</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r588862882-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>588862882</t>
+  </si>
+  <si>
+    <t>06/19/2018</t>
+  </si>
+  <si>
+    <t>poor housekeeping and presentation</t>
+  </si>
+  <si>
+    <t>The hotel is isolated but restaurants within walking distance if there were sidewalks to get there. the hotel is set back from the road with a field in front of it but the field is not maintained and the tall growing weeds makes the hotel look very shady. parking is easily available up front with lots of parking in the rear near the pool. There is no public transit or shuttle but this seems to be a city of Houston issue. The lobby is clean and big enough with 2 counters and small shop. The front staff seemed young and untrained but friendly enough. Room is fine. 
+The problem i had is with housekeeping. i was there for a 6 day stay. i came back to my room after the first day at 4:30pm and my room was not cleaned. told the front desk and it was cleaned by the time i came back from dinner at 8pm. the next day i came back to the hotel at 5pm and it wasnt cleaned again. front desk said that i left the "dont disturb" sign on the door all day but i didnt (i travel a lot and i know what to do). they insisted, then they said that housekeeping has left for the day so i was out of luck. i simply asked if i was doing something wrong since this was 2 days in a row (some hotels have...The hotel is isolated but restaurants within walking distance if there were sidewalks to get there. the hotel is set back from the road with a field in front of it but the field is not maintained and the tall growing weeds makes the hotel look very shady. parking is easily available up front with lots of parking in the rear near the pool. There is no public transit or shuttle but this seems to be a city of Houston issue. The lobby is clean and big enough with 2 counters and small shop. The front staff seemed young and untrained but friendly enough. Room is fine. The problem i had is with housekeeping. i was there for a 6 day stay. i came back to my room after the first day at 4:30pm and my room was not cleaned. told the front desk and it was cleaned by the time i came back from dinner at 8pm. the next day i came back to the hotel at 5pm and it wasnt cleaned again. front desk said that i left the "dont disturb" sign on the door all day but i didnt (i travel a lot and i know what to do). they insisted, then they said that housekeeping has left for the day so i was out of luck. i simply asked if i was doing something wrong since this was 2 days in a row (some hotels have eco-friendly options) the manager butted-in and said "do you want me to make your bed? i know how to make a bed" whoa... i'm not upset, just asking a question. maybe they get a lot of complaints and react this way. anyways i didnt talk to her anymore and my room was cleaned properly for the remaining days. As others have said the breakfast is pretty bad. styrofoam plates and plastic utensils are cheap and create a lot of waste. hot items are low-grade. bagels are not sliced, butter is rock hard, no real cream for coffee. the only good thing is the fresh Cinnabon. Yes they play CNN everywhere in this hotel. Not a good way to start or end the day with loud commentators complaining about everything. Overall i would not go back because there are many more hotels close by with better service at the same price.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>The hotel is isolated but restaurants within walking distance if there were sidewalks to get there. the hotel is set back from the road with a field in front of it but the field is not maintained and the tall growing weeds makes the hotel look very shady. parking is easily available up front with lots of parking in the rear near the pool. There is no public transit or shuttle but this seems to be a city of Houston issue. The lobby is clean and big enough with 2 counters and small shop. The front staff seemed young and untrained but friendly enough. Room is fine. 
+The problem i had is with housekeeping. i was there for a 6 day stay. i came back to my room after the first day at 4:30pm and my room was not cleaned. told the front desk and it was cleaned by the time i came back from dinner at 8pm. the next day i came back to the hotel at 5pm and it wasnt cleaned again. front desk said that i left the "dont disturb" sign on the door all day but i didnt (i travel a lot and i know what to do). they insisted, then they said that housekeeping has left for the day so i was out of luck. i simply asked if i was doing something wrong since this was 2 days in a row (some hotels have...The hotel is isolated but restaurants within walking distance if there were sidewalks to get there. the hotel is set back from the road with a field in front of it but the field is not maintained and the tall growing weeds makes the hotel look very shady. parking is easily available up front with lots of parking in the rear near the pool. There is no public transit or shuttle but this seems to be a city of Houston issue. The lobby is clean and big enough with 2 counters and small shop. The front staff seemed young and untrained but friendly enough. Room is fine. The problem i had is with housekeeping. i was there for a 6 day stay. i came back to my room after the first day at 4:30pm and my room was not cleaned. told the front desk and it was cleaned by the time i came back from dinner at 8pm. the next day i came back to the hotel at 5pm and it wasnt cleaned again. front desk said that i left the "dont disturb" sign on the door all day but i didnt (i travel a lot and i know what to do). they insisted, then they said that housekeeping has left for the day so i was out of luck. i simply asked if i was doing something wrong since this was 2 days in a row (some hotels have eco-friendly options) the manager butted-in and said "do you want me to make your bed? i know how to make a bed" whoa... i'm not upset, just asking a question. maybe they get a lot of complaints and react this way. anyways i didnt talk to her anymore and my room was cleaned properly for the remaining days. As others have said the breakfast is pretty bad. styrofoam plates and plastic utensils are cheap and create a lot of waste. hot items are low-grade. bagels are not sliced, butter is rock hard, no real cream for coffee. the only good thing is the fresh Cinnabon. Yes they play CNN everywhere in this hotel. Not a good way to start or end the day with loud commentators complaining about everything. Overall i would not go back because there are many more hotels close by with better service at the same price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r571924268-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>571924268</t>
+  </si>
+  <si>
+    <t>04/08/2018</t>
+  </si>
+  <si>
+    <t>US Soccer Game Visit</t>
+  </si>
+  <si>
+    <t>Everything went well. Staff was very attentive, room was clean, breakfast was awesome! Overall a pleasant experience! Didn’t have any problems. Hotel is in nice area, and facility is very nice, everything went well!</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r539473067-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>539473067</t>
+  </si>
+  <si>
+    <t>11/08/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was impressed </t>
+  </si>
+  <si>
+    <t>It is very rare I give 5 stars to a hotel but this one deserves it! I wish all holiday inns were like this and lives up to these standards. Room is very spacious and clean, maids are expcetional, and front desk staff are very attentive. Plus they have a manager's reception which I loved, it's nice to have this option when away on business. The frozen maragitias were my favorite! Thank you for a great stay.  MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Lynnette H, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded November 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2017</t>
+  </si>
+  <si>
+    <t>It is very rare I give 5 stars to a hotel but this one deserves it! I wish all holiday inns were like this and lives up to these standards. Room is very spacious and clean, maids are expcetional, and front desk staff are very attentive. Plus they have a manager's reception which I loved, it's nice to have this option when away on business. The frozen maragitias were my favorite! Thank you for a great stay.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r524768009-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>524768009</t>
+  </si>
+  <si>
+    <t>09/15/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Management is very attentive </t>
+  </si>
+  <si>
+    <t>Recently affected by hurricane Harvey me and my family needed shelter for a few days..let me say right away when we arrived the staff was amazing..they go above and beyond to make sure we were comfortable....would definitely recommend to travelers or people just looking for a short get away..thanks to the staff and management for making my experience with  Holiday Inn great...</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r520526217-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>520526217</t>
+  </si>
+  <si>
+    <t>09/02/2017</t>
+  </si>
+  <si>
+    <t>Great Service</t>
+  </si>
+  <si>
+    <t>I stayed here a couple of nights with my family because of the Hurricane Harvey evac in my area. Laura and Jonathan were very accommodating during our stay and were always fretting not only myself but other guests as well. Keep up the great work guys!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r504928286-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>504928286</t>
+  </si>
+  <si>
+    <t>07/23/2017</t>
+  </si>
+  <si>
+    <t>OMGOSH Becky...</t>
+  </si>
+  <si>
+    <t>The staff were all very kind. Karlee Booth was exceptionally attentive and extremely gracious. She went far above &amp; beyond the call of duty and was very accommodating to my high-maintenance needs. Thanks again for the kind words and encouragement. Thank you all! Be well and take care.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r504591400-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>504591400</t>
+  </si>
+  <si>
+    <t>07/22/2017</t>
+  </si>
+  <si>
+    <t>True meaning of above and beyond !</t>
+  </si>
+  <si>
+    <t>From the moment I arrived at the hotel I felt at home. The lovely staff at the front desk was very welcoming and helpful, whenever passing by the front desk shaniece always had a way of putting a smile on my face; whether it be a funny comment or just simply flashing her contagious smile. The breakfast staff was also very accommodating and attentive.  Breakfast was always fresh and plentiful. Two thumbs up here, I will definitely stay again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r489949750-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>489949750</t>
+  </si>
+  <si>
+    <t>06/02/2017</t>
+  </si>
+  <si>
+    <t>we come here to be with family and we feel like family when we're at the hotel.</t>
+  </si>
+  <si>
+    <t>Excellent reception from David.  Enjoyed the fresh baked toll house cookies. Also greatly appreciated receiving a fresh water. The Decour of the entrance and the food area was outstanding.  Pool area is excellent. The room was outstanding.  Style of room is friendly and fresh and modern.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r483982992-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>483982992</t>
+  </si>
+  <si>
+    <t>05/13/2017</t>
+  </si>
+  <si>
+    <t>Excellent staff!</t>
+  </si>
+  <si>
+    <t>When we checked and during our stay, Raven and Deysi made our experience easy and fun and were so helping with eating choices. The breakfast ladies, Ms. Joyce and Ms. Mary made breakfast fun and we felt so taken care of! Thanks for the laughs, ladies!  We will stay here again!</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r483907695-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>483907695</t>
+  </si>
+  <si>
+    <t>Great customer service!</t>
+  </si>
+  <si>
+    <t>I visited this hotel last minute for a business trip and I was extremely satisfied with the customer service! The young lady at the front counter,  Raven, was of great assistance. It was my first time in Houston and wasn't familiar with the area.  She printed out directions and even showed me places to visit during my brief stay! I appreciate the initiative and patience she displayed to make my time there pleasant. I look forward to visiting this hotel in the near future!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r483862050-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>483862050</t>
+  </si>
+  <si>
+    <t>Good Hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The stay at the Holiday Inn Express in Jersey Village was a great experience. The people at the front desk, especially Raven were very very nice. They went out of their way to make us have a good time and make us comfortable. They even made goodie bags because we were there to watch a baseball tournament. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r459037940-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>459037940</t>
+  </si>
+  <si>
+    <t>02/12/2017</t>
+  </si>
+  <si>
+    <t>Clean and efficient</t>
+  </si>
+  <si>
+    <t>We stayed overnight after arriving at the airport.  A little confusion on the shuttle but it got worked out.  The rooms were clean and the hotel appeared to be pretty new.  Beds were comfortable and the price was reasonable</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r457348468-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>457348468</t>
+  </si>
+  <si>
+    <t>02/05/2017</t>
+  </si>
+  <si>
+    <t>Quick trip into Houston</t>
+  </si>
+  <si>
+    <t>I booked this property last minute on a quick weekend trip into Houston.  At first, I was worried about the location because it did seem to be a little out the way.  It turned out not to be a bad situation at all.  It is about 20 minute drive from the airport and 20 minutes or so into downtown.  Traffic wasn't that bad.  The property appears to be new.  it is very clean and well maintained.  Would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r454231442-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>454231442</t>
+  </si>
+  <si>
+    <t>01/23/2017</t>
+  </si>
+  <si>
+    <t>New property and nice staff</t>
+  </si>
+  <si>
+    <t>This hotel is wonderful even though it's a bit out of the way  It's a new build, so everything is brand spanking new and very clean.  The staff is very polite and really showcase the Texas southern hospitality.  Breakfast items were well prepared, biscuit moist and fluffy, gravy thick and creamy - these two items tend to get screwed up a lot by other Holiday Inn Express, but the staff here have mastered them.  Overall, I had a great stay and will definitely come back when my business travel takes me back to the area.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r431053501-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>431053501</t>
+  </si>
+  <si>
+    <t>10/23/2016</t>
+  </si>
+  <si>
+    <t>Wonderful, quiet hotel</t>
+  </si>
+  <si>
+    <t>Although this hotel is just off the beltway, it is set back from the road and is very quiet.  From the time I walked in the door, there was a very relaxed atmosphere.  Check-in was fast and easy.  My room was ready at an early hour, and the desk clerk was very accommodating.  The room was very clean.  I would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r427959767-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>427959767</t>
+  </si>
+  <si>
+    <t>10/14/2016</t>
+  </si>
+  <si>
+    <t>Extended Work Stay</t>
+  </si>
+  <si>
+    <t>I spent several weeks there for work and plan on coming back.  The hotel is clean, quiet, and although it is close to the beltway you don't hear the traffic noise.  Shawnice has always been extremely helpful during my stay and is always friendly  and professional.While eating breakfast the kitchen staff was quick to keep food items refilled and the coffee hot.  All of the staff greet you with smiles and respond quickly to any question you may have.Would definitely recommend this hotel and will choose it when returning to the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r421927622-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>421927622</t>
+  </si>
+  <si>
+    <t>09/24/2016</t>
+  </si>
+  <si>
+    <t>Service was great</t>
+  </si>
+  <si>
+    <t>My stay at the holiday inn express off west road was very nice. The rooms were clean. Needed extra pilliows for my room and the front desk staff James brought up some pillows as soon as I got off the phone and asked if I needed anything else before he left. He provided a nice atmosphere at check in as well.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r401485033-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>401485033</t>
+  </si>
+  <si>
+    <t>08/04/2016</t>
+  </si>
+  <si>
+    <t>Thanks ma"kayla</t>
+  </si>
+  <si>
+    <t>We my sister and our husbands stayed over the weekend of weekend before the last and we arrived late but check in was easy and we wanted something to eat so ma'kayla assisted us with that.hotel was clean and quite.housekeepers great also..only let down no coffee made all day guy told my sister she can add hot water to that old! coffee..oh well besides that remark great stay.beautiful hotelMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded August 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2016</t>
+  </si>
+  <si>
+    <t>We my sister and our husbands stayed over the weekend of weekend before the last and we arrived late but check in was easy and we wanted something to eat so ma'kayla assisted us with that.hotel was clean and quite.housekeepers great also..only let down no coffee made all day guy told my sister she can add hot water to that old! coffee..oh well besides that remark great stay.beautiful hotelMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r400183713-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>400183713</t>
+  </si>
+  <si>
+    <t>08/01/2016</t>
+  </si>
+  <si>
+    <t>Houston,  Tx</t>
+  </si>
+  <si>
+    <t>I arrived late to the airport and was late getting to the hotel.  Ma'kalya helped me get my room and get settled.  I noticed that the tv in my room wasn't working and Ma'kayla immediately without question swapped rooms for me so that I was comfortalble.  I believe that she went above and beyond her duties in helping me get settled.  She is very nice, and very friendly.  Ma'kayla is definitely a credit to her employer.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r392583525-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>392583525</t>
+  </si>
+  <si>
+    <t>07/14/2016</t>
+  </si>
+  <si>
+    <t>Just like home</t>
+  </si>
+  <si>
+    <t>This is one of my favorite hotels. The rooms are lovely, large and clean. The staff is phenomenal. They remember me each time I visit, and text me during the day to see if I need anything that evening. There is usually a get together a few times a week with drinks and appetizers. The breakfast area is nice an cozy, with a fireplace and all day coffee and tea.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r375085013-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>375085013</t>
+  </si>
+  <si>
+    <t>05/21/2016</t>
+  </si>
+  <si>
+    <t>Home away from home.</t>
+  </si>
+  <si>
+    <t>My job requires a lot of traveling, so given the amount of time I spend in hotels, it is critical I am comfortable during my stays. Well I have found that and then some at Holiday Inn Express at 8 West Road, in Houston. From the welcoming reception I receive from Karlee B. and Marcy G. and Lynnette H. every time I check-in, every morning and every evening, to the Managers reception Mondays-Wednesday, thanks Natalia and Zackry R, to the special attention by Ms. Joyce Y. at breakfast time, there is nothing they could improve on. This is a very friendly, clean and convenient location.  Thank you all.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r365690246-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>365690246</t>
+  </si>
+  <si>
+    <t>04/20/2016</t>
+  </si>
+  <si>
+    <t>Great job</t>
+  </si>
+  <si>
+    <t>I would love to recommend holiday Inn it's the best place to stay next to home great service from Marcy and Brooke awesome job girls keep up the great work.i look forward to seeing you girls again it's an amount place to stay while visiting Houston</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r365672104-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>365672104</t>
+  </si>
+  <si>
+    <t>Long term business trip.</t>
+  </si>
+  <si>
+    <t>Cordially, Marcy, Brooke, Karlee, Lynnette, Jon and Lourdes are all staff members at this location.  Their level of customer service is outstanding.  Every one listed above greeted me every morning and night.  They all were helpful and wanted to make my stay here as comfortable as possible.  I travel throughout the Southeast United States and always stay at a Holiday Inn.  But this location was as close to home as a hotel could be.  I would recommend this location for any out of state traveler visiting Houston on business.  Great place to rest your head and relax.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r363408621-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>363408621</t>
+  </si>
+  <si>
+    <t>04/11/2016</t>
+  </si>
+  <si>
+    <t>Very Pleasant Experience</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at the Holiday Inn Express Hotel and Suites on West Road in Houston for only one night.  BUT it was a VERY NICE stay.  Brook at the front desk was polite and honored our request for downstairs.  The hotel was clean and quiet and had a very nice fill to it.  We would be happy to stay there again when we visit that area for over night.  Thank you for your pride you take in each guest.MoreShow less</t>
+  </si>
+  <si>
+    <t>steve r, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded April 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2016</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at the Holiday Inn Express Hotel and Suites on West Road in Houston for only one night.  BUT it was a VERY NICE stay.  Brook at the front desk was polite and honored our request for downstairs.  The hotel was clean and quiet and had a very nice fill to it.  We would be happy to stay there again when we visit that area for over night.  Thank you for your pride you take in each guest.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r350939708-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>350939708</t>
+  </si>
+  <si>
+    <t>02/25/2016</t>
+  </si>
+  <si>
+    <t>Awesome stay</t>
+  </si>
+  <si>
+    <t>Karlee and Marcy are great!! They helped me with my resetting my door key several times after the door was having problems. The customer service is great and the 2 girls upfront are stunning!! See ya soonMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>steve r, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded March 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2016</t>
+  </si>
+  <si>
+    <t>Karlee and Marcy are great!! They helped me with my resetting my door key several times after the door was having problems. The customer service is great and the 2 girls upfront are stunning!! See ya soonMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r350910675-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>350910675</t>
+  </si>
+  <si>
+    <t>Always a good time</t>
+  </si>
+  <si>
+    <t>Can't say enough about the staff at the Holiday Inn Express on West Road.  No matter the time or weather, the front desk staff (Karlee and Marcy) always have smiles on their faces.  Their customer service and attention to detail are one of the main reasons that I choose to stay here every time that I conduct business in Houston.  From the great hot breakfasts to the excellent job of the cleaning staff, the overall experience is always 5-stars in my book!-Sir CharlesMoreShow less</t>
+  </si>
+  <si>
+    <t>Can't say enough about the staff at the Holiday Inn Express on West Road.  No matter the time or weather, the front desk staff (Karlee and Marcy) always have smiles on their faces.  Their customer service and attention to detail are one of the main reasons that I choose to stay here every time that I conduct business in Houston.  From the great hot breakfasts to the excellent job of the cleaning staff, the overall experience is always 5-stars in my book!-Sir CharlesMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r348304587-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>348304587</t>
+  </si>
+  <si>
+    <t>02/16/2016</t>
+  </si>
+  <si>
+    <t>Awesome Staff</t>
+  </si>
+  <si>
+    <t>Nice friendly staff especially Karlee. Room was nice and clean,  Beds and pillows are comfortable, loved the breakfast especially cinnamon rolls. Evening snacks and drinks were fabulous. Nice and quiet.MoreShow less</t>
+  </si>
+  <si>
+    <t>steve r, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded February 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2016</t>
+  </si>
+  <si>
+    <t>Nice friendly staff especially Karlee. Room was nice and clean,  Beds and pillows are comfortable, loved the breakfast especially cinnamon rolls. Evening snacks and drinks were fabulous. Nice and quiet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r346358876-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>346358876</t>
+  </si>
+  <si>
+    <t>02/09/2016</t>
+  </si>
+  <si>
+    <t>Simple place with great service</t>
+  </si>
+  <si>
+    <t>I stayed for a week during a work trip and while it's no premium hotel the rooms are clean, modern and comfortable and in general the hotel was new and reasonably maintained.  The staff are all very friendly and warm, and the Monday to Wednesday Happy Hour event is a nice touch.  A particular mention needs to be made for Natalia and Zack who typically host the happy hour.  Natalia particularly made a lot of effort to converse with the guests and make everyone feel welcome.  Overall a very decent place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>steve r, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded February 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 11, 2016</t>
+  </si>
+  <si>
+    <t>I stayed for a week during a work trip and while it's no premium hotel the rooms are clean, modern and comfortable and in general the hotel was new and reasonably maintained.  The staff are all very friendly and warm, and the Monday to Wednesday Happy Hour event is a nice touch.  A particular mention needs to be made for Natalia and Zack who typically host the happy hour.  Natalia particularly made a lot of effort to converse with the guests and make everyone feel welcome.  Overall a very decent place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r344736405-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>344736405</t>
+  </si>
+  <si>
+    <t>02/03/2016</t>
+  </si>
+  <si>
+    <t>Nice place to stay, few issues.</t>
+  </si>
+  <si>
+    <t>The good: 
+- Hotel is clean and stylish.
+- The rooms are a good size. 
+- Beds and pillows are comfortable.
+- The evening reception is really nice-- finger foods, beer, wine and soda in the evenings made a nice place to meet up with colleagues before heading out for dinner.
+- The outdoor pool and hot tub area is lovely. 
+- Staff at the front desk is very friendly and helpful.
+- Location is very close to Beltway 8. Very easy to get around (traffic aside)
+- Was able to negotiate a lower rate for a long-term stay.
+- Guests can use the Lifetime Fitness facility that is just down the street. This was a really great perk that I took advantage of, because the gym in the hotel didn't have the greatest equipment. But the Lifetime Fitness was really nice and it was awesome to just walk in, flash my Holiday Inn keycard, and have access to all the machines, classes, pool, sauna, etc.
+- Breakfast is provided. It's not bad, and it's not great. But it IS free.
+The bad:
+- The wireless internet here is positively terrible. I lost significant amounts of work several times due to the internet connection going down, and losing my VPN connection. Honestly, if you are a hotel catering to business travelers in the year 2016, you really MUST have reliable WiFi.
+- Some days it looked like Housekeeping took their...The good: - Hotel is clean and stylish.- The rooms are a good size. - Beds and pillows are comfortable.- The evening reception is really nice-- finger foods, beer, wine and soda in the evenings made a nice place to meet up with colleagues before heading out for dinner.- The outdoor pool and hot tub area is lovely. - Staff at the front desk is very friendly and helpful.- Location is very close to Beltway 8. Very easy to get around (traffic aside)- Was able to negotiate a lower rate for a long-term stay.- Guests can use the Lifetime Fitness facility that is just down the street. This was a really great perk that I took advantage of, because the gym in the hotel didn't have the greatest equipment. But the Lifetime Fitness was really nice and it was awesome to just walk in, flash my Holiday Inn keycard, and have access to all the machines, classes, pool, sauna, etc.- Breakfast is provided. It's not bad, and it's not great. But it IS free.The bad:- The wireless internet here is positively terrible. I lost significant amounts of work several times due to the internet connection going down, and losing my VPN connection. Honestly, if you are a hotel catering to business travelers in the year 2016, you really MUST have reliable WiFi.- Some days it looked like Housekeeping took their break in the middle of cleaning my room and never came back. There would be trash left behind from their cleaning supplies (looked like a giant lint-roller) and the little placards from the bathroom counter were occasionally left hanging off the light fixtures from when they wiped down the counter.The Weird:- There are parental control locks on the televisions that prevent guests from watching anything beyond a certain television rating. The front desk has no idea how to remove these block-outs. While I'm not one for watching a ton of television in hotels, I would prefer to be able to choose what to watch without ratings restrictions.- The young woman who set up the evening reception meals wears the same fuzzy sweater every night. I didn't find this offensive or bad in any way, just really strange.All in all, I'm sure I will stay here again. I will just bring an Ethernet cable with me next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>steve r, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded February 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2016</t>
+  </si>
+  <si>
+    <t>The good: 
+- Hotel is clean and stylish.
+- The rooms are a good size. 
+- Beds and pillows are comfortable.
+- The evening reception is really nice-- finger foods, beer, wine and soda in the evenings made a nice place to meet up with colleagues before heading out for dinner.
+- The outdoor pool and hot tub area is lovely. 
+- Staff at the front desk is very friendly and helpful.
+- Location is very close to Beltway 8. Very easy to get around (traffic aside)
+- Was able to negotiate a lower rate for a long-term stay.
+- Guests can use the Lifetime Fitness facility that is just down the street. This was a really great perk that I took advantage of, because the gym in the hotel didn't have the greatest equipment. But the Lifetime Fitness was really nice and it was awesome to just walk in, flash my Holiday Inn keycard, and have access to all the machines, classes, pool, sauna, etc.
+- Breakfast is provided. It's not bad, and it's not great. But it IS free.
+The bad:
+- The wireless internet here is positively terrible. I lost significant amounts of work several times due to the internet connection going down, and losing my VPN connection. Honestly, if you are a hotel catering to business travelers in the year 2016, you really MUST have reliable WiFi.
+- Some days it looked like Housekeeping took their...The good: - Hotel is clean and stylish.- The rooms are a good size. - Beds and pillows are comfortable.- The evening reception is really nice-- finger foods, beer, wine and soda in the evenings made a nice place to meet up with colleagues before heading out for dinner.- The outdoor pool and hot tub area is lovely. - Staff at the front desk is very friendly and helpful.- Location is very close to Beltway 8. Very easy to get around (traffic aside)- Was able to negotiate a lower rate for a long-term stay.- Guests can use the Lifetime Fitness facility that is just down the street. This was a really great perk that I took advantage of, because the gym in the hotel didn't have the greatest equipment. But the Lifetime Fitness was really nice and it was awesome to just walk in, flash my Holiday Inn keycard, and have access to all the machines, classes, pool, sauna, etc.- Breakfast is provided. It's not bad, and it's not great. But it IS free.The bad:- The wireless internet here is positively terrible. I lost significant amounts of work several times due to the internet connection going down, and losing my VPN connection. Honestly, if you are a hotel catering to business travelers in the year 2016, you really MUST have reliable WiFi.- Some days it looked like Housekeeping took their break in the middle of cleaning my room and never came back. There would be trash left behind from their cleaning supplies (looked like a giant lint-roller) and the little placards from the bathroom counter were occasionally left hanging off the light fixtures from when they wiped down the counter.The Weird:- There are parental control locks on the televisions that prevent guests from watching anything beyond a certain television rating. The front desk has no idea how to remove these block-outs. While I'm not one for watching a ton of television in hotels, I would prefer to be able to choose what to watch without ratings restrictions.- The young woman who set up the evening reception meals wears the same fuzzy sweater every night. I didn't find this offensive or bad in any way, just really strange.All in all, I'm sure I will stay here again. I will just bring an Ethernet cable with me next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r339695745-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>339695745</t>
+  </si>
+  <si>
+    <t>01/13/2016</t>
+  </si>
+  <si>
+    <t>Friendly Service</t>
+  </si>
+  <si>
+    <t>Ms Rita Washington was extremely helpful on a billing issue I had for myself and 3 of my of my employees who were staying at this hotel.  Her attitude and professionalism made me take note of how much she seemed to like her job.  She is as credit to your staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>steve r, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded January 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 15, 2016</t>
+  </si>
+  <si>
+    <t>Ms Rita Washington was extremely helpful on a billing issue I had for myself and 3 of my of my employees who were staying at this hotel.  Her attitude and professionalism made me take note of how much she seemed to like her job.  She is as credit to your staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r333929489-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>333929489</t>
+  </si>
+  <si>
+    <t>12/19/2015</t>
+  </si>
+  <si>
+    <t>Holiday Inn Express at West Road and Beltway 8</t>
+  </si>
+  <si>
+    <t>We have stayed at this Holiday Inn Express for a total of 8 days while we transition from our sold house to a new house.  The room was clean and the staff was very accommodating.  I want to throw out a very special "thank you" to Karlee Booth, who has helped us with numerous situations thru this process.  She was not only friendly but willing to help us with a lot of issues we were having as far as paperwork being faxed and emails being delivered.  Thank you Karlee.MoreShow less</t>
+  </si>
+  <si>
+    <t>steve r, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded December 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 24, 2015</t>
+  </si>
+  <si>
+    <t>We have stayed at this Holiday Inn Express for a total of 8 days while we transition from our sold house to a new house.  The room was clean and the staff was very accommodating.  I want to throw out a very special "thank you" to Karlee Booth, who has helped us with numerous situations thru this process.  She was not only friendly but willing to help us with a lot of issues we were having as far as paperwork being faxed and emails being delivered.  Thank you Karlee.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r333142500-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>333142500</t>
+  </si>
+  <si>
+    <t>12/15/2015</t>
+  </si>
+  <si>
+    <t>Nice Business Hotel</t>
+  </si>
+  <si>
+    <t>Nice business hotel. Good rooms and good service. The location is a little bit isolated for finding something other than standard-commercial chain food.Internet service was high-speed.Decent breakfast selection.MoreShow less</t>
+  </si>
+  <si>
+    <t>steve r, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded December 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 16, 2015</t>
+  </si>
+  <si>
+    <t>Nice business hotel. Good rooms and good service. The location is a little bit isolated for finding something other than standard-commercial chain food.Internet service was high-speed.Decent breakfast selection.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r325850774-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>325850774</t>
+  </si>
+  <si>
+    <t>11/10/2015</t>
+  </si>
+  <si>
+    <t>Amazing Staff, rooms and excellent Breakfast</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel with my family when I came to attend a convention. The hotel proved to be an excellent choice that I made quite hastily. The staff is very accommodating and always at your assistance in particular Ms. KAREN! Thumps Up!!! For Staff, rooms, ambiance and breakfast!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>steve r, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded November 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 12, 2015</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel with my family when I came to attend a convention. The hotel proved to be an excellent choice that I made quite hastily. The staff is very accommodating and always at your assistance in particular Ms. KAREN! Thumps Up!!! For Staff, rooms, ambiance and breakfast!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r322257251-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>322257251</t>
+  </si>
+  <si>
+    <t>10/27/2015</t>
+  </si>
+  <si>
+    <t>Business in houston</t>
+  </si>
+  <si>
+    <t>No nice! If I can choose, never be back!Neighborhood is isolated, no much around. Room is ok, but breakfast is terrible. Service is neither helpful nor gently. Room is ok to be honest.Wifi did not work. Gym was broken, although the hotel is quite new.MoreShow less</t>
+  </si>
+  <si>
+    <t>steve r, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded October 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 28, 2015</t>
+  </si>
+  <si>
+    <t>No nice! If I can choose, never be back!Neighborhood is isolated, no much around. Room is ok, but breakfast is terrible. Service is neither helpful nor gently. Room is ok to be honest.Wifi did not work. Gym was broken, although the hotel is quite new.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r320811035-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>320811035</t>
+  </si>
+  <si>
+    <t>10/21/2015</t>
+  </si>
+  <si>
+    <t>Just read this if you want an honest opinion</t>
+  </si>
+  <si>
+    <t>the staff made the stay. the rooms are very nice and very clean. No issues at all.Karen at the front desk is the kind of person that makes a business thrive being the point person and your first impression. Making you feel at home and bending over backwards to be sure you are taken care of. The rest of the staff were no less attentive. I could say more but all I need to say is you cannot go wrong staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t>steve r, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded October 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2015</t>
+  </si>
+  <si>
+    <t>the staff made the stay. the rooms are very nice and very clean. No issues at all.Karen at the front desk is the kind of person that makes a business thrive being the point person and your first impression. Making you feel at home and bending over backwards to be sure you are taken care of. The rest of the staff were no less attentive. I could say more but all I need to say is you cannot go wrong staying here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r294978548-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>294978548</t>
+  </si>
+  <si>
+    <t>08/02/2015</t>
+  </si>
+  <si>
+    <t>Business trip</t>
+  </si>
+  <si>
+    <t>Karen on reception was a bundle of joy and lifted the soul. Monday to Wednesday evenings the had complementary drinks and nibbles which after a very large lunch was all I could eat anyway.Unfortunately they do not have a license and you cannot buy a beer. The pool was pleasant but was in the process of being repaired when I was there.Otherwise it was a very clean and comfortable place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded August 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 17, 2015</t>
+  </si>
+  <si>
+    <t>Karen on reception was a bundle of joy and lifted the soul. Monday to Wednesday evenings the had complementary drinks and nibbles which after a very large lunch was all I could eat anyway.Unfortunately they do not have a license and you cannot buy a beer. The pool was pleasant but was in the process of being repaired when I was there.Otherwise it was a very clean and comfortable place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r294647813-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>294647813</t>
+  </si>
+  <si>
+    <t>08/01/2015</t>
+  </si>
+  <si>
+    <t>Exceptional &amp; genuine hospitality service!</t>
+  </si>
+  <si>
+    <t>From ALL front desk staff, to the woman that works the kitchen dining (she was very nice and efficient worker!), and to housekeeping all were very friendly! They definitely made my stay away from home comfortable and accommodating. This place is new, spotless, free wifi, and a convenient location.  Also, this place has FABULOUS social hours!  In fact, this first stay made quite an impression that I already reserved this place again for a return trip!  I want to give a HUGE SHOUT OUT to Eliana and Karen! These two Hyatt staff certainly demonstrate wonderful  hospitality that is genuine and professional. And to the the rest of staff that I forgot to get your names! Keep up the great work!MoreShow less</t>
+  </si>
+  <si>
+    <t>steve r, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded August 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2015</t>
+  </si>
+  <si>
+    <t>From ALL front desk staff, to the woman that works the kitchen dining (she was very nice and efficient worker!), and to housekeeping all were very friendly! They definitely made my stay away from home comfortable and accommodating. This place is new, spotless, free wifi, and a convenient location.  Also, this place has FABULOUS social hours!  In fact, this first stay made quite an impression that I already reserved this place again for a return trip!  I want to give a HUGE SHOUT OUT to Eliana and Karen! These two Hyatt staff certainly demonstrate wonderful  hospitality that is genuine and professional. And to the the rest of staff that I forgot to get your names! Keep up the great work!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r294572354-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>294572354</t>
+  </si>
+  <si>
+    <t>07/31/2015</t>
+  </si>
+  <si>
+    <t>Congratulations</t>
+  </si>
+  <si>
+    <t>Excellent Hotel. Clean and comfortable rooms with all services, internet wi fi, laundry, swimming pool, beadfast, etc. The staff very friendly and helpful especially in reception Eliana Perez . Thanks.MoreShow less</t>
+  </si>
+  <si>
+    <t>Excellent Hotel. Clean and comfortable rooms with all services, internet wi fi, laundry, swimming pool, beadfast, etc. The staff very friendly and helpful especially in reception Eliana Perez . Thanks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r289382909-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>289382909</t>
+  </si>
+  <si>
+    <t>07/15/2015</t>
+  </si>
+  <si>
+    <t>Great Staff and very clean hotel!</t>
+  </si>
+  <si>
+    <t>This is a Great hotel clean comfortable room and the staff was really great and very accommodating. Eliana took care of anything and everything that we needed during our stay. I am 6 months pregnant and was having some heartburn issues and she went out of her way late at night to help me out. I will stay in this hotel anytime I am in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a Great hotel clean comfortable room and the staff was really great and very accommodating. Eliana took care of anything and everything that we needed during our stay. I am 6 months pregnant and was having some heartburn issues and she went out of her way late at night to help me out. I will stay in this hotel anytime I am in Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r286842727-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>286842727</t>
+  </si>
+  <si>
+    <t>07/08/2015</t>
+  </si>
+  <si>
+    <t>96 deg., a/c out @ home, status/post surgery...a wonderful respite at this hotel!!!</t>
+  </si>
+  <si>
+    <t>On the 3rd day of no A/C, and trying to recover from surgery, my husband and I had had enough.  I called this hotel directly, and asked if they had a handicap room available since I was using a walker.  Karen was most friendly over the phone and in person!  She located a room, went to check on it prior to our arrival, welcomed us graciously, provided us with a little treat bag and water upon arrival, and then called us after we had been in our room for a few moments to see if everything was OK.  The room was large and clean:  two queen beds, desk, couch, coffee table, dinner table for two, microwave, sink, and refrigerator.  The bathroom was spacious, with multiple grab bars in the tub which was lower so as to be able to step in easily.  The toilet was elevated to ADA height.  Door to bathroom was extra wide to accommodate a wheel chair.   We checked out early prior to breakfast but the area looked well appointed.  Karen and this hotel both rock!!!  It is just off the Sam Houston Toll Road at West Road!MoreShow less</t>
+  </si>
+  <si>
+    <t>On the 3rd day of no A/C, and trying to recover from surgery, my husband and I had had enough.  I called this hotel directly, and asked if they had a handicap room available since I was using a walker.  Karen was most friendly over the phone and in person!  She located a room, went to check on it prior to our arrival, welcomed us graciously, provided us with a little treat bag and water upon arrival, and then called us after we had been in our room for a few moments to see if everything was OK.  The room was large and clean:  two queen beds, desk, couch, coffee table, dinner table for two, microwave, sink, and refrigerator.  The bathroom was spacious, with multiple grab bars in the tub which was lower so as to be able to step in easily.  The toilet was elevated to ADA height.  Door to bathroom was extra wide to accommodate a wheel chair.   We checked out early prior to breakfast but the area looked well appointed.  Karen and this hotel both rock!!!  It is just off the Sam Houston Toll Road at West Road!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r285122408-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>285122408</t>
+  </si>
+  <si>
+    <t>07/02/2015</t>
+  </si>
+  <si>
+    <t>A Great Place</t>
+  </si>
+  <si>
+    <t>The staff was extremely helpful . Taylor worked a miracle to get rooms when we had to come in a day early.Jon was very patient with each parent that came in. The rooms spacious,clean and comfortable. Breakfast offered something for everyone. MoreShow less</t>
+  </si>
+  <si>
+    <t>steve r, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded July 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2015</t>
+  </si>
+  <si>
+    <t>The staff was extremely helpful . Taylor worked a miracle to get rooms when we had to come in a day early.Jon was very patient with each parent that came in. The rooms spacious,clean and comfortable. Breakfast offered something for everyone. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r279388007-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>279388007</t>
+  </si>
+  <si>
+    <t>06/10/2015</t>
+  </si>
+  <si>
+    <t>Excellent Service and Clean</t>
+  </si>
+  <si>
+    <t>I stay at this hotel often. the staff is what makes the hotel so good.  Simira and the employees are there and ready to help with anything you need. the rooms are always clean and ready when i arrive day or night. this is for sure the place to stay if you are going to be on the north side of Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded June 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2015</t>
+  </si>
+  <si>
+    <t>I stay at this hotel often. the staff is what makes the hotel so good.  Simira and the employees are there and ready to help with anything you need. the rooms are always clean and ready when i arrive day or night. this is for sure the place to stay if you are going to be on the north side of Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r279005880-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>279005880</t>
+  </si>
+  <si>
+    <t>06/09/2015</t>
+  </si>
+  <si>
+    <t>Ups and Downs</t>
+  </si>
+  <si>
+    <t>The hotel is nicely decorated, clean and new.Minuses include a thinner blanket/sheet combo than I prefer, having to prop the bathroom door to keep it open, weak wi-fi in the room and an issue with noise in the first floor room I was initially assigned. The clerk at the staff moved me to another room. I'd advise others to stay on the third floor as I would guess the water noises in room 135 were from regular use in the second floor room above.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is nicely decorated, clean and new.Minuses include a thinner blanket/sheet combo than I prefer, having to prop the bathroom door to keep it open, weak wi-fi in the room and an issue with noise in the first floor room I was initially assigned. The clerk at the staff moved me to another room. I'd advise others to stay on the third floor as I would guess the water noises in room 135 were from regular use in the second floor room above.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r271007456-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>271007456</t>
+  </si>
+  <si>
+    <t>05/09/2015</t>
+  </si>
+  <si>
+    <t>Trip  to visit friends</t>
+  </si>
+  <si>
+    <t>This is my second visit to this hotel and each time the staff were very friendly and sincere in trying to make my visit as enjoyable as possible. Sheviki was very courteous when checking me in for my stay. Joshua even remembered my name from my first visit which makes you feel extra welcome. The staff embraces the concept of working as a team.  The rooms were clean and upscale. Even the bath towels were soft and absorbent. All the little things add up for a very pleasant stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded May 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2015</t>
+  </si>
+  <si>
+    <t>This is my second visit to this hotel and each time the staff were very friendly and sincere in trying to make my visit as enjoyable as possible. Sheviki was very courteous when checking me in for my stay. Joshua even remembered my name from my first visit which makes you feel extra welcome. The staff embraces the concept of working as a team.  The rooms were clean and upscale. Even the bath towels were soft and absorbent. All the little things add up for a very pleasant stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r267271919-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>267271919</t>
+  </si>
+  <si>
+    <t>04/22/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best Spot in Houston </t>
+  </si>
+  <si>
+    <t>15 minutes from the airport if you know what your doing. Only 7 miles away from the national Cemetery  Centrally located. Special wrapped cupcakes for our grieving party. Smells of cookies reminding us of home as we traveled from Tampa to celebrate the life of a Combat Veteran. A week long stay and around 25 rooms rented out. The entire staff assistance from start to finish was Top Notch, Hugh, Shiviki, Joshua, Layla and Jon just to by name a few of the ALL HEART team members. So happy to have found our number 1 ranked in Houston place to stay. Everything is clean and well kept. The jets in the hot tub need work but our kids still liked the pool. The staff even was able to switch up rooms so we could get the 107 area of rooms so our 50 plus family members could be close by at all times. The break fast food line up was phenomenal. Loved the crispy bacon. The keepers of the house were upbeat and did not hesitate to switch towels or make beds and get us extra bags so we could police ourselves in our hours of celebrating. We had to leave quickly and left behind some items that Jon secured and held until we could return for them later. Whenever we return to Houston this is our number one choice for a great time. MoreShow less</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded April 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2015</t>
+  </si>
+  <si>
+    <t>15 minutes from the airport if you know what your doing. Only 7 miles away from the national Cemetery  Centrally located. Special wrapped cupcakes for our grieving party. Smells of cookies reminding us of home as we traveled from Tampa to celebrate the life of a Combat Veteran. A week long stay and around 25 rooms rented out. The entire staff assistance from start to finish was Top Notch, Hugh, Shiviki, Joshua, Layla and Jon just to by name a few of the ALL HEART team members. So happy to have found our number 1 ranked in Houston place to stay. Everything is clean and well kept. The jets in the hot tub need work but our kids still liked the pool. The staff even was able to switch up rooms so we could get the 107 area of rooms so our 50 plus family members could be close by at all times. The break fast food line up was phenomenal. Loved the crispy bacon. The keepers of the house were upbeat and did not hesitate to switch towels or make beds and get us extra bags so we could police ourselves in our hours of celebrating. We had to leave quickly and left behind some items that Jon secured and held until we could return for them later. Whenever we return to Houston this is our number one choice for a great time. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r266033031-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>266033031</t>
+  </si>
+  <si>
+    <t>04/16/2015</t>
+  </si>
+  <si>
+    <t>Clean, quiet, convenient, and great staff</t>
+  </si>
+  <si>
+    <t>I've stayed here a couple times now for business.  All the staff is extremely considerate, professional, and accommodating.  My room has always been clean and it's quiet considering how close it is to Highway 290.  Since my travel is for business, I appreciate that you can use the LA Fitness right across the street for free when you stay at this hotel.  They also have a nice reception on weeknights in the lobby.  Keep up the good work!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded April 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2015</t>
+  </si>
+  <si>
+    <t>I've stayed here a couple times now for business.  All the staff is extremely considerate, professional, and accommodating.  My room has always been clean and it's quiet considering how close it is to Highway 290.  Since my travel is for business, I appreciate that you can use the LA Fitness right across the street for free when you stay at this hotel.  They also have a nice reception on weeknights in the lobby.  Keep up the good work!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r265258238-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>265258238</t>
+  </si>
+  <si>
+    <t>04/12/2015</t>
+  </si>
+  <si>
+    <t>clean, friendly place in north Houston</t>
+  </si>
+  <si>
+    <t>This is a convenient hotel in north Houston.  The rooms are clean and comfortable.  The staff is friendly and they always remember me when I return.  The pool is nice and inviting with a nice water feature and the breakfast is very good.  The parking area is well lit.MoreShow less</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded April 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2015</t>
+  </si>
+  <si>
+    <t>This is a convenient hotel in north Houston.  The rooms are clean and comfortable.  The staff is friendly and they always remember me when I return.  The pool is nice and inviting with a nice water feature and the breakfast is very good.  The parking area is well lit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r260687004-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>260687004</t>
+  </si>
+  <si>
+    <t>03/20/2015</t>
+  </si>
+  <si>
+    <t>'Sheesh'</t>
+  </si>
+  <si>
+    <t>Stayed while on business.Easy to find (for Houston!)Desk clerk declined my request for a room on the upper floor when I checked in. "We're all booked up" though the rack we withdrew my card key still had 12-15 cards in it. It seemed like it would have been to much work. Ended up with room on first floor.Room was clean, bed comfortable, but able to hear road and parking lot noise.Wireless connection was unreliable, if able to connect, the connection would be lost quickly.Business Center (or lack of it) was a mess...one PC not set up, no connection to printer, no Word set up, other pc slow, printer had a jam (which I fixed) slow connection to internet, about 10 minutes to access and print boarding passTold morning Desk Clerk about printer not connected, response was "OH, OK".For the cost, cannot recommend, nor will accept reservations to stay their again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded March 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2015</t>
+  </si>
+  <si>
+    <t>Stayed while on business.Easy to find (for Houston!)Desk clerk declined my request for a room on the upper floor when I checked in. "We're all booked up" though the rack we withdrew my card key still had 12-15 cards in it. It seemed like it would have been to much work. Ended up with room on first floor.Room was clean, bed comfortable, but able to hear road and parking lot noise.Wireless connection was unreliable, if able to connect, the connection would be lost quickly.Business Center (or lack of it) was a mess...one PC not set up, no connection to printer, no Word set up, other pc slow, printer had a jam (which I fixed) slow connection to internet, about 10 minutes to access and print boarding passTold morning Desk Clerk about printer not connected, response was "OH, OK".For the cost, cannot recommend, nor will accept reservations to stay their again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r256677078-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>256677078</t>
+  </si>
+  <si>
+    <t>02/27/2015</t>
+  </si>
+  <si>
+    <t>Excellent and friendly service that made my extended stay (6 weeks) very comfortable.</t>
+  </si>
+  <si>
+    <t>Professional staff. Denardo, Joshua and Jon were very helpful. Friendly staff all around. Free access to a new 24 Hr. Fitness Center within walking distance. Clean and very affordable. Can't say enough good things to describe my stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded February 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 28, 2015</t>
+  </si>
+  <si>
+    <t>Professional staff. Denardo, Joshua and Jon were very helpful. Friendly staff all around. Free access to a new 24 Hr. Fitness Center within walking distance. Clean and very affordable. Can't say enough good things to describe my stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r252167399-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>252167399</t>
+  </si>
+  <si>
+    <t>02/01/2015</t>
+  </si>
+  <si>
+    <t>Poor service</t>
+  </si>
+  <si>
+    <t>Everything was OK when we arrived, until we came back at night on the second day and we found that our room had not been cleaned (the beds were not made, the bathroom was as we left it in the morning, etc).   Poor reaction from the staff and the room remained like this because there was no one to clean it.MoreShow less</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded February 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 3, 2015</t>
+  </si>
+  <si>
+    <t>Everything was OK when we arrived, until we came back at night on the second day and we found that our room had not been cleaned (the beds were not made, the bathroom was as we left it in the morning, etc).   Poor reaction from the staff and the room remained like this because there was no one to clean it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r243684869-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>243684869</t>
+  </si>
+  <si>
+    <t>12/09/2014</t>
+  </si>
+  <si>
+    <t>Simira and Ravi Wrote the Book on Five Star Service</t>
+  </si>
+  <si>
+    <t>Because of an oversight, my client did not make a hotsel reservation for my 3-day stay in Houston last week.  When I tried to check into a Holiday Inn Express near his office without a reservation, the hotel's front desk personnel--Simira and Ravi--were unable to give me a room because they were booked solid.  Instead of being just sorry and sympathetic, they both jumped into action and called another hotel nearby and made a reservation for me at a competing brand.  Even though I wasn't a customer, they treated me like I was their most important customer.  That's exceptional service!  Thank you again Ravi Govin and Simira Singleon for being so helpful.  I can see why your hotel stays full most of the time.Ed Katz, presidentInternational Office Moving Institute (IOMI)MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded December 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 10, 2014</t>
+  </si>
+  <si>
+    <t>Because of an oversight, my client did not make a hotsel reservation for my 3-day stay in Houston last week.  When I tried to check into a Holiday Inn Express near his office without a reservation, the hotel's front desk personnel--Simira and Ravi--were unable to give me a room because they were booked solid.  Instead of being just sorry and sympathetic, they both jumped into action and called another hotel nearby and made a reservation for me at a competing brand.  Even though I wasn't a customer, they treated me like I was their most important customer.  That's exceptional service!  Thank you again Ravi Govin and Simira Singleon for being so helpful.  I can see why your hotel stays full most of the time.Ed Katz, presidentInternational Office Moving Institute (IOMI)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r238793787-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>238793787</t>
+  </si>
+  <si>
+    <t>11/08/2014</t>
+  </si>
+  <si>
+    <t>Very Impressive!</t>
+  </si>
+  <si>
+    <t>I am not a big "Holiday Inn Express" person, but this past stay has definitely been a game changer.First off, the staff was completely amazing! Joshua checked me in early and helped me carry my bags to my room. I stay at other hotels all the time and I have never met anyone so pleased to help me, very nice guy. Second, I inspect every room I stay in, just in case. ( I am a Germantown ) and the room was spotless. To top it all off, this hotel is in extremely good shape compared to its age! Kudos to Housekeeping and On staff management. I will recommend this hotel over and over again!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded November 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2014</t>
+  </si>
+  <si>
+    <t>I am not a big "Holiday Inn Express" person, but this past stay has definitely been a game changer.First off, the staff was completely amazing! Joshua checked me in early and helped me carry my bags to my room. I stay at other hotels all the time and I have never met anyone so pleased to help me, very nice guy. Second, I inspect every room I stay in, just in case. ( I am a Germantown ) and the room was spotless. To top it all off, this hotel is in extremely good shape compared to its age! Kudos to Housekeeping and On staff management. I will recommend this hotel over and over again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r237096528-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>237096528</t>
+  </si>
+  <si>
+    <t>10/30/2014</t>
+  </si>
+  <si>
+    <t>Clean, updated hotel without any frills</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel two times now. The first time was in October 2013 for 1 night. The second time was October 2014 for 2 nights. Obviously I liked the hotel, since I returned a second time. Overall it is a clean, updated hotel. Just know you don't get any frills. Which I'm OK with that, because I find that hotels with frills (room service, etc.) charge outrageous prices for everything. I like having a vending machine down the hall where I can buy a $2.00 20 oz soda. The front desk staff was friendly and the hotel as a whole is nice. Just know that if you put a "do not disturb" sign on your door, if the cleaning staff leaves, your room is not getting cleaned. You will also need to take towels, etc. to your room on your own. Again, no frills. I would suggest this hotel to anyone needing to say in this area though.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded November 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 1, 2014</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel two times now. The first time was in October 2013 for 1 night. The second time was October 2014 for 2 nights. Obviously I liked the hotel, since I returned a second time. Overall it is a clean, updated hotel. Just know you don't get any frills. Which I'm OK with that, because I find that hotels with frills (room service, etc.) charge outrageous prices for everything. I like having a vending machine down the hall where I can buy a $2.00 20 oz soda. The front desk staff was friendly and the hotel as a whole is nice. Just know that if you put a "do not disturb" sign on your door, if the cleaning staff leaves, your room is not getting cleaned. You will also need to take towels, etc. to your room on your own. Again, no frills. I would suggest this hotel to anyone needing to say in this area though.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r233530661-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>233530661</t>
+  </si>
+  <si>
+    <t>10/09/2014</t>
+  </si>
+  <si>
+    <t>Overall fine, but noisy.</t>
+  </si>
+  <si>
+    <t>This is your typical Holiday Inn Express.  As is the case with most of Holiday Inn's "Express" hotels it is newer than some of the others.  All the furnishings, bed, fixtures, etc. were in pretty good shape.  For some people the bed is the most important thing and rest assured it is plenty comfortable.  My only complaint there is something I find at most hotels and that is that the "firm" pillows are anything but.  As a business traveler myself I also focus a lot on internet quality since it is a necessity for me working while on the road.  While they do not have their services password protected (terrible idea for them btw) it provided decent speed and I had no problems even streaming video.  There was an occasional slow down, but I was still able to work with no issue.  Staff was friendly and for those who are interested they offer a program where guests can work out at a nearby gym instead of being stuck with the tiny on-site fitness center.
+That being said there are a few issues.  The first issue I had is that there was still that scum from soap that has been left in the holder.  Clearly when the room was turned, housekeeping simply removed the bar of soap that the previous guest had left and then didn't do anything else to clean out the shower.  While this may seem like a minimal...This is your typical Holiday Inn Express.  As is the case with most of Holiday Inn's "Express" hotels it is newer than some of the others.  All the furnishings, bed, fixtures, etc. were in pretty good shape.  For some people the bed is the most important thing and rest assured it is plenty comfortable.  My only complaint there is something I find at most hotels and that is that the "firm" pillows are anything but.  As a business traveler myself I also focus a lot on internet quality since it is a necessity for me working while on the road.  While they do not have their services password protected (terrible idea for them btw) it provided decent speed and I had no problems even streaming video.  There was an occasional slow down, but I was still able to work with no issue.  Staff was friendly and for those who are interested they offer a program where guests can work out at a nearby gym instead of being stuck with the tiny on-site fitness center.That being said there are a few issues.  The first issue I had is that there was still that scum from soap that has been left in the holder.  Clearly when the room was turned, housekeeping simply removed the bar of soap that the previous guest had left and then didn't do anything else to clean out the shower.  While this may seem like a minimal issue I consider it quite gross and does of course make me wonder what other corners were cut when it came to cleaning the room.  The other issue was noise.  While it may just be that the person in the room on the floor above mine is a heavy walker I find that a lot of these newer hotels seem to have similar noise issues.  There was an almost constant thumping sound like someone pacing back and forth, which led me to have to turn up the TV in the room in an attempt to drown it out.  I'm not even sure it was above me or if it was in an adjacent room, but either way I was glad to only be staying one night because that would drive me nuts.Also a side note to GPS users like myself; you may run into issues finding the place.  As a heads-up my GPS took me to what I'm assuming is the neighborhood behind the hotel because when it said that I had reached my destination I was at a dead end in a small residential neighborhood.  Thankfully from there I was able to stumble onto the main road where the hotel is actually located.MoreShow less</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded October 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2014</t>
+  </si>
+  <si>
+    <t>This is your typical Holiday Inn Express.  As is the case with most of Holiday Inn's "Express" hotels it is newer than some of the others.  All the furnishings, bed, fixtures, etc. were in pretty good shape.  For some people the bed is the most important thing and rest assured it is plenty comfortable.  My only complaint there is something I find at most hotels and that is that the "firm" pillows are anything but.  As a business traveler myself I also focus a lot on internet quality since it is a necessity for me working while on the road.  While they do not have their services password protected (terrible idea for them btw) it provided decent speed and I had no problems even streaming video.  There was an occasional slow down, but I was still able to work with no issue.  Staff was friendly and for those who are interested they offer a program where guests can work out at a nearby gym instead of being stuck with the tiny on-site fitness center.
+That being said there are a few issues.  The first issue I had is that there was still that scum from soap that has been left in the holder.  Clearly when the room was turned, housekeeping simply removed the bar of soap that the previous guest had left and then didn't do anything else to clean out the shower.  While this may seem like a minimal...This is your typical Holiday Inn Express.  As is the case with most of Holiday Inn's "Express" hotels it is newer than some of the others.  All the furnishings, bed, fixtures, etc. were in pretty good shape.  For some people the bed is the most important thing and rest assured it is plenty comfortable.  My only complaint there is something I find at most hotels and that is that the "firm" pillows are anything but.  As a business traveler myself I also focus a lot on internet quality since it is a necessity for me working while on the road.  While they do not have their services password protected (terrible idea for them btw) it provided decent speed and I had no problems even streaming video.  There was an occasional slow down, but I was still able to work with no issue.  Staff was friendly and for those who are interested they offer a program where guests can work out at a nearby gym instead of being stuck with the tiny on-site fitness center.That being said there are a few issues.  The first issue I had is that there was still that scum from soap that has been left in the holder.  Clearly when the room was turned, housekeeping simply removed the bar of soap that the previous guest had left and then didn't do anything else to clean out the shower.  While this may seem like a minimal issue I consider it quite gross and does of course make me wonder what other corners were cut when it came to cleaning the room.  The other issue was noise.  While it may just be that the person in the room on the floor above mine is a heavy walker I find that a lot of these newer hotels seem to have similar noise issues.  There was an almost constant thumping sound like someone pacing back and forth, which led me to have to turn up the TV in the room in an attempt to drown it out.  I'm not even sure it was above me or if it was in an adjacent room, but either way I was glad to only be staying one night because that would drive me nuts.Also a side note to GPS users like myself; you may run into issues finding the place.  As a heads-up my GPS took me to what I'm assuming is the neighborhood behind the hotel because when it said that I had reached my destination I was at a dead end in a small residential neighborhood.  Thankfully from there I was able to stumble onto the main road where the hotel is actually located.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r207541408-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>207541408</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>Clean New and Great Service</t>
+  </si>
+  <si>
+    <t>Loved my stay there. It is just a regular Holiday Inn Express. But this one has all of what you would expect from a business hotel off of the highway. This was a great central point for me. I will stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Phil H, Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded June 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2014</t>
+  </si>
+  <si>
+    <t>Loved my stay there. It is just a regular Holiday Inn Express. But this one has all of what you would expect from a business hotel off of the highway. This was a great central point for me. I will stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r204293444-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>204293444</t>
+  </si>
+  <si>
+    <t>05/06/2014</t>
+  </si>
+  <si>
+    <t>Holiday Inn Express Houston</t>
+  </si>
+  <si>
+    <t>Holiday Inn Express HoustonFor the purpose of my review bias, for the last 12 years I have stayed approximately 100 nights a year in the Intercontinental / Holiday Inn Group chain. Date of stay 1st March 14 for  5 nightsMy ongoing experience of the hotel is as follows: +1) Arrival is was easy using the Sat Nav and zip code address instructions 2) On arrival at the hotel the check in staff were extremely pleasant and friendly. 3) All area’s including the bedrooms where always well kept, tidy and clean 4) The rooms are what you would expect from a modern Holiday Inn. SEE the photos5) There is an on site free car park 6) Breakfast (self service) is included with hot and cold selections (the branded Holiday Inn Express range) sausage, biscuit &amp; gravy, powdered egg, toast, pancakes, pastries, cereal, fruit &amp; fresh coffee.7) I used the small gym facilities, which where clean, well maintained and air-conditioned8) Location, The hotel is quite remote from most of the interesting areas of the city, but all can be most easily driven to from the hotel9) Check out, was straight forward and hassle free. In summary the hotel scores 7/10 for an average Holiday Inn that just needs a better location.MoreShow less</t>
+  </si>
+  <si>
+    <t>Phil H, Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded May 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2014</t>
+  </si>
+  <si>
+    <t>Holiday Inn Express HoustonFor the purpose of my review bias, for the last 12 years I have stayed approximately 100 nights a year in the Intercontinental / Holiday Inn Group chain. Date of stay 1st March 14 for  5 nightsMy ongoing experience of the hotel is as follows: +1) Arrival is was easy using the Sat Nav and zip code address instructions 2) On arrival at the hotel the check in staff were extremely pleasant and friendly. 3) All area’s including the bedrooms where always well kept, tidy and clean 4) The rooms are what you would expect from a modern Holiday Inn. SEE the photos5) There is an on site free car park 6) Breakfast (self service) is included with hot and cold selections (the branded Holiday Inn Express range) sausage, biscuit &amp; gravy, powdered egg, toast, pancakes, pastries, cereal, fruit &amp; fresh coffee.7) I used the small gym facilities, which where clean, well maintained and air-conditioned8) Location, The hotel is quite remote from most of the interesting areas of the city, but all can be most easily driven to from the hotel9) Check out, was straight forward and hassle free. In summary the hotel scores 7/10 for an average Holiday Inn that just needs a better location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r179288603-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>179288603</t>
+  </si>
+  <si>
+    <t>09/30/2013</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>My daughters and I booked a room here because it was close to the race course. The hotel is very nice, clean and the employees were very nice. The internet was fast, the beds were comfy and the breakfast had a large variety of options. The only problem is that there are no restaurants close by other than fast food. There is however a mall area that has lots of restaurants that is about 15 minutes away. We ended up in that area for supper.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Phil H, Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded October 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 6, 2013</t>
+  </si>
+  <si>
+    <t>My daughters and I booked a room here because it was close to the race course. The hotel is very nice, clean and the employees were very nice. The internet was fast, the beds were comfy and the breakfast had a large variety of options. The only problem is that there are no restaurants close by other than fast food. There is however a mall area that has lots of restaurants that is about 15 minutes away. We ended up in that area for supper.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r169547811-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>169547811</t>
+  </si>
+  <si>
+    <t>07/28/2013</t>
+  </si>
+  <si>
+    <t>I trusted this HIE with my parents and was not disappointed!</t>
+  </si>
+  <si>
+    <t>My parents made their first trip to Houston in several years. My mom uses a cane and has trouble with stairs due to hip and knee issues so staying at my house, where all the bedrooms are up stairs, is not optimum.  I checked the price at HIE and it was reasonable.  This HIE has been in the neighborhood about a year so I figured it would be state-of-the-art, and it is.  But, better than that, the people are top-notch. From the front desk to housekeeping to the dining room staff and even the maintenance staff, they were very attentive to my parents needs. Also, they always recognized me and greeted me heartily when I came and went during the time Mom and Dad were there.  I will definitely use them again and recommend them to my family, friends friends and neighbors.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Phil H, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded August 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2013</t>
+  </si>
+  <si>
+    <t>My parents made their first trip to Houston in several years. My mom uses a cane and has trouble with stairs due to hip and knee issues so staying at my house, where all the bedrooms are up stairs, is not optimum.  I checked the price at HIE and it was reasonable.  This HIE has been in the neighborhood about a year so I figured it would be state-of-the-art, and it is.  But, better than that, the people are top-notch. From the front desk to housekeeping to the dining room staff and even the maintenance staff, they were very attentive to my parents needs. Also, they always recognized me and greeted me heartily when I came and went during the time Mom and Dad were there.  I will definitely use them again and recommend them to my family, friends friends and neighbors.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r165925275-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>165925275</t>
+  </si>
+  <si>
+    <t>07/01/2013</t>
+  </si>
+  <si>
+    <t>Great Location, Great Service, Great Food</t>
+  </si>
+  <si>
+    <t>I was visiting with family(in-laws) for a reunion just 1 1/2 miles away. My wife and I, along with our daughter, and my brother-in-law and wife resided in this hotel for the final weekend of June 2013.Everything was NICE.....the service, the rooms, the food(grill), and the ambience.  The 'attendees', Lillian and Carlos, were most gracious and accommodating to all of our needs. i plan to stay again later this summer and would highly recommend this hotel to my friends and associates.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r149364073-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>149364073</t>
+  </si>
+  <si>
+    <t>01/10/2013</t>
+  </si>
+  <si>
+    <t>Awesome! Would stay again!</t>
+  </si>
+  <si>
+    <t>We stayed here because it's just a few miles from the Motorsports Park &amp; we got a very inexpensive rate compliments of them. The hotel is very clean &amp; comfortable. The TV, bed, furnishings all were very updated &amp; new looking. The bed is extremely cozy. We were given breakfast coupons as well. We were pleasantly surprised. They even had omelets made-to-order, which I love. We ate dinner at the restaurant the night before &amp; got a discount for that meal as well. All in all, we saved a lot of money on the entire stay!</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r147696589-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>147696589</t>
+  </si>
+  <si>
+    <t>12/18/2012</t>
+  </si>
+  <si>
+    <t>Awkward location but overall worth a visit</t>
+  </si>
+  <si>
+    <t>This hotel is in an odd spot but don't let that fool you.  A quick hop on Beltway 8 and you can be anywhere in the Northwest side of Houston in minutes.  Service has been good and I've always gotten a good rate around $120.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r145769011-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>145769011</t>
+  </si>
+  <si>
+    <t>11/19/2012</t>
+  </si>
+  <si>
+    <t>Very Clean and nice property - a little expensive</t>
+  </si>
+  <si>
+    <t>The hotel is just off the beaten path but still convenient to Beltway 8 on the west side of Houston.  It seemed a lttle expensive compared to other HI properties i have been to, but was indeed a very new feeling and clean hotel.I did notice that of all of the hotels i have stayed at - this was the first one that did not offer a bible in the night stand.  Thats a little disconcerting to me.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r129705961-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>129705961</t>
+  </si>
+  <si>
+    <t>05/10/2012</t>
+  </si>
+  <si>
+    <t>Pricey!</t>
+  </si>
+  <si>
+    <t>This is a very nice looking, well-maintained hotel with a modern look, however, the breakfast was extremely disappointing!  AND.....having to eat off foam plates &amp; use plastic cutlery when paying almost $200/night was disgusting!!!!  AND....midway through the breakfast time period, the urns were empty of coffee and they were not refilled during the 20 minutes we were in the breakfast room.  I do have to say that the rooms were very nice with all the standard amenities, very clean, Wi-Fi worked well, temperature was easy to control, bed was comfortable and the TV was nice. The  breakfast room was well-decorated &amp; comfortable. Location for Energy Corridor meetings was also very good.  Too bad it was all overshadowed by the breakfast.  Not sure if I would stay here again unless it was at a much better price.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>This is a very nice looking, well-maintained hotel with a modern look, however, the breakfast was extremely disappointing!  AND.....having to eat off foam plates &amp; use plastic cutlery when paying almost $200/night was disgusting!!!!  AND....midway through the breakfast time period, the urns were empty of coffee and they were not refilled during the 20 minutes we were in the breakfast room.  I do have to say that the rooms were very nice with all the standard amenities, very clean, Wi-Fi worked well, temperature was easy to control, bed was comfortable and the TV was nice. The  breakfast room was well-decorated &amp; comfortable. Location for Energy Corridor meetings was also very good.  Too bad it was all overshadowed by the breakfast.  Not sure if I would stay here again unless it was at a much better price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r129507306-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>129507306</t>
+  </si>
+  <si>
+    <t>05/07/2012</t>
+  </si>
+  <si>
+    <t>Better than last time, but still room for improvement</t>
+  </si>
+  <si>
+    <t>I spent another week at the Holiday Inn Express on West Road this month.  During my first stay, I was giving a handicapped accessible room and the shower was wheelchair accessible, which meant that water would run over the entire bathroom floor causing slip hazards.  I also encountered rowdy and noisy patrons late into the night.  
+I did not have any of those issues on this trip.  The normal guest bathroom was much better and I was on the 3rd floor so I did not notice any real guest noise at all.  The bed was still comfy with both soft and firm pillow options in every room.  A fridge and a microwave in every room made eating out much more enjoyable as well.  The TV was very nice and the wireless internet worked much better than on my previous visit.
+My issue with the hotel this time was the complementary breakfast.  It was just awful.  During my entire stay, the juice machine was not putting out any apple juice at all.  I tried priming it by running a few glasses through it and would get a small shot of the apple juice but mostly water.  I decided to go with coffee instead, although it was much too hot in Houston last week to be drinking coffee.  The coffee selection looked good, with (I think) 3 different options available.  I honestly could not tell the difference between the 3 flavors though....I spent another week at the Holiday Inn Express on West Road this month.  During my first stay, I was giving a handicapped accessible room and the shower was wheelchair accessible, which meant that water would run over the entire bathroom floor causing slip hazards.  I also encountered rowdy and noisy patrons late into the night.  I did not have any of those issues on this trip.  The normal guest bathroom was much better and I was on the 3rd floor so I did not notice any real guest noise at all.  The bed was still comfy with both soft and firm pillow options in every room.  A fridge and a microwave in every room made eating out much more enjoyable as well.  The TV was very nice and the wireless internet worked much better than on my previous visit.My issue with the hotel this time was the complementary breakfast.  It was just awful.  During my entire stay, the juice machine was not putting out any apple juice at all.  I tried priming it by running a few glasses through it and would get a small shot of the apple juice but mostly water.  I decided to go with coffee instead, although it was much too hot in Houston last week to be drinking coffee.  The coffee selection looked good, with (I think) 3 different options available.  I honestly could not tell the difference between the 3 flavors though.  Then there was the food.  They had the normal offerings of danishes and breads which were fine.  They had cereal with milk available.  I noticed some fresh fruit.  However, I am a meat and eggs fan so I went right for that.  I had some bacon and scrambled eggs on the first morning.  The bacon was OK, but was very overcooked and tasteless.  The eggs were horrible.  They tasted gritty and were very runny, almost like they were from some kind of mix or something.  I tried to salvage them by putting some gravy over them, which only made it worse since the gravy was also very runny.  I decided this would be my last complementary breakfast on this trip, and ate out every other morning.  I did look at the breakfast every other day but was still uninspired by it.  I saw sausage patties one day and those frozen pre-made omelette things twice.  All in all, it was still a nice place to stay.  I just don't understand why so many of these hotels go with cheap airline-style food for their breakfasts.  Real food does not cost that much more to provide and would make a much better impression.MoreShow less</t>
+  </si>
+  <si>
+    <t>I spent another week at the Holiday Inn Express on West Road this month.  During my first stay, I was giving a handicapped accessible room and the shower was wheelchair accessible, which meant that water would run over the entire bathroom floor causing slip hazards.  I also encountered rowdy and noisy patrons late into the night.  
+I did not have any of those issues on this trip.  The normal guest bathroom was much better and I was on the 3rd floor so I did not notice any real guest noise at all.  The bed was still comfy with both soft and firm pillow options in every room.  A fridge and a microwave in every room made eating out much more enjoyable as well.  The TV was very nice and the wireless internet worked much better than on my previous visit.
+My issue with the hotel this time was the complementary breakfast.  It was just awful.  During my entire stay, the juice machine was not putting out any apple juice at all.  I tried priming it by running a few glasses through it and would get a small shot of the apple juice but mostly water.  I decided to go with coffee instead, although it was much too hot in Houston last week to be drinking coffee.  The coffee selection looked good, with (I think) 3 different options available.  I honestly could not tell the difference between the 3 flavors though....I spent another week at the Holiday Inn Express on West Road this month.  During my first stay, I was giving a handicapped accessible room and the shower was wheelchair accessible, which meant that water would run over the entire bathroom floor causing slip hazards.  I also encountered rowdy and noisy patrons late into the night.  I did not have any of those issues on this trip.  The normal guest bathroom was much better and I was on the 3rd floor so I did not notice any real guest noise at all.  The bed was still comfy with both soft and firm pillow options in every room.  A fridge and a microwave in every room made eating out much more enjoyable as well.  The TV was very nice and the wireless internet worked much better than on my previous visit.My issue with the hotel this time was the complementary breakfast.  It was just awful.  During my entire stay, the juice machine was not putting out any apple juice at all.  I tried priming it by running a few glasses through it and would get a small shot of the apple juice but mostly water.  I decided to go with coffee instead, although it was much too hot in Houston last week to be drinking coffee.  The coffee selection looked good, with (I think) 3 different options available.  I honestly could not tell the difference between the 3 flavors though.  Then there was the food.  They had the normal offerings of danishes and breads which were fine.  They had cereal with milk available.  I noticed some fresh fruit.  However, I am a meat and eggs fan so I went right for that.  I had some bacon and scrambled eggs on the first morning.  The bacon was OK, but was very overcooked and tasteless.  The eggs were horrible.  They tasted gritty and were very runny, almost like they were from some kind of mix or something.  I tried to salvage them by putting some gravy over them, which only made it worse since the gravy was also very runny.  I decided this would be my last complementary breakfast on this trip, and ate out every other morning.  I did look at the breakfast every other day but was still uninspired by it.  I saw sausage patties one day and those frozen pre-made omelette things twice.  All in all, it was still a nice place to stay.  I just don't understand why so many of these hotels go with cheap airline-style food for their breakfasts.  Real food does not cost that much more to provide and would make a much better impression.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r127474921-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>127474921</t>
+  </si>
+  <si>
+    <t>04/08/2012</t>
+  </si>
+  <si>
+    <t>Great stay in Houston</t>
+  </si>
+  <si>
+    <t>Great quite clean place, close to the airport, would recommend to anybody! Enjoy!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded April 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2015</t>
+  </si>
+  <si>
+    <t>Great quite clean place, close to the airport, would recommend to anybody! Enjoy!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r120908648-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>120908648</t>
+  </si>
+  <si>
+    <t>11/22/2011</t>
+  </si>
+  <si>
+    <t>New Location</t>
+  </si>
+  <si>
+    <t>Lovely new Hotel ,very good location for our needs. Staff were polite and helpful, suggestion for  were to eat Dinner was perfect. We were on the top floor which meant we had an issue with the noise from the extractor fan or Aircon unit on the roof (we were not sure where it was coming from)in the bathroom it did not cut out and as a light sleeper was annoying . It did not bother my husband though! The swimming pool and spa looked inviting but it was too cold for us to try it.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>hiexpresshouston, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded November 23, 2011</t>
+  </si>
+  <si>
+    <t>Responded November 23, 2011</t>
+  </si>
+  <si>
+    <t>Lovely new Hotel ,very good location for our needs. Staff were polite and helpful, suggestion for  were to eat Dinner was perfect. We were on the top floor which meant we had an issue with the noise from the extractor fan or Aircon unit on the roof (we were not sure where it was coming from)in the bathroom it did not cut out and as a light sleeper was annoying . It did not bother my husband though! The swimming pool and spa looked inviting but it was too cold for us to try it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r118620723-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>118620723</t>
+  </si>
+  <si>
+    <t>09/26/2011</t>
+  </si>
+  <si>
+    <t>Great hotel, wonderful stay.</t>
+  </si>
+  <si>
+    <t>Not all hotel reviews are the same, this one however was spot on. I booked a room at this hotel after reading the reviews about it. I was in Houston overnight on business and needed a place to stay. The hotel was about 25 miles out of the way for me but I took a chance and it really payed off.
+First off the staff was awesome, they greeted me with big smiles and had everything set up for me per my reservation. I even received a little gift bag, priority club member perk! The room was nice and clean and well kept. The bed was really comfy, and had both soft and firm pillows to choose from. A fridge and microwave are conspicuously tucked away in the cabinet below the flat screen. There was plenty of work space for my laptops and a nice overstuffed faux-suede chair and ottoman in the corner. The hotel is nice and new, this was reflected throughout the well maintained property. 
+The breakfast the following morning was quite good as well. Unfortunately the pancake maker was on the fritz and despite attempts by the staff they could not get it working; that was OK thought, there were plenty of other hot alternatives available.    
+I would like to personally thank Gwen the assistant manager, Sheviki and Ryan from guest services for an incredible nights stay. I've paid triple the price at higher rated hotels and...Not all hotel reviews are the same, this one however was spot on. I booked a room at this hotel after reading the reviews about it. I was in Houston overnight on business and needed a place to stay. The hotel was about 25 miles out of the way for me but I took a chance and it really payed off.First off the staff was awesome, they greeted me with big smiles and had everything set up for me per my reservation. I even received a little gift bag, priority club member perk! The room was nice and clean and well kept. The bed was really comfy, and had both soft and firm pillows to choose from. A fridge and microwave are conspicuously tucked away in the cabinet below the flat screen. There was plenty of work space for my laptops and a nice overstuffed faux-suede chair and ottoman in the corner. The hotel is nice and new, this was reflected throughout the well maintained property. The breakfast the following morning was quite good as well. Unfortunately the pancake maker was on the fritz and despite attempts by the staff they could not get it working; that was OK thought, there were plenty of other hot alternatives available.    I would like to personally thank Gwen the assistant manager, Sheviki and Ryan from guest services for an incredible nights stay. I've paid triple the price at higher rated hotels and did not receive close to the quality of service and comfort that I experienced at this hotel.Any time I travel to Houston if the future, a stay at this hotel will be a must!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>hiexpresshouston, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded November 21, 2011</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2011</t>
+  </si>
+  <si>
+    <t>Not all hotel reviews are the same, this one however was spot on. I booked a room at this hotel after reading the reviews about it. I was in Houston overnight on business and needed a place to stay. The hotel was about 25 miles out of the way for me but I took a chance and it really payed off.
+First off the staff was awesome, they greeted me with big smiles and had everything set up for me per my reservation. I even received a little gift bag, priority club member perk! The room was nice and clean and well kept. The bed was really comfy, and had both soft and firm pillows to choose from. A fridge and microwave are conspicuously tucked away in the cabinet below the flat screen. There was plenty of work space for my laptops and a nice overstuffed faux-suede chair and ottoman in the corner. The hotel is nice and new, this was reflected throughout the well maintained property. 
+The breakfast the following morning was quite good as well. Unfortunately the pancake maker was on the fritz and despite attempts by the staff they could not get it working; that was OK thought, there were plenty of other hot alternatives available.    
+I would like to personally thank Gwen the assistant manager, Sheviki and Ryan from guest services for an incredible nights stay. I've paid triple the price at higher rated hotels and...Not all hotel reviews are the same, this one however was spot on. I booked a room at this hotel after reading the reviews about it. I was in Houston overnight on business and needed a place to stay. The hotel was about 25 miles out of the way for me but I took a chance and it really payed off.First off the staff was awesome, they greeted me with big smiles and had everything set up for me per my reservation. I even received a little gift bag, priority club member perk! The room was nice and clean and well kept. The bed was really comfy, and had both soft and firm pillows to choose from. A fridge and microwave are conspicuously tucked away in the cabinet below the flat screen. There was plenty of work space for my laptops and a nice overstuffed faux-suede chair and ottoman in the corner. The hotel is nice and new, this was reflected throughout the well maintained property. The breakfast the following morning was quite good as well. Unfortunately the pancake maker was on the fritz and despite attempts by the staff they could not get it working; that was OK thought, there were plenty of other hot alternatives available.    I would like to personally thank Gwen the assistant manager, Sheviki and Ryan from guest services for an incredible nights stay. I've paid triple the price at higher rated hotels and did not receive close to the quality of service and comfort that I experienced at this hotel.Any time I travel to Houston if the future, a stay at this hotel will be a must!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r118254648-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>118254648</t>
+  </si>
+  <si>
+    <t>09/17/2011</t>
+  </si>
+  <si>
+    <t>Great hotel, terrible room</t>
+  </si>
+  <si>
+    <t>First let me say that this is a beautiful hotel.  I have never stay at a HIE before, but based on this visit, I definitely would again.  The hotel is very swanky in decor and feels like a boutique hotel.  The small lobby is very attractive and the dining room is comfortable and welcoming.  The complimentary breakfast was adequate, although the quality of the eggs and meats could be raised a bit.  Still not bad for a free breakfast, but Hilton really outdoes Holiday Inn in this area.
+Now the room was another story.  First, the good.  The bed was amazingly comfortable.  I had 4 pillows per bed with both soft and firm options that were marked as such.  The TV was very nice.  The decor was really superb for a hotel in this price range.  It felt like an expensive vegas hotel room.  Every room has a fridge and microwave and internet access.  I had trouble getting access to the internet and had to call the 800 number for assistance.  It finally worked on night #2 and I had no other issues after that.  
+The biggest problem I had was with the bathroom.  I was in a handicapped room because the hotel was full, and the shower was wheelchair accessible.  Sounds nice, except that there was no lip on the shower at all, so the water flowed all over the bathroom floor every time.  I nearly slipped the first...First let me say that this is a beautiful hotel.  I have never stay at a HIE before, but based on this visit, I definitely would again.  The hotel is very swanky in decor and feels like a boutique hotel.  The small lobby is very attractive and the dining room is comfortable and welcoming.  The complimentary breakfast was adequate, although the quality of the eggs and meats could be raised a bit.  Still not bad for a free breakfast, but Hilton really outdoes Holiday Inn in this area.Now the room was another story.  First, the good.  The bed was amazingly comfortable.  I had 4 pillows per bed with both soft and firm options that were marked as such.  The TV was very nice.  The decor was really superb for a hotel in this price range.  It felt like an expensive vegas hotel room.  Every room has a fridge and microwave and internet access.  I had trouble getting access to the internet and had to call the 800 number for assistance.  It finally worked on night #2 and I had no other issues after that.  The biggest problem I had was with the bathroom.  I was in a handicapped room because the hotel was full, and the shower was wheelchair accessible.  Sounds nice, except that there was no lip on the shower at all, so the water flowed all over the bathroom floor every time.  I nearly slipped the first night.  After that, I started placing the extra towels on the floor before each shower, which created a swamp of wet towels for the remainder of the day.  This was VERY unacceptable and something needs to be done to solve this.The other issue I had was with other guests.  There appeared to be a group of guys staying there who liked to party late into the night.  They would sit out by the pool drinking until about 1 am and then would go into the dining room and lobby being VERY loud, flirting with women, and generally being obnoxious.  I asked the desk person to quiet them down once, and then 20 min later they started in again so I had to yell out the door for them to shut the hell up.  This happened 2 of the 3 nights I was there.  All in all it was a decent visit.  The main problem was with the design of the handicapped room.  Other than that, i could have tolerated the noise.MoreShow less</t>
+  </si>
+  <si>
+    <t>hiexpresshouston, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded September 22, 2011</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2011</t>
+  </si>
+  <si>
+    <t>First let me say that this is a beautiful hotel.  I have never stay at a HIE before, but based on this visit, I definitely would again.  The hotel is very swanky in decor and feels like a boutique hotel.  The small lobby is very attractive and the dining room is comfortable and welcoming.  The complimentary breakfast was adequate, although the quality of the eggs and meats could be raised a bit.  Still not bad for a free breakfast, but Hilton really outdoes Holiday Inn in this area.
+Now the room was another story.  First, the good.  The bed was amazingly comfortable.  I had 4 pillows per bed with both soft and firm options that were marked as such.  The TV was very nice.  The decor was really superb for a hotel in this price range.  It felt like an expensive vegas hotel room.  Every room has a fridge and microwave and internet access.  I had trouble getting access to the internet and had to call the 800 number for assistance.  It finally worked on night #2 and I had no other issues after that.  
+The biggest problem I had was with the bathroom.  I was in a handicapped room because the hotel was full, and the shower was wheelchair accessible.  Sounds nice, except that there was no lip on the shower at all, so the water flowed all over the bathroom floor every time.  I nearly slipped the first...First let me say that this is a beautiful hotel.  I have never stay at a HIE before, but based on this visit, I definitely would again.  The hotel is very swanky in decor and feels like a boutique hotel.  The small lobby is very attractive and the dining room is comfortable and welcoming.  The complimentary breakfast was adequate, although the quality of the eggs and meats could be raised a bit.  Still not bad for a free breakfast, but Hilton really outdoes Holiday Inn in this area.Now the room was another story.  First, the good.  The bed was amazingly comfortable.  I had 4 pillows per bed with both soft and firm options that were marked as such.  The TV was very nice.  The decor was really superb for a hotel in this price range.  It felt like an expensive vegas hotel room.  Every room has a fridge and microwave and internet access.  I had trouble getting access to the internet and had to call the 800 number for assistance.  It finally worked on night #2 and I had no other issues after that.  The biggest problem I had was with the bathroom.  I was in a handicapped room because the hotel was full, and the shower was wheelchair accessible.  Sounds nice, except that there was no lip on the shower at all, so the water flowed all over the bathroom floor every time.  I nearly slipped the first night.  After that, I started placing the extra towels on the floor before each shower, which created a swamp of wet towels for the remainder of the day.  This was VERY unacceptable and something needs to be done to solve this.The other issue I had was with other guests.  There appeared to be a group of guys staying there who liked to party late into the night.  They would sit out by the pool drinking until about 1 am and then would go into the dining room and lobby being VERY loud, flirting with women, and generally being obnoxious.  I asked the desk person to quiet them down once, and then 20 min later they started in again so I had to yell out the door for them to shut the hell up.  This happened 2 of the 3 nights I was there.  All in all it was a decent visit.  The main problem was with the design of the handicapped room.  Other than that, i could have tolerated the noise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r113148472-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>113148472</t>
+  </si>
+  <si>
+    <t>06/13/2011</t>
+  </si>
+  <si>
+    <t>SUPER GREAT EXPERIENCE</t>
+  </si>
+  <si>
+    <t>Every thing was great from checking in to the checking out. The welcome this place gives you at checking in is one if the best I have had, and I have stayed at alot of hotels. Great place, I would highly recommend this place to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>hiexpresshouston, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded June 15, 2011</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2011</t>
+  </si>
+  <si>
+    <t>Every thing was great from checking in to the checking out. The welcome this place gives you at checking in is one if the best I have had, and I have stayed at alot of hotels. Great place, I would highly recommend this place to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r104798538-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>104798538</t>
+  </si>
+  <si>
+    <t>04/20/2011</t>
+  </si>
+  <si>
+    <t>GREAT STAY/SPOTLESS ROOM/GREAT SERVICE</t>
+  </si>
+  <si>
+    <t>Stayed for one night as all hotels in College Station were booked due to Parents Weekend at TAMU. We decided to drive the hour to this hotel to spend the night and go to Cypress Outlet Mall.  Hotel was super quiet and easy to find.  Room was SPOTLESS.  Front desk was super friendly and provided us with extra towels and a toothbrush(my daughter forgot hers).  I would definitely recommend this hotel if you are in this part of Houston, especially if you are a priority club member.  It was on pointbreaks and I got a two queen suite for 5000 pts.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>hiexpresshouston, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded April 21, 2011</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2011</t>
+  </si>
+  <si>
+    <t>Stayed for one night as all hotels in College Station were booked due to Parents Weekend at TAMU. We decided to drive the hour to this hotel to spend the night and go to Cypress Outlet Mall.  Hotel was super quiet and easy to find.  Room was SPOTLESS.  Front desk was super friendly and provided us with extra towels and a toothbrush(my daughter forgot hers).  I would definitely recommend this hotel if you are in this part of Houston, especially if you are a priority club member.  It was on pointbreaks and I got a two queen suite for 5000 pts.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r102199423-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>102199423</t>
+  </si>
+  <si>
+    <t>03/30/2011</t>
+  </si>
+  <si>
+    <t>BRILLIANT</t>
+  </si>
+  <si>
+    <t>I've never enjoyed a staff as much as I did here! EVERYONE was so very nice and BEYOND helpful!  The entire hotel was VERY clean and absolutely gorgeous.  The rooms were extremely comfortable as well as clean.  We're originally from Houston and back to visit.  This wS a GREAT location for is to quickly reach our families in both the northern outskirts of Houston as well as the Clearlake area.  HIGHLY recommended!!MoreShow less</t>
+  </si>
+  <si>
+    <t>hiexpresshouston, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded April 4, 2011</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2011</t>
+  </si>
+  <si>
+    <t>I've never enjoyed a staff as much as I did here! EVERYONE was so very nice and BEYOND helpful!  The entire hotel was VERY clean and absolutely gorgeous.  The rooms were extremely comfortable as well as clean.  We're originally from Houston and back to visit.  This wS a GREAT location for is to quickly reach our families in both the northern outskirts of Houston as well as the Clearlake area.  HIGHLY recommended!!More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2177,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2209,4693 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" t="s">
+        <v>95</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>94</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O10" t="s">
+        <v>68</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>112</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>112</v>
+      </c>
+      <c r="O12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" t="s">
+        <v>109</v>
+      </c>
+      <c r="K13" t="s">
+        <v>119</v>
+      </c>
+      <c r="L13" t="s">
+        <v>120</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>112</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>122</v>
+      </c>
+      <c r="J14" t="s">
+        <v>123</v>
+      </c>
+      <c r="K14" t="s">
+        <v>124</v>
+      </c>
+      <c r="L14" t="s">
+        <v>125</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>126</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>128</v>
+      </c>
+      <c r="J15" t="s">
+        <v>129</v>
+      </c>
+      <c r="K15" t="s">
+        <v>130</v>
+      </c>
+      <c r="L15" t="s">
+        <v>131</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>132</v>
+      </c>
+      <c r="O15" t="s">
+        <v>133</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>135</v>
+      </c>
+      <c r="J16" t="s">
+        <v>136</v>
+      </c>
+      <c r="K16" t="s">
+        <v>137</v>
+      </c>
+      <c r="L16" t="s">
+        <v>138</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>139</v>
+      </c>
+      <c r="O16" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>141</v>
+      </c>
+      <c r="J17" t="s">
+        <v>142</v>
+      </c>
+      <c r="K17" t="s">
+        <v>143</v>
+      </c>
+      <c r="L17" t="s">
+        <v>144</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>145</v>
+      </c>
+      <c r="O17" t="s">
+        <v>68</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J18" t="s">
+        <v>148</v>
+      </c>
+      <c r="K18" t="s">
+        <v>149</v>
+      </c>
+      <c r="L18" t="s">
+        <v>150</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>145</v>
+      </c>
+      <c r="O18" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>151</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>152</v>
+      </c>
+      <c r="J19" t="s">
+        <v>153</v>
+      </c>
+      <c r="K19" t="s">
+        <v>154</v>
+      </c>
+      <c r="L19" t="s">
+        <v>155</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>156</v>
+      </c>
+      <c r="O19" t="s">
+        <v>68</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>157</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>158</v>
+      </c>
+      <c r="J20" t="s">
+        <v>159</v>
+      </c>
+      <c r="K20" t="s">
+        <v>160</v>
+      </c>
+      <c r="L20" t="s">
+        <v>161</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>162</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>163</v>
+      </c>
+      <c r="X20" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>166</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>167</v>
+      </c>
+      <c r="J21" t="s">
+        <v>168</v>
+      </c>
+      <c r="K21" t="s">
+        <v>169</v>
+      </c>
+      <c r="L21" t="s">
+        <v>170</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>162</v>
+      </c>
+      <c r="O21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>171</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>172</v>
+      </c>
+      <c r="J22" t="s">
+        <v>173</v>
+      </c>
+      <c r="K22" t="s">
+        <v>174</v>
+      </c>
+      <c r="L22" t="s">
+        <v>175</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>176</v>
+      </c>
+      <c r="O22" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>177</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>178</v>
+      </c>
+      <c r="J23" t="s">
+        <v>179</v>
+      </c>
+      <c r="K23" t="s">
+        <v>180</v>
+      </c>
+      <c r="L23" t="s">
+        <v>181</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>182</v>
+      </c>
+      <c r="O23" t="s">
+        <v>60</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>183</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>184</v>
+      </c>
+      <c r="J24" t="s">
+        <v>185</v>
+      </c>
+      <c r="K24" t="s">
+        <v>186</v>
+      </c>
+      <c r="L24" t="s">
+        <v>187</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>188</v>
+      </c>
+      <c r="O24" t="s">
+        <v>68</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>189</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>190</v>
+      </c>
+      <c r="J25" t="s">
+        <v>185</v>
+      </c>
+      <c r="K25" t="s">
+        <v>191</v>
+      </c>
+      <c r="L25" t="s">
+        <v>192</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>188</v>
+      </c>
+      <c r="O25" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>193</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>194</v>
+      </c>
+      <c r="J26" t="s">
+        <v>195</v>
+      </c>
+      <c r="K26" t="s">
+        <v>196</v>
+      </c>
+      <c r="L26" t="s">
+        <v>197</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>188</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>198</v>
+      </c>
+      <c r="X26" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>201</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>202</v>
+      </c>
+      <c r="J27" t="s">
+        <v>203</v>
+      </c>
+      <c r="K27" t="s">
+        <v>204</v>
+      </c>
+      <c r="L27" t="s">
+        <v>205</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>206</v>
+      </c>
+      <c r="O27" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>207</v>
+      </c>
+      <c r="X27" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>210</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>211</v>
+      </c>
+      <c r="J28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K28" t="s">
+        <v>212</v>
+      </c>
+      <c r="L28" t="s">
+        <v>213</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>206</v>
+      </c>
+      <c r="O28" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>207</v>
+      </c>
+      <c r="X28" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>215</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>216</v>
+      </c>
+      <c r="J29" t="s">
+        <v>217</v>
+      </c>
+      <c r="K29" t="s">
+        <v>218</v>
+      </c>
+      <c r="L29" t="s">
+        <v>219</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>206</v>
+      </c>
+      <c r="O29" t="s">
+        <v>60</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>220</v>
+      </c>
+      <c r="X29" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>223</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>224</v>
+      </c>
+      <c r="J30" t="s">
+        <v>225</v>
+      </c>
+      <c r="K30" t="s">
+        <v>226</v>
+      </c>
+      <c r="L30" t="s">
+        <v>227</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>206</v>
+      </c>
+      <c r="O30" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>228</v>
+      </c>
+      <c r="X30" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>231</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>232</v>
+      </c>
+      <c r="J31" t="s">
+        <v>233</v>
+      </c>
+      <c r="K31" t="s">
+        <v>234</v>
+      </c>
+      <c r="L31" t="s">
+        <v>235</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>236</v>
+      </c>
+      <c r="O31" t="s">
+        <v>60</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>237</v>
+      </c>
+      <c r="X31" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>240</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>241</v>
+      </c>
+      <c r="J32" t="s">
+        <v>242</v>
+      </c>
+      <c r="K32" t="s">
+        <v>243</v>
+      </c>
+      <c r="L32" t="s">
+        <v>244</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>236</v>
+      </c>
+      <c r="O32" t="s">
+        <v>60</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>245</v>
+      </c>
+      <c r="X32" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>248</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>249</v>
+      </c>
+      <c r="J33" t="s">
+        <v>250</v>
+      </c>
+      <c r="K33" t="s">
+        <v>251</v>
+      </c>
+      <c r="L33" t="s">
+        <v>252</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>253</v>
+      </c>
+      <c r="X33" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>256</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>257</v>
+      </c>
+      <c r="J34" t="s">
+        <v>258</v>
+      </c>
+      <c r="K34" t="s">
+        <v>259</v>
+      </c>
+      <c r="L34" t="s">
+        <v>260</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>176</v>
+      </c>
+      <c r="O34" t="s">
+        <v>60</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>261</v>
+      </c>
+      <c r="X34" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>264</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>265</v>
+      </c>
+      <c r="J35" t="s">
+        <v>266</v>
+      </c>
+      <c r="K35" t="s">
+        <v>267</v>
+      </c>
+      <c r="L35" t="s">
+        <v>268</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>269</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>270</v>
+      </c>
+      <c r="X35" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>273</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>274</v>
+      </c>
+      <c r="J36" t="s">
+        <v>275</v>
+      </c>
+      <c r="K36" t="s">
+        <v>276</v>
+      </c>
+      <c r="L36" t="s">
+        <v>277</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>269</v>
+      </c>
+      <c r="O36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>278</v>
+      </c>
+      <c r="X36" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>281</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>282</v>
+      </c>
+      <c r="J37" t="s">
+        <v>283</v>
+      </c>
+      <c r="K37" t="s">
+        <v>284</v>
+      </c>
+      <c r="L37" t="s">
+        <v>285</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>269</v>
+      </c>
+      <c r="O37" t="s">
+        <v>60</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>286</v>
+      </c>
+      <c r="X37" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>289</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>290</v>
+      </c>
+      <c r="J38" t="s">
+        <v>291</v>
+      </c>
+      <c r="K38" t="s">
+        <v>292</v>
+      </c>
+      <c r="L38" t="s">
+        <v>293</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>294</v>
+      </c>
+      <c r="O38" t="s">
+        <v>60</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>295</v>
+      </c>
+      <c r="X38" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>298</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>299</v>
+      </c>
+      <c r="J39" t="s">
+        <v>300</v>
+      </c>
+      <c r="K39" t="s">
+        <v>301</v>
+      </c>
+      <c r="L39" t="s">
+        <v>302</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>294</v>
+      </c>
+      <c r="O39" t="s">
+        <v>60</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>303</v>
+      </c>
+      <c r="X39" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>306</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>307</v>
+      </c>
+      <c r="J40" t="s">
+        <v>308</v>
+      </c>
+      <c r="K40" t="s">
+        <v>309</v>
+      </c>
+      <c r="L40" t="s">
+        <v>310</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>294</v>
+      </c>
+      <c r="O40" t="s">
+        <v>60</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>303</v>
+      </c>
+      <c r="X40" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>312</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>313</v>
+      </c>
+      <c r="J41" t="s">
+        <v>314</v>
+      </c>
+      <c r="K41" t="s">
+        <v>315</v>
+      </c>
+      <c r="L41" t="s">
+        <v>316</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>294</v>
+      </c>
+      <c r="O41" t="s">
+        <v>60</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>303</v>
+      </c>
+      <c r="X41" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>318</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>319</v>
+      </c>
+      <c r="J42" t="s">
+        <v>320</v>
+      </c>
+      <c r="K42" t="s">
+        <v>321</v>
+      </c>
+      <c r="L42" t="s">
+        <v>322</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>294</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>303</v>
+      </c>
+      <c r="X42" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>324</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>325</v>
+      </c>
+      <c r="J43" t="s">
+        <v>326</v>
+      </c>
+      <c r="K43" t="s">
+        <v>327</v>
+      </c>
+      <c r="L43" t="s">
+        <v>328</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>329</v>
+      </c>
+      <c r="X43" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>332</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>333</v>
+      </c>
+      <c r="J44" t="s">
+        <v>334</v>
+      </c>
+      <c r="K44" t="s">
+        <v>335</v>
+      </c>
+      <c r="L44" t="s">
+        <v>336</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>337</v>
+      </c>
+      <c r="O44" t="s">
+        <v>60</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>338</v>
+      </c>
+      <c r="X44" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>341</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>342</v>
+      </c>
+      <c r="J45" t="s">
+        <v>343</v>
+      </c>
+      <c r="K45" t="s">
+        <v>344</v>
+      </c>
+      <c r="L45" t="s">
+        <v>345</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>337</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>338</v>
+      </c>
+      <c r="X45" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>347</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>348</v>
+      </c>
+      <c r="J46" t="s">
+        <v>349</v>
+      </c>
+      <c r="K46" t="s">
+        <v>350</v>
+      </c>
+      <c r="L46" t="s">
+        <v>351</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>352</v>
+      </c>
+      <c r="O46" t="s">
+        <v>68</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>353</v>
+      </c>
+      <c r="X46" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>356</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>357</v>
+      </c>
+      <c r="J47" t="s">
+        <v>358</v>
+      </c>
+      <c r="K47" t="s">
+        <v>359</v>
+      </c>
+      <c r="L47" t="s">
+        <v>360</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>361</v>
+      </c>
+      <c r="X47" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>364</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>365</v>
+      </c>
+      <c r="J48" t="s">
+        <v>366</v>
+      </c>
+      <c r="K48" t="s">
+        <v>367</v>
+      </c>
+      <c r="L48" t="s">
+        <v>368</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>369</v>
+      </c>
+      <c r="O48" t="s">
+        <v>60</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>370</v>
+      </c>
+      <c r="X48" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>373</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>374</v>
+      </c>
+      <c r="J49" t="s">
+        <v>375</v>
+      </c>
+      <c r="K49" t="s">
+        <v>376</v>
+      </c>
+      <c r="L49" t="s">
+        <v>377</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>369</v>
+      </c>
+      <c r="O49" t="s">
+        <v>60</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>378</v>
+      </c>
+      <c r="X49" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>381</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>382</v>
+      </c>
+      <c r="J50" t="s">
+        <v>383</v>
+      </c>
+      <c r="K50" t="s">
+        <v>384</v>
+      </c>
+      <c r="L50" t="s">
+        <v>385</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>386</v>
+      </c>
+      <c r="O50" t="s">
+        <v>60</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>387</v>
+      </c>
+      <c r="X50" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>390</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>391</v>
+      </c>
+      <c r="J51" t="s">
+        <v>392</v>
+      </c>
+      <c r="K51" t="s">
+        <v>393</v>
+      </c>
+      <c r="L51" t="s">
+        <v>394</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>395</v>
+      </c>
+      <c r="X51" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>398</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>399</v>
+      </c>
+      <c r="J52" t="s">
+        <v>400</v>
+      </c>
+      <c r="K52" t="s">
+        <v>401</v>
+      </c>
+      <c r="L52" t="s">
+        <v>402</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>403</v>
+      </c>
+      <c r="X52" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>406</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>407</v>
+      </c>
+      <c r="J53" t="s">
+        <v>408</v>
+      </c>
+      <c r="K53" t="s">
+        <v>409</v>
+      </c>
+      <c r="L53" t="s">
+        <v>410</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>411</v>
+      </c>
+      <c r="O53" t="s">
+        <v>60</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>412</v>
+      </c>
+      <c r="X53" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>415</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>416</v>
+      </c>
+      <c r="J54" t="s">
+        <v>417</v>
+      </c>
+      <c r="K54" t="s">
+        <v>418</v>
+      </c>
+      <c r="L54" t="s">
+        <v>419</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>420</v>
+      </c>
+      <c r="O54" t="s">
+        <v>60</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>421</v>
+      </c>
+      <c r="X54" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>424</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>425</v>
+      </c>
+      <c r="J55" t="s">
+        <v>426</v>
+      </c>
+      <c r="K55" t="s">
+        <v>427</v>
+      </c>
+      <c r="L55" t="s">
+        <v>428</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>429</v>
+      </c>
+      <c r="O55" t="s">
+        <v>68</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>430</v>
+      </c>
+      <c r="X55" t="s">
+        <v>431</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>433</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>434</v>
+      </c>
+      <c r="J56" t="s">
+        <v>435</v>
+      </c>
+      <c r="K56" t="s">
+        <v>436</v>
+      </c>
+      <c r="L56" t="s">
+        <v>437</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s">
+        <v>429</v>
+      </c>
+      <c r="O56" t="s">
+        <v>60</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="n">
+        <v>2</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>438</v>
+      </c>
+      <c r="X56" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>441</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>442</v>
+      </c>
+      <c r="J57" t="s">
+        <v>443</v>
+      </c>
+      <c r="K57" t="s">
+        <v>444</v>
+      </c>
+      <c r="L57" t="s">
+        <v>445</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>446</v>
+      </c>
+      <c r="O57" t="s">
+        <v>60</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>447</v>
+      </c>
+      <c r="X57" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>450</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>451</v>
+      </c>
+      <c r="J58" t="s">
+        <v>452</v>
+      </c>
+      <c r="K58" t="s">
+        <v>453</v>
+      </c>
+      <c r="L58" t="s">
+        <v>454</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>446</v>
+      </c>
+      <c r="O58" t="s">
+        <v>60</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>2</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>455</v>
+      </c>
+      <c r="X58" t="s">
+        <v>456</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>458</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>459</v>
+      </c>
+      <c r="J59" t="s">
+        <v>460</v>
+      </c>
+      <c r="K59" t="s">
+        <v>461</v>
+      </c>
+      <c r="L59" t="s">
+        <v>462</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>463</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>464</v>
+      </c>
+      <c r="X59" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>467</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>468</v>
+      </c>
+      <c r="J60" t="s">
+        <v>469</v>
+      </c>
+      <c r="K60" t="s">
+        <v>470</v>
+      </c>
+      <c r="L60" t="s">
+        <v>471</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>472</v>
+      </c>
+      <c r="O60" t="s">
+        <v>60</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>473</v>
+      </c>
+      <c r="X60" t="s">
+        <v>474</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>476</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>477</v>
+      </c>
+      <c r="J61" t="s">
+        <v>478</v>
+      </c>
+      <c r="K61" t="s">
+        <v>479</v>
+      </c>
+      <c r="L61" t="s">
+        <v>480</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>481</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>482</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>483</v>
+      </c>
+      <c r="J62" t="s">
+        <v>484</v>
+      </c>
+      <c r="K62" t="s">
+        <v>485</v>
+      </c>
+      <c r="L62" t="s">
+        <v>486</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>487</v>
+      </c>
+      <c r="O62" t="s">
+        <v>95</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>488</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>489</v>
+      </c>
+      <c r="J63" t="s">
+        <v>490</v>
+      </c>
+      <c r="K63" t="s">
+        <v>491</v>
+      </c>
+      <c r="L63" t="s">
+        <v>492</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>493</v>
+      </c>
+      <c r="O63" t="s">
+        <v>60</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>494</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>495</v>
+      </c>
+      <c r="J64" t="s">
+        <v>496</v>
+      </c>
+      <c r="K64" t="s">
+        <v>497</v>
+      </c>
+      <c r="L64" t="s">
+        <v>498</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>499</v>
+      </c>
+      <c r="O64" t="s">
+        <v>60</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>500</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>501</v>
+      </c>
+      <c r="J65" t="s">
+        <v>502</v>
+      </c>
+      <c r="K65" t="s">
+        <v>503</v>
+      </c>
+      <c r="L65" t="s">
+        <v>504</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>505</v>
+      </c>
+      <c r="O65" t="s">
+        <v>60</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>507</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>508</v>
+      </c>
+      <c r="J66" t="s">
+        <v>509</v>
+      </c>
+      <c r="K66" t="s">
+        <v>510</v>
+      </c>
+      <c r="L66" t="s">
+        <v>511</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>505</v>
+      </c>
+      <c r="O66" t="s">
+        <v>60</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>513</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>514</v>
+      </c>
+      <c r="J67" t="s">
+        <v>515</v>
+      </c>
+      <c r="K67" t="s">
+        <v>516</v>
+      </c>
+      <c r="L67" t="s">
+        <v>517</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>518</v>
+      </c>
+      <c r="O67" t="s">
+        <v>60</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>519</v>
+      </c>
+      <c r="X67" t="s">
+        <v>520</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>522</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>523</v>
+      </c>
+      <c r="J68" t="s">
+        <v>524</v>
+      </c>
+      <c r="K68" t="s">
+        <v>525</v>
+      </c>
+      <c r="L68" t="s">
+        <v>526</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>527</v>
+      </c>
+      <c r="O68" t="s">
+        <v>60</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>528</v>
+      </c>
+      <c r="X68" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>531</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>532</v>
+      </c>
+      <c r="J69" t="s">
+        <v>533</v>
+      </c>
+      <c r="K69" t="s">
+        <v>534</v>
+      </c>
+      <c r="L69" t="s">
+        <v>535</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>536</v>
+      </c>
+      <c r="O69" t="s">
+        <v>60</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>537</v>
+      </c>
+      <c r="X69" t="s">
+        <v>538</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>540</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>541</v>
+      </c>
+      <c r="J70" t="s">
+        <v>542</v>
+      </c>
+      <c r="K70" t="s">
+        <v>543</v>
+      </c>
+      <c r="L70" t="s">
+        <v>544</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>536</v>
+      </c>
+      <c r="O70" t="s">
+        <v>60</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>545</v>
+      </c>
+      <c r="X70" t="s">
+        <v>546</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>548</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>549</v>
+      </c>
+      <c r="J71" t="s">
+        <v>550</v>
+      </c>
+      <c r="K71" t="s">
+        <v>551</v>
+      </c>
+      <c r="L71" t="s">
+        <v>552</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>553</v>
+      </c>
+      <c r="O71" t="s">
+        <v>60</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>554</v>
+      </c>
+      <c r="X71" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>557</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>558</v>
+      </c>
+      <c r="J72" t="s">
+        <v>559</v>
+      </c>
+      <c r="K72" t="s">
+        <v>560</v>
+      </c>
+      <c r="L72" t="s">
+        <v>561</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>562</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>563</v>
+      </c>
+      <c r="X72" t="s">
+        <v>564</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>566</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>567</v>
+      </c>
+      <c r="J73" t="s">
+        <v>568</v>
+      </c>
+      <c r="K73" t="s">
+        <v>569</v>
+      </c>
+      <c r="L73" t="s">
+        <v>570</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>571</v>
+      </c>
+      <c r="X73" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>573</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_334.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_334.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="900">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,88 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/10/2018</t>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r613162071-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>1773009</t>
+  </si>
+  <si>
+    <t>613162071</t>
+  </si>
+  <si>
+    <t>09/02/2018</t>
+  </si>
+  <si>
+    <t>Comfortable</t>
+  </si>
+  <si>
+    <t>This location of Holiday Inn Express &amp; Suites was clean and comfortable. The continental breakfast was small but had a nice selection of food (especially, omelet with cheese). The kitchen staff (Olivia) was very nice and did a great job of keeping the food hot, FRESH and clean. We would recommend staying here..........Satisfied Customers</t>
+  </si>
+  <si>
+    <t>September 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r570809853-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>570809853</t>
+  </si>
+  <si>
+    <t>04/03/2018</t>
+  </si>
+  <si>
+    <t>Staff...You are Excellent</t>
+  </si>
+  <si>
+    <t>Hotel was clean and the receiving staff were friendly and helpful.  Twice we had to call for "extras" in the room and they hustled to replay.  Great experience.  Beds are comfortable and housekeeping is better than most hotels!  Great job, Staff!</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r600834130-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>600834130</t>
+  </si>
+  <si>
+    <t>07/29/2018</t>
+  </si>
+  <si>
+    <t>Incredibly Thoughtful</t>
+  </si>
+  <si>
+    <t>I was put up at this hotel for work by my employer and at first thought "Oh no, Holiday Inn?! Ugh" but upon checking in was pleasantly surprised by the sleek near-Microtel style of the hotel- the furnishings, decor, smells, lighting, all the details are similar to a lower cost, but nice and clean European motel. 
+After my first day, the small fridge in the room froze up, no matter how low I turned the dial inside the fridge to. In fact I turned it off, but it remained frozen, ruining the spinach I like to always have on hand for a light evening meal. I called the front desk and let them know about the problem and asked if they would replace the spinach. They apologized, and offered to let me keep any other foods in their fridge until they could look at what was going on in mine. I also have goat cheese and tomatoes, but even frozen solid, those wouldn't ruin like the spinach. 
+The next evening, when I came in from work, there was a lovely gift bag filled with salad dressing, cranberries and a nice card, and inside the fridge- now working properly- was a fresh bag of spinach and a new block of goat cheese :-) they went above and beyond what I'd asked for, and were genuinely kind about their concern for my comfort. In fact, when I called the front desk to...I was put up at this hotel for work by my employer and at first thought "Oh no, Holiday Inn?! Ugh" but upon checking in was pleasantly surprised by the sleek near-Microtel style of the hotel- the furnishings, decor, smells, lighting, all the details are similar to a lower cost, but nice and clean European motel. After my first day, the small fridge in the room froze up, no matter how low I turned the dial inside the fridge to. In fact I turned it off, but it remained frozen, ruining the spinach I like to always have on hand for a light evening meal. I called the front desk and let them know about the problem and asked if they would replace the spinach. They apologized, and offered to let me keep any other foods in their fridge until they could look at what was going on in mine. I also have goat cheese and tomatoes, but even frozen solid, those wouldn't ruin like the spinach. The next evening, when I came in from work, there was a lovely gift bag filled with salad dressing, cranberries and a nice card, and inside the fridge- now working properly- was a fresh bag of spinach and a new block of goat cheese :-) they went above and beyond what I'd asked for, and were genuinely kind about their concern for my comfort. In fact, when I called the front desk to thank them, the gent I spoke with said that they had been concerned that it had happened at all, and they were glad to replace anything else if needed :-)Aside from this, their breakfasts are actually quite plentiful- with egg white omelettes, fresh pancakes, 2 types of sausage/bacon, and a nice assortment of yoghurts as well as cereal, fresh fruit, etc. Hey, it's a really decent hotel for a low budget price, works for me :-)MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I was put up at this hotel for work by my employer and at first thought "Oh no, Holiday Inn?! Ugh" but upon checking in was pleasantly surprised by the sleek near-Microtel style of the hotel- the furnishings, decor, smells, lighting, all the details are similar to a lower cost, but nice and clean European motel. 
+After my first day, the small fridge in the room froze up, no matter how low I turned the dial inside the fridge to. In fact I turned it off, but it remained frozen, ruining the spinach I like to always have on hand for a light evening meal. I called the front desk and let them know about the problem and asked if they would replace the spinach. They apologized, and offered to let me keep any other foods in their fridge until they could look at what was going on in mine. I also have goat cheese and tomatoes, but even frozen solid, those wouldn't ruin like the spinach. 
+The next evening, when I came in from work, there was a lovely gift bag filled with salad dressing, cranberries and a nice card, and inside the fridge- now working properly- was a fresh bag of spinach and a new block of goat cheese :-) they went above and beyond what I'd asked for, and were genuinely kind about their concern for my comfort. In fact, when I called the front desk to...I was put up at this hotel for work by my employer and at first thought "Oh no, Holiday Inn?! Ugh" but upon checking in was pleasantly surprised by the sleek near-Microtel style of the hotel- the furnishings, decor, smells, lighting, all the details are similar to a lower cost, but nice and clean European motel. After my first day, the small fridge in the room froze up, no matter how low I turned the dial inside the fridge to. In fact I turned it off, but it remained frozen, ruining the spinach I like to always have on hand for a light evening meal. I called the front desk and let them know about the problem and asked if they would replace the spinach. They apologized, and offered to let me keep any other foods in their fridge until they could look at what was going on in mine. I also have goat cheese and tomatoes, but even frozen solid, those wouldn't ruin like the spinach. The next evening, when I came in from work, there was a lovely gift bag filled with salad dressing, cranberries and a nice card, and inside the fridge- now working properly- was a fresh bag of spinach and a new block of goat cheese :-) they went above and beyond what I'd asked for, and were genuinely kind about their concern for my comfort. In fact, when I called the front desk to thank them, the gent I spoke with said that they had been concerned that it had happened at all, and they were glad to replace anything else if needed :-)Aside from this, their breakfasts are actually quite plentiful- with egg white omelettes, fresh pancakes, 2 types of sausage/bacon, and a nice assortment of yoghurts as well as cereal, fresh fruit, etc. Hey, it's a really decent hotel for a low budget price, works for me :-)More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r593807484-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>1773009</t>
-  </si>
-  <si>
     <t>593807484</t>
   </si>
   <si>
@@ -172,12 +242,6 @@
   </si>
   <si>
     <t>The housekeeping and front desk was rude and the whole time we were there the rooms didn’t get clean. They made up my bed with dirty sheets, we had to ask for tissue for room. They told us to leave a day early it was just horrible I would never go there again</t>
-  </si>
-  <si>
-    <t>July 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r588862882-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
@@ -199,9 +263,6 @@
     <t>June 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>The hotel is isolated but restaurants within walking distance if there were sidewalks to get there. the hotel is set back from the road with a field in front of it but the field is not maintained and the tall growing weeds makes the hotel look very shady. parking is easily available up front with lots of parking in the rear near the pool. There is no public transit or shuttle but this seems to be a city of Houston issue. The lobby is clean and big enough with 2 counters and small shop. The front staff seemed young and untrained but friendly enough. Room is fine. 
 The problem i had is with housekeeping. i was there for a 6 day stay. i came back to my room after the first day at 4:30pm and my room was not cleaned. told the front desk and it was cleaned by the time i came back from dinner at 8pm. the next day i came back to the hotel at 5pm and it wasnt cleaned again. front desk said that i left the "dont disturb" sign on the door all day but i didnt (i travel a lot and i know what to do). they insisted, then they said that housekeeping has left for the day so i was out of luck. i simply asked if i was doing something wrong since this was 2 days in a row (some hotels have...The hotel is isolated but restaurants within walking distance if there were sidewalks to get there. the hotel is set back from the road with a field in front of it but the field is not maintained and the tall growing weeds makes the hotel look very shady. parking is easily available up front with lots of parking in the rear near the pool. There is no public transit or shuttle but this seems to be a city of Houston issue. The lobby is clean and big enough with 2 counters and small shop. The front staff seemed young and untrained but friendly enough. Room is fine. The problem i had is with housekeeping. i was there for a 6 day stay. i came back to my room after the first day at 4:30pm and my room was not cleaned. told the front desk and it was cleaned by the time i came back from dinner at 8pm. the next day i came back to the hotel at 5pm and it wasnt cleaned again. front desk said that i left the "dont disturb" sign on the door all day but i didnt (i travel a lot and i know what to do). they insisted, then they said that housekeeping has left for the day so i was out of luck. i simply asked if i was doing something wrong since this was 2 days in a row (some hotels have eco-friendly options) the manager butted-in and said "do you want me to make your bed? i know how to make a bed" whoa... i'm not upset, just asking a question. maybe they get a lot of complaints and react this way. anyways i didnt talk to her anymore and my room was cleaned properly for the remaining days. As others have said the breakfast is pretty bad. styrofoam plates and plastic utensils are cheap and create a lot of waste. hot items are low-grade. bagels are not sliced, butter is rock hard, no real cream for coffee. the only good thing is the fresh Cinnabon. Yes they play CNN everywhere in this hotel. Not a good way to start or end the day with loud commentators complaining about everything. Overall i would not go back because there are many more hotels close by with better service at the same price.More</t>
   </si>
@@ -227,6 +288,48 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r555970111-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>555970111</t>
+  </si>
+  <si>
+    <t>01/23/2018</t>
+  </si>
+  <si>
+    <t>CNN Hotel</t>
+  </si>
+  <si>
+    <t>CNN is programmed to play on every guests tv at start up.  I do not appreciate them pushing their political agenda on their guests. CNN also posting continuously in the dining room.  Will never stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded February 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 7, 2018</t>
+  </si>
+  <si>
+    <t>CNN is programmed to play on every guests tv at start up.  I do not appreciate them pushing their political agenda on their guests. CNN also posting continuously in the dining room.  Will never stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r555316316-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>555316316</t>
+  </si>
+  <si>
+    <t>01/21/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enjoyed the Holiday Inn Express </t>
+  </si>
+  <si>
+    <t>I would have given this hotel a five-star rating except there was a lack of enough hot water in the first room we were in. The employees here are very nice and the breakfast is good. The room itself is well appointed. They gave us an upgrade the second night we were here due to hot water issues the first night. It has easy access from Houston's 290 freeway.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r539473067-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -287,6 +390,39 @@
     <t>I stayed here a couple of nights with my family because of the Hurricane Harvey evac in my area. Laura and Jonathan were very accommodating during our stay and were always fretting not only myself but other guests as well. Keep up the great work guys!</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r509463346-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>509463346</t>
+  </si>
+  <si>
+    <t>08/06/2017</t>
+  </si>
+  <si>
+    <t>Very nice Hotel</t>
+  </si>
+  <si>
+    <t>Very friendly and helpful Front Desk Clerks. The Hotel was veryclean and welcoming.The beds are very comfortable with lots of pillows. Room amenitiesvery nice, plenty of towels. Pool looked great, but, we did not use.Loved our visit</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r505832410-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>505832410</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t>Great new hotel</t>
+  </si>
+  <si>
+    <t>Been staying here the last few weeks.  New hotel, all of the nice new features like extra plugins with usb etc.  Staff, especially the front desk, are really helpful and great.  I would stay here if you are in the area as it is great and not that expensive.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r504928286-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -302,12 +438,6 @@
     <t>The staff were all very kind. Karlee Booth was exceptionally attentive and extremely gracious. She went far above &amp; beyond the call of duty and was very accommodating to my high-maintenance needs. Thanks again for the kind words and encouragement. Thank you all! Be well and take care.</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r504591400-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -341,6 +471,39 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r489320669-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>489320669</t>
+  </si>
+  <si>
+    <t>05/31/2017</t>
+  </si>
+  <si>
+    <t>Excellent service</t>
+  </si>
+  <si>
+    <t>I definitely enjoyed my stay at this property! I was not familiar with the holiday inn express brand as i usually prefer hilton hotels, but after my experience in this hotel i have a changed outlook on the brand. The hotel is immaculately clean and the personnel were always friendly and more than willing to assist. Shantel was very friendly and pleasant.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r488226300-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>488226300</t>
+  </si>
+  <si>
+    <t>05/27/2017</t>
+  </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>Greatly appreciated Veronica in HousekeepingHoliday inn express on West Rd. In Houston for her patience in my delay getting out of my room .The efficiency of the staff was incredible, I was greeted numerous times by Shawnice and Mercedes. This is my fourth visit in this establishment and I will definitely be back !</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r483982992-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -356,9 +519,6 @@
     <t>When we checked and during our stay, Raven and Deysi made our experience easy and fun and were so helping with eating choices. The breakfast ladies, Ms. Joyce and Ms. Mary made breakfast fun and we felt so taken care of! Thanks for the laughs, ladies!  We will stay here again!</t>
   </si>
   <si>
-    <t>May 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r483907695-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -383,6 +543,42 @@
     <t xml:space="preserve">The stay at the Holiday Inn Express in Jersey Village was a great experience. The people at the front desk, especially Raven were very very nice. They went out of their way to make us have a good time and make us comfortable. They even made goodie bags because we were there to watch a baseball tournament. </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r483312625-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>483312625</t>
+  </si>
+  <si>
+    <t>05/10/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms Bramer </t>
+  </si>
+  <si>
+    <t>I was going to MEMORIAL HERMAN HOSPITAL for out patient surgery. I chose Holiday Inn Express on West because it was easily accessible to where I needed to be. Holiday Inn Express and Suites are always my first choice when traveling. I always check out the reviews. The online reviews were excellent so that nailed down my choice.   At check in Shawnice was so nice and made us feel right at home. Our suite was perfect. The  room was very clean. When we checked out I needed help lifting my suitcase. Shawnice so graciously helped me. She is a jewel. I will definitely stay there again if I am in the area.️MoreShow less</t>
+  </si>
+  <si>
+    <t>I was going to MEMORIAL HERMAN HOSPITAL for out patient surgery. I chose Holiday Inn Express on West because it was easily accessible to where I needed to be. Holiday Inn Express and Suites are always my first choice when traveling. I always check out the reviews. The online reviews were excellent so that nailed down my choice.   At check in Shawnice was so nice and made us feel right at home. Our suite was perfect. The  room was very clean. When we checked out I needed help lifting my suitcase. Shawnice so graciously helped me. She is a jewel. I will definitely stay there again if I am in the area.️More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r476566901-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>476566901</t>
+  </si>
+  <si>
+    <t>04/17/2017</t>
+  </si>
+  <si>
+    <t>Excellent Customer Service!</t>
+  </si>
+  <si>
+    <t>I had stayed at this hotel during my last business trip to Houston. I am usually a bit weary of the this brand, but i was pleasantly surprised. This hotel had everything i needed for a business trip. Moreover, the staff was very welcoming and accommodating. After pulling a marathon shift on my last day, Shawnice allowed for a late checkout without hesitation! She had also booked my reservation and not only found a great room, but a week later, actually remembered our conversation! Great work Holiday Inn!</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r459037940-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -440,6 +636,42 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r434508710-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>434508710</t>
+  </si>
+  <si>
+    <t>11/04/2016</t>
+  </si>
+  <si>
+    <t>Business Tip to Houston</t>
+  </si>
+  <si>
+    <t>From the start my stay was perfect. This is a Holiday Inn Express so I knew what to expect. Meaning they are all very similar. This is a new one which makes things a little better. But what differentiates one HIE from another is the staff. Shawnice and her colleagues were friendly, attentive, and helpful. Always a smile, a greeting.... just plain nice. I will go back. As a matter of fact, I will go out of my way to stay there.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r432260124-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>432260124</t>
+  </si>
+  <si>
+    <t>10/27/2016</t>
+  </si>
+  <si>
+    <t>Best Holiday Inn Express Experience EVER</t>
+  </si>
+  <si>
+    <t>Coming from a frequent traveler, I had the privilege of staying at this hotel for three nights this past week. The hotel staff is what made me write this review. They were freakin AWESOME! Karlee hosted the social hour Mon-Wed and I never saw a smile come off this girls face. She was very interactive and made sure everyone was having a pleasant experience! My only suggestion would be to have a tip jar out near the food table for her to get compensated for her hard work. Many of us would have loved to leave her a tip but considering we didn't have any dishes to clean up, we didn't want to leave money sitting on an empty table. James and max held good conversations and assisted me a number of times when I needed help. Friendly staff, good vibes..this will be my go to hotel when I visit Houston again MoreShow less</t>
+  </si>
+  <si>
+    <t>Coming from a frequent traveler, I had the privilege of staying at this hotel for three nights this past week. The hotel staff is what made me write this review. They were freakin AWESOME! Karlee hosted the social hour Mon-Wed and I never saw a smile come off this girls face. She was very interactive and made sure everyone was having a pleasant experience! My only suggestion would be to have a tip jar out near the food table for her to get compensated for her hard work. Many of us would have loved to leave her a tip but considering we didn't have any dishes to clean up, we didn't want to leave money sitting on an empty table. James and max held good conversations and assisted me a number of times when I needed help. Friendly staff, good vibes..this will be my go to hotel when I visit Houston again More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r431053501-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -455,9 +687,6 @@
     <t>Although this hotel is just off the beltway, it is set back from the road and is very quiet.  From the time I walked in the door, there was a very relaxed atmosphere.  Check-in was fast and easy.  My room was ready at an early hour, and the desk clerk was very accommodating.  The room was very clean.  I would definitely stay here again.</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r427959767-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -491,6 +720,33 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r421924958-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>421924958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Customer Service </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stay at holiday inn expresses all over because of the swift service and free breakfast. But at this particular one I have to say, James made me feel like I was at home and a loyal member. He kept me laughing and excited I was staying there and made a memorable check in. I got to my room and needed advice about restaurants and James was there again with a list of close restaurants and his recommendations. A must stay. I recommend this to anyone looking for a hotel wether last minute or in advance. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r416177358-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>416177358</t>
+  </si>
+  <si>
+    <t>09/08/2016</t>
+  </si>
+  <si>
+    <t>James was great!!</t>
+  </si>
+  <si>
+    <t>Our stays at Holiday Inn Express are usually nice wherever we go. We got in around 8pm and the clerk, James was there to greet us. He was very helpful and informative. The elevators went out soon afterwards and I saw him helping people walk their bags upstairs to another floor. He went above and beyond in my book and did it with a smile on his face. Great customer service James!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r401485033-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -551,6 +807,36 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r391200677-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>391200677</t>
+  </si>
+  <si>
+    <t>07/10/2016</t>
+  </si>
+  <si>
+    <t>5 Star Staff and Top Notch Facility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To this point I've stayed 100+ nights at hotels and this by far was my favorite place in 2016. When you stay let Lynnette, Daniel and Shawnice make your stay even better! Thanks to all 3 of you! It's nice being tucked away out of all the traffic, yet still accessible to a lot! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r390549148-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>390549148</t>
+  </si>
+  <si>
+    <t>07/08/2016</t>
+  </si>
+  <si>
+    <t>Great customer Service by Mrs. Raven.</t>
+  </si>
+  <si>
+    <t>I need to cancel my reservation at the last minute and Mrs. Raven took care of me in a profesional manner and understood my situation and she cancelled it without penalties or cancelation fee. Great personnel and highly recommend it for your future needs.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r375085013-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -599,6 +885,36 @@
     <t>Cordially, Marcy, Brooke, Karlee, Lynnette, Jon and Lourdes are all staff members at this location.  Their level of customer service is outstanding.  Every one listed above greeted me every morning and night.  They all were helpful and wanted to make my stay here as comfortable as possible.  I travel throughout the Southeast United States and always stay at a Holiday Inn.  But this location was as close to home as a hotel could be.  I would recommend this location for any out of state traveler visiting Houston on business.  Great place to rest your head and relax.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r365499414-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>365499414</t>
+  </si>
+  <si>
+    <t>04/19/2016</t>
+  </si>
+  <si>
+    <t>Magnificant Stay</t>
+  </si>
+  <si>
+    <t>Marcy, Your Front Desk representative has the most pleasant attitude and she was gracious.  Her ability to answer questions and the concerns was a value to me.  She offered assistance as best she could without dimensioning her duties as the Front Desk representative.  What a valued asset to your organization.  I personally want to Thank her and pray she keeps that winning smile and personality.Please let her know I said so.  Great Job and well done, Marcy.Barbara WilliamsPS I am still praying for HOUSTON, TX</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r365270696-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>365270696</t>
+  </si>
+  <si>
+    <t>04/18/2016</t>
+  </si>
+  <si>
+    <t>Great Visit</t>
+  </si>
+  <si>
+    <t>Karlee and Marcy did a fantastic job getting all my guys and I set up with our rooms. These girls are very polite and have great attitudes! Both of these girls need promotions !!!! We really love the drinks and snacks during social hours for after work! Rooms are clean and great complimentary breakfast!!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r363408621-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -665,25 +981,64 @@
     <t>Can't say enough about the staff at the Holiday Inn Express on West Road.  No matter the time or weather, the front desk staff (Karlee and Marcy) always have smiles on their faces.  Their customer service and attention to detail are one of the main reasons that I choose to stay here every time that I conduct business in Houston.  From the great hot breakfasts to the excellent job of the cleaning staff, the overall experience is always 5-stars in my book!-Sir CharlesMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r348640519-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>348640519</t>
+  </si>
+  <si>
+    <t>02/17/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great experience </t>
+  </si>
+  <si>
+    <t>I was traveling on business and meet two great ladies that made my visit exceptional...They not only help me get around at the best times of the day but also had a great evening social with snacks and drinks..Thank you Kaylee and LynnetteMoreShow less</t>
+  </si>
+  <si>
+    <t>steve r, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded February 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2016</t>
+  </si>
+  <si>
+    <t>I was traveling on business and meet two great ladies that made my visit exceptional...They not only help me get around at the best times of the day but also had a great evening social with snacks and drinks..Thank you Kaylee and LynnetteMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r348305017-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>348305017</t>
+  </si>
+  <si>
+    <t>02/16/2016</t>
+  </si>
+  <si>
+    <t>Amazing staff! The customer service was wonderful and I will go out of my way to stay this place!</t>
+  </si>
+  <si>
+    <t>This is my first time staying at this Holiday Inn Express, and I must say the customer service here is amazing! The hotel staff made us feel at home and made sure our stay was absolutely comfortable. The beds are extremely comfortable, and the hotel is very clean! I want to thank Karlee and Lynnette for making my trip wonderful. I never leave reviews, but I felt that this place and people should be recognized. Thank you! Holiday Inn should thank you too! MoreShow less</t>
+  </si>
+  <si>
+    <t>steve r, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded February 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2016</t>
+  </si>
+  <si>
+    <t>This is my first time staying at this Holiday Inn Express, and I must say the customer service here is amazing! The hotel staff made us feel at home and made sure our stay was absolutely comfortable. The beds are extremely comfortable, and the hotel is very clean! I want to thank Karlee and Lynnette for making my trip wonderful. I never leave reviews, but I felt that this place and people should be recognized. Thank you! Holiday Inn should thank you too! More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r348304587-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
   </si>
   <si>
     <t>348304587</t>
   </si>
   <si>
-    <t>02/16/2016</t>
-  </si>
-  <si>
     <t>Awesome Staff</t>
   </si>
   <si>
     <t>Nice friendly staff especially Karlee. Room was nice and clean,  Beds and pillows are comfortable, loved the breakfast especially cinnamon rolls. Evening snacks and drinks were fabulous. Nice and quiet.MoreShow less</t>
-  </si>
-  <si>
-    <t>steve r, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded February 18, 2016</t>
-  </si>
-  <si>
-    <t>Responded February 18, 2016</t>
   </si>
   <si>
     <t>Nice friendly staff especially Karlee. Room was nice and clean,  Beds and pillows are comfortable, loved the breakfast especially cinnamon rolls. Evening snacks and drinks were fabulous. Nice and quiet.More</t>
@@ -766,6 +1121,54 @@
 - Some days it looked like Housekeeping took their...The good: - Hotel is clean and stylish.- The rooms are a good size. - Beds and pillows are comfortable.- The evening reception is really nice-- finger foods, beer, wine and soda in the evenings made a nice place to meet up with colleagues before heading out for dinner.- The outdoor pool and hot tub area is lovely. - Staff at the front desk is very friendly and helpful.- Location is very close to Beltway 8. Very easy to get around (traffic aside)- Was able to negotiate a lower rate for a long-term stay.- Guests can use the Lifetime Fitness facility that is just down the street. This was a really great perk that I took advantage of, because the gym in the hotel didn't have the greatest equipment. But the Lifetime Fitness was really nice and it was awesome to just walk in, flash my Holiday Inn keycard, and have access to all the machines, classes, pool, sauna, etc.- Breakfast is provided. It's not bad, and it's not great. But it IS free.The bad:- The wireless internet here is positively terrible. I lost significant amounts of work several times due to the internet connection going down, and losing my VPN connection. Honestly, if you are a hotel catering to business travelers in the year 2016, you really MUST have reliable WiFi.- Some days it looked like Housekeeping took their break in the middle of cleaning my room and never came back. There would be trash left behind from their cleaning supplies (looked like a giant lint-roller) and the little placards from the bathroom counter were occasionally left hanging off the light fixtures from when they wiped down the counter.The Weird:- There are parental control locks on the televisions that prevent guests from watching anything beyond a certain television rating. The front desk has no idea how to remove these block-outs. While I'm not one for watching a ton of television in hotels, I would prefer to be able to choose what to watch without ratings restrictions.- The young woman who set up the evening reception meals wears the same fuzzy sweater every night. I didn't find this offensive or bad in any way, just really strange.All in all, I'm sure I will stay here again. I will just bring an Ethernet cable with me next time.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r341404563-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>341404563</t>
+  </si>
+  <si>
+    <t>01/20/2016</t>
+  </si>
+  <si>
+    <t>Clean rooms great staff!</t>
+  </si>
+  <si>
+    <t>The rooms are clean and the staff is excellent! I stay in a lot of Holiday Inn Expresses and this is one of best run hotels that I have stayed in! The staff was very helpful and courteous! Thanks for your help Lynnette!MoreShow less</t>
+  </si>
+  <si>
+    <t>steve r, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded January 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 21, 2016</t>
+  </si>
+  <si>
+    <t>The rooms are clean and the staff is excellent! I stay in a lot of Holiday Inn Expresses and this is one of best run hotels that I have stayed in! The staff was very helpful and courteous! Thanks for your help Lynnette!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r340691397-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>340691397</t>
+  </si>
+  <si>
+    <t>01/17/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best Customer Service </t>
+  </si>
+  <si>
+    <t>It was overwhelming Friday and I had a group with many people to check in in multiple rooms. Karlee Booth did a fantastic job. She was very very patient and polite and used skills to do everything just right. Go Karlee. I would advice people to come here. I would next time when in Houston. MoreShow less</t>
+  </si>
+  <si>
+    <t>steve r, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded January 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2016</t>
+  </si>
+  <si>
+    <t>It was overwhelming Friday and I had a group with many people to check in in multiple rooms. Karlee Booth did a fantastic job. She was very very patient and polite and used skills to do everything just right. Go Karlee. I would advice people to come here. I would next time when in Houston. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r339695745-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -838,6 +1241,57 @@
     <t>Nice business hotel. Good rooms and good service. The location is a little bit isolated for finding something other than standard-commercial chain food.Internet service was high-speed.Decent breakfast selection.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r326472403-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>326472403</t>
+  </si>
+  <si>
+    <t>11/13/2015</t>
+  </si>
+  <si>
+    <t>Good but could do better</t>
+  </si>
+  <si>
+    <t>Stayed here twice before and have enjoyed it even though there's not much to see in the immediate vicinity. Had to wait 45 minutes for my room to be readied because they were very busy the night before, no big deal but still annoying. One thing they need to sort out is the "high speed Internet" because high speed it certainly isn't! Staff are all very friendly and the free drinks nights Monday &gt; Wednesday are a nice touch.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>steve r, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded November 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here twice before and have enjoyed it even though there's not much to see in the immediate vicinity. Had to wait 45 minutes for my room to be readied because they were very busy the night before, no big deal but still annoying. One thing they need to sort out is the "high speed Internet" because high speed it certainly isn't! Staff are all very friendly and the free drinks nights Monday &gt; Wednesday are a nice touch.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r325989225-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>325989225</t>
+  </si>
+  <si>
+    <t>11/11/2015</t>
+  </si>
+  <si>
+    <t>Wonderful trip to Houston thanks to your hotel &amp; staff!!!</t>
+  </si>
+  <si>
+    <t>I want to recommend you're hotel to anyone going to Houston. I arrived on 11/5/15 and checked out on 11/9/15.  From the beginning of my stay your staff was the most friendly and accommodating of any hotel that I have stayed at before. I walked in and was greeted by (I believe her name was Crystal) who welcomed me to the hotel with a beautiful smile on her face.  A positive first impression is a key factor in any successful business and Crystal has it nailed down.Whenever I had to go out and returned Crystal would always make sure she acknowledged me by making sure she had eye contact with me and said "welcome back Miss Maxine".  Even if she was busy with another guest she always took a moment to acknowledge any guest returning with a greeting and her wonderful smile. The complimentary breakfast was excellent with many choices.Should I return to Houston your hotel will be the one I will stay at. Thank you for the great experience.Maxine HarmonMoreShow less</t>
+  </si>
+  <si>
+    <t>steve r, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded November 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 12, 2015</t>
+  </si>
+  <si>
+    <t>I want to recommend you're hotel to anyone going to Houston. I arrived on 11/5/15 and checked out on 11/9/15.  From the beginning of my stay your staff was the most friendly and accommodating of any hotel that I have stayed at before. I walked in and was greeted by (I believe her name was Crystal) who welcomed me to the hotel with a beautiful smile on her face.  A positive first impression is a key factor in any successful business and Crystal has it nailed down.Whenever I had to go out and returned Crystal would always make sure she acknowledged me by making sure she had eye contact with me and said "welcome back Miss Maxine".  Even if she was busy with another guest she always took a moment to acknowledge any guest returning with a greeting and her wonderful smile. The complimentary breakfast was excellent with many choices.Should I return to Houston your hotel will be the one I will stay at. Thank you for the great experience.Maxine HarmonMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r325850774-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -853,15 +1307,6 @@
     <t>I stayed in this hotel with my family when I came to attend a convention. The hotel proved to be an excellent choice that I made quite hastily. The staff is very accommodating and always at your assistance in particular Ms. KAREN! Thumps Up!!! For Staff, rooms, ambiance and breakfast!!!MoreShow less</t>
   </si>
   <si>
-    <t>October 2015</t>
-  </si>
-  <si>
-    <t>steve r, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded November 12, 2015</t>
-  </si>
-  <si>
-    <t>Responded November 12, 2015</t>
-  </si>
-  <si>
     <t>I stayed in this hotel with my family when I came to attend a convention. The hotel proved to be an excellent choice that I made quite hastily. The staff is very accommodating and always at your assistance in particular Ms. KAREN! Thumps Up!!! For Staff, rooms, ambiance and breakfast!!!More</t>
   </si>
   <si>
@@ -913,6 +1358,57 @@
     <t>the staff made the stay. the rooms are very nice and very clean. No issues at all.Karen at the front desk is the kind of person that makes a business thrive being the point person and your first impression. Making you feel at home and bending over backwards to be sure you are taken care of. The rest of the staff were no less attentive. I could say more but all I need to say is you cannot go wrong staying here.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r318147471-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>318147471</t>
+  </si>
+  <si>
+    <t>10/12/2015</t>
+  </si>
+  <si>
+    <t>Great place to stay if you are on that side of town.</t>
+  </si>
+  <si>
+    <t>We checked in Sunday 10/4 and check out Wednesday 10/7. The hotel is located just of the beltway, makes it easier to get on the highway and go wherever you need to go. The hotel staff was wonderful, easy to get along with. Check in and out was a breeze, They have a mangers special in the lobby from 530 to 730. On Monday they had free beer and margaritas, chips and dips and on Tuesday they had free beer pork sandwichs, chips dips. It took the edge of after a long day attending meetings.MoreShow less</t>
+  </si>
+  <si>
+    <t>steve r, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded October 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 14, 2015</t>
+  </si>
+  <si>
+    <t>We checked in Sunday 10/4 and check out Wednesday 10/7. The hotel is located just of the beltway, makes it easier to get on the highway and go wherever you need to go. The hotel staff was wonderful, easy to get along with. Check in and out was a breeze, They have a mangers special in the lobby from 530 to 730. On Monday they had free beer and margaritas, chips and dips and on Tuesday they had free beer pork sandwichs, chips dips. It took the edge of after a long day attending meetings.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r306436748-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>306436748</t>
+  </si>
+  <si>
+    <t>09/02/2015</t>
+  </si>
+  <si>
+    <t>WOW! What a stay!</t>
+  </si>
+  <si>
+    <t>I don't get excited about much these days but this is one occasion where I did get happy pants. When we checked in at this Express on West Rd. we were greeted by Karen who immediately made us feel like it can only get better from here. I love love loved her English accent (she's from north of London) and her bubbly persona was just icing on the cake. She quickly assisted us in checking in and the two suites we had booked were spacious, modern, well maintained, and perfect for our family to soon join us. We soon left for a family gathering and every time we entered or exited the hotel, EVERY employee greeted us and asked if there was anything they could do for us. Sheviki was running the room cleaning and maintenance and she and the girls did a wonderful job. The dining room, pool, and hot tub area, were clean and the FREE margaritas, beer and wine on "Magnificent Marvelous Margarita Monday" were a real treat. WHO DOES THAT?! Zachry and crew, that's who. He doubles in the office as sales coordinator and stays over on Monday through Wednesday to ensure free happy hour drinks and eats keep flowing. General Manager Steve is in charge and assists the staff in being attentive to everyone's needs. We have family in the area and there is no other Hotel we will being stay at upon our next...I don't get excited about much these days but this is one occasion where I did get happy pants. When we checked in at this Express on West Rd. we were greeted by Karen who immediately made us feel like it can only get better from here. I love love loved her English accent (she's from north of London) and her bubbly persona was just icing on the cake. She quickly assisted us in checking in and the two suites we had booked were spacious, modern, well maintained, and perfect for our family to soon join us. We soon left for a family gathering and every time we entered or exited the hotel, EVERY employee greeted us and asked if there was anything they could do for us. Sheviki was running the room cleaning and maintenance and she and the girls did a wonderful job. The dining room, pool, and hot tub area, were clean and the FREE margaritas, beer and wine on "Magnificent Marvelous Margarita Monday" were a real treat. WHO DOES THAT?! Zachry and crew, that's who. He doubles in the office as sales coordinator and stays over on Monday through Wednesday to ensure free happy hour drinks and eats keep flowing. General Manager Steve is in charge and assists the staff in being attentive to everyone's needs. We have family in the area and there is no other Hotel we will being stay at upon our next visit. The only down side to this (if you can call it that) is Karen and Sheviki will be transferring to a newly renovated building at 1616 Main St in downtown Houston which will be a full service Holiday Inn Hotel ALSO owned and operated by the Path Finder Corp. which owns and operates sister hotels found on the NW West Rd. Holiday Inn Express website. We also like to stay downtown in Houston and TOTALLY plan on visiting Karen and Sheviki once they are settled in there. After all, I can honestly say we're just like family now. Judging from what I have witnessed and personally experienced, I can say with a great deal of certainty that the Path Finder Group is totally committed to make your visit at any of their hotels, one of the best hotel experiences you will ever have and it is important to note that the NW West Rd. and the upcoming Main St locations are privately owned franchises and are the only Holiday Inn locations I can speak of highly in Houston. Soooo, when in Houston, be sure and give yourself a treat and stay at these two locations. You'll be glad you did.  Doug and Nancy Bledsoe  Groves, TexasMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>steve r, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded September 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 3, 2015</t>
+  </si>
+  <si>
+    <t>I don't get excited about much these days but this is one occasion where I did get happy pants. When we checked in at this Express on West Rd. we were greeted by Karen who immediately made us feel like it can only get better from here. I love love loved her English accent (she's from north of London) and her bubbly persona was just icing on the cake. She quickly assisted us in checking in and the two suites we had booked were spacious, modern, well maintained, and perfect for our family to soon join us. We soon left for a family gathering and every time we entered or exited the hotel, EVERY employee greeted us and asked if there was anything they could do for us. Sheviki was running the room cleaning and maintenance and she and the girls did a wonderful job. The dining room, pool, and hot tub area, were clean and the FREE margaritas, beer and wine on "Magnificent Marvelous Margarita Monday" were a real treat. WHO DOES THAT?! Zachry and crew, that's who. He doubles in the office as sales coordinator and stays over on Monday through Wednesday to ensure free happy hour drinks and eats keep flowing. General Manager Steve is in charge and assists the staff in being attentive to everyone's needs. We have family in the area and there is no other Hotel we will being stay at upon our next...I don't get excited about much these days but this is one occasion where I did get happy pants. When we checked in at this Express on West Rd. we were greeted by Karen who immediately made us feel like it can only get better from here. I love love loved her English accent (she's from north of London) and her bubbly persona was just icing on the cake. She quickly assisted us in checking in and the two suites we had booked were spacious, modern, well maintained, and perfect for our family to soon join us. We soon left for a family gathering and every time we entered or exited the hotel, EVERY employee greeted us and asked if there was anything they could do for us. Sheviki was running the room cleaning and maintenance and she and the girls did a wonderful job. The dining room, pool, and hot tub area, were clean and the FREE margaritas, beer and wine on "Magnificent Marvelous Margarita Monday" were a real treat. WHO DOES THAT?! Zachry and crew, that's who. He doubles in the office as sales coordinator and stays over on Monday through Wednesday to ensure free happy hour drinks and eats keep flowing. General Manager Steve is in charge and assists the staff in being attentive to everyone's needs. We have family in the area and there is no other Hotel we will being stay at upon our next visit. The only down side to this (if you can call it that) is Karen and Sheviki will be transferring to a newly renovated building at 1616 Main St in downtown Houston which will be a full service Holiday Inn Hotel ALSO owned and operated by the Path Finder Corp. which owns and operates sister hotels found on the NW West Rd. Holiday Inn Express website. We also like to stay downtown in Houston and TOTALLY plan on visiting Karen and Sheviki once they are settled in there. After all, I can honestly say we're just like family now. Judging from what I have witnessed and personally experienced, I can say with a great deal of certainty that the Path Finder Group is totally committed to make your visit at any of their hotels, one of the best hotel experiences you will ever have and it is important to note that the NW West Rd. and the upcoming Main St locations are privately owned franchises and are the only Holiday Inn locations I can speak of highly in Houston. Soooo, when in Houston, be sure and give yourself a treat and stay at these two locations. You'll be glad you did.  Doug and Nancy Bledsoe  Groves, TexasMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r294978548-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -982,6 +1478,45 @@
     <t>Excellent Hotel. Clean and comfortable rooms with all services, internet wi fi, laundry, swimming pool, beadfast, etc. The staff very friendly and helpful especially in reception Eliana Perez . Thanks.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r291578269-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>291578269</t>
+  </si>
+  <si>
+    <t>07/22/2015</t>
+  </si>
+  <si>
+    <t>New, clean, very good hotel for Northern Beltway area</t>
+  </si>
+  <si>
+    <t>The facility is very new and clean. Courteous staff and well-appointed rooms and common areas. Easy access to the northern Beltway area businesses, close to the 290 and 249 connectors, 20 minutes from IAH. Some decent food options nearby - if nothing you like, you're 15 minutes from the FM 1960/Willowbrook Mall area with tons of options. A very good new option for those of us road warriors working in the Willowbrook area.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>The facility is very new and clean. Courteous staff and well-appointed rooms and common areas. Easy access to the northern Beltway area businesses, close to the 290 and 249 connectors, 20 minutes from IAH. Some decent food options nearby - if nothing you like, you're 15 minutes from the FM 1960/Willowbrook Mall area with tons of options. A very good new option for those of us road warriors working in the Willowbrook area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r289500703-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>289500703</t>
+  </si>
+  <si>
+    <t>07/16/2015</t>
+  </si>
+  <si>
+    <t>Great facility and people</t>
+  </si>
+  <si>
+    <t>The hotel was great and the staff friendly especially Eliana. The rooms clean and serviced daily. Our company uses this hotel we we have training meetings in Houston. I would stay here for any purpose requiring me to be in the Houston area. Great place. MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel was great and the staff friendly especially Eliana. The rooms clean and serviced daily. Our company uses this hotel we we have training meetings in Houston. I would stay here for any purpose requiring me to be in the Houston area. Great place. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r289382909-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -1042,6 +1577,42 @@
     <t>The staff was extremely helpful . Taylor worked a miracle to get rooms when we had to come in a day early.Jon was very patient with each parent that came in. The rooms spacious,clean and comfortable. Breakfast offered something for everyone. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r284792791-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>284792791</t>
+  </si>
+  <si>
+    <t>07/01/2015</t>
+  </si>
+  <si>
+    <t>Great Staff and Wonderful New Property</t>
+  </si>
+  <si>
+    <t>Great Value and new hotel, lovely decor, clean and modem.Hotel Front Desk especially Karla . was amazing. Free shuttle to Bush International. I loved this location and will return.Clean fitness center and good free breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great Value and new hotel, lovely decor, clean and modem.Hotel Front Desk especially Karla . was amazing. Free shuttle to Bush International. I loved this location and will return.Clean fitness center and good free breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r284482794-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>284482794</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>Friendly and helpful</t>
+  </si>
+  <si>
+    <t>This hotel was very clean. The staff was extremely nice and friendly. Each time I needed a question answered or services they helped quickly and with a smile. The pool was perfect for my little ones. Steps all the way across, 4ft on each side and 5ft in the middle. There were chocolate chip cookies upon arrival and complimentary wine/beer on Wednesday-Friday afternoons and margaritas on Mondays. Right off beltway 8.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was very clean. The staff was extremely nice and friendly. Each time I needed a question answered or services they helped quickly and with a smile. The pool was perfect for my little ones. Steps all the way across, 4ft on each side and 5ft in the middle. There were chocolate chip cookies upon arrival and complimentary wine/beer on Wednesday-Friday afternoons and margaritas on Mondays. Right off beltway 8.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r279388007-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -1057,9 +1628,6 @@
     <t>I stay at this hotel often. the staff is what makes the hotel so good.  Simira and the employees are there and ready to help with anything you need. the rooms are always clean and ready when i arrive day or night. this is for sure the place to stay if you are going to be on the north side of Houston.MoreShow less</t>
   </si>
   <si>
-    <t>June 2015</t>
-  </si>
-  <si>
     <t>DPinierio, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded June 22, 2015</t>
   </si>
   <si>
@@ -1114,6 +1682,57 @@
     <t>This is my second visit to this hotel and each time the staff were very friendly and sincere in trying to make my visit as enjoyable as possible. Sheviki was very courteous when checking me in for my stay. Joshua even remembered my name from my first visit which makes you feel extra welcome. The staff embraces the concept of working as a team.  The rooms were clean and upscale. Even the bath towels were soft and absorbent. All the little things add up for a very pleasant stay.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r268412104-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>268412104</t>
+  </si>
+  <si>
+    <t>04/27/2015</t>
+  </si>
+  <si>
+    <t>Clean, Comfortable and Friendly</t>
+  </si>
+  <si>
+    <t>I spend every other week here and am always impressed with the hospitality. Whether it's John, Simira or any of the other friendly employees, they always make me feel at home.  The rooms are clean, the irons work, the water is hot and their Margarita Night is awesome.  It's in a convenient location on the north side of Houston, close to a wide variety of restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded April 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2015</t>
+  </si>
+  <si>
+    <t>I spend every other week here and am always impressed with the hospitality. Whether it's John, Simira or any of the other friendly employees, they always make me feel at home.  The rooms are clean, the irons work, the water is hot and their Margarita Night is awesome.  It's in a convenient location on the north side of Houston, close to a wide variety of restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r267786430-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>267786430</t>
+  </si>
+  <si>
+    <t>04/24/2015</t>
+  </si>
+  <si>
+    <t>Amazing Staff!!!!</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for one month on business. Hands down the best Holiday Inn Express in Northwest Houston. The Staff here is so Phenomenal even down to my housekeeper miss Kelli, miss Samira is one best asset to the company always smiling an willing to help me with all of my need.The manger Mr. Donato arrange for my vegetarian diet, I really liked that. God bless all of them.MoreShow less</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded April 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2015</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for one month on business. Hands down the best Holiday Inn Express in Northwest Houston. The Staff here is so Phenomenal even down to my housekeeper miss Kelli, miss Samira is one best asset to the company always smiling an willing to help me with all of my need.The manger Mr. Donato arrange for my vegetarian diet, I really liked that. God bless all of them.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r267271919-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -1129,12 +1748,6 @@
     <t>15 minutes from the airport if you know what your doing. Only 7 miles away from the national Cemetery  Centrally located. Special wrapped cupcakes for our grieving party. Smells of cookies reminding us of home as we traveled from Tampa to celebrate the life of a Combat Veteran. A week long stay and around 25 rooms rented out. The entire staff assistance from start to finish was Top Notch, Hugh, Shiviki, Joshua, Layla and Jon just to by name a few of the ALL HEART team members. So happy to have found our number 1 ranked in Houston place to stay. Everything is clean and well kept. The jets in the hot tub need work but our kids still liked the pool. The staff even was able to switch up rooms so we could get the 107 area of rooms so our 50 plus family members could be close by at all times. The break fast food line up was phenomenal. Loved the crispy bacon. The keepers of the house were upbeat and did not hesitate to switch towels or make beds and get us extra bags so we could police ourselves in our hours of celebrating. We had to leave quickly and left behind some items that Jon secured and held until we could return for them later. Whenever we return to Houston this is our number one choice for a great time. MoreShow less</t>
   </si>
   <si>
-    <t>DPinierio, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded April 27, 2015</t>
-  </si>
-  <si>
-    <t>Responded April 27, 2015</t>
-  </si>
-  <si>
     <t>15 minutes from the airport if you know what your doing. Only 7 miles away from the national Cemetery  Centrally located. Special wrapped cupcakes for our grieving party. Smells of cookies reminding us of home as we traveled from Tampa to celebrate the life of a Combat Veteran. A week long stay and around 25 rooms rented out. The entire staff assistance from start to finish was Top Notch, Hugh, Shiviki, Joshua, Layla and Jon just to by name a few of the ALL HEART team members. So happy to have found our number 1 ranked in Houston place to stay. Everything is clean and well kept. The jets in the hot tub need work but our kids still liked the pool. The staff even was able to switch up rooms so we could get the 107 area of rooms so our 50 plus family members could be close by at all times. The break fast food line up was phenomenal. Loved the crispy bacon. The keepers of the house were upbeat and did not hesitate to switch towels or make beds and get us extra bags so we could police ourselves in our hours of celebrating. We had to leave quickly and left behind some items that Jon secured and held until we could return for them later. Whenever we return to Houston this is our number one choice for a great time. More</t>
   </si>
   <si>
@@ -1153,9 +1766,6 @@
     <t>I've stayed here a couple times now for business.  All the staff is extremely considerate, professional, and accommodating.  My room has always been clean and it's quiet considering how close it is to Highway 290.  Since my travel is for business, I appreciate that you can use the LA Fitness right across the street for free when you stay at this hotel.  They also have a nice reception on weeknights in the lobby.  Keep up the good work!MoreShow less</t>
   </si>
   <si>
-    <t>April 2015</t>
-  </si>
-  <si>
     <t>DPinierio, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded April 18, 2015</t>
   </si>
   <si>
@@ -1189,6 +1799,51 @@
     <t>This is a convenient hotel in north Houston.  The rooms are clean and comfortable.  The staff is friendly and they always remember me when I return.  The pool is nice and inviting with a nice water feature and the breakfast is very good.  The parking area is well lit.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r263422313-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>263422313</t>
+  </si>
+  <si>
+    <t>04/03/2015</t>
+  </si>
+  <si>
+    <t>Great!</t>
+  </si>
+  <si>
+    <t>This was the first time I have ever stayed at a Holiday Inn Express.  Since I travel for work, I spend my life in hotel rooms, and have become super critical of hotels.  After hearing my colleagues complain of other hotels, I was hesitant to to stay.  Not anymore!From the moment I walked in I got a very welcoming feeling from the environment itself.  Everyone was super nice and accommodating, even made sure I knew about Margarita Monday!  Perfect for a long day of traveling!  My room was perfect, bed comfy and pillows plush.  The bathroom was perfect, and clean.  My little Red Panda traveling companion was always left on the bed, welcoming me "home" from a long day at work.  A lot of housekeeping staff don't pay attention to that little detail.  I am scheduled to stay for another week and couldn't be more delighted, after the enjoyable week I've had here.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was the first time I have ever stayed at a Holiday Inn Express.  Since I travel for work, I spend my life in hotel rooms, and have become super critical of hotels.  After hearing my colleagues complain of other hotels, I was hesitant to to stay.  Not anymore!From the moment I walked in I got a very welcoming feeling from the environment itself.  Everyone was super nice and accommodating, even made sure I knew about Margarita Monday!  Perfect for a long day of traveling!  My room was perfect, bed comfy and pillows plush.  The bathroom was perfect, and clean.  My little Red Panda traveling companion was always left on the bed, welcoming me "home" from a long day at work.  A lot of housekeeping staff don't pay attention to that little detail.  I am scheduled to stay for another week and couldn't be more delighted, after the enjoyable week I've had here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r262951799-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>262951799</t>
+  </si>
+  <si>
+    <t>03/31/2015</t>
+  </si>
+  <si>
+    <t>Decent Breakfast and Gym</t>
+  </si>
+  <si>
+    <t>Upon checking in we were immediately greeted by the very friendly staff. They were very professional and there was lot's of parking as well. We were immediately directed to the elevators and it was not hard to find at all. The whole look of the hotel was nice and I felt like I was in a premium hotel. Our room was perfect and clean. The only issue we had was the fridge smelt horrific as if old fish or something died in it. Other than that issue everything was perfect and quiet and we enjoyed our stay there. We drove a few miles down the road to do Indoor Gokart racing and it was a blast. If you are going to Houston, Texas you definitely have to go to The Galleria mall I think it was the 8th largest mall in the nation. Tolls to and from that exit can get costly so if you don't mind taking the roads that run along the expressway go for it. Would recommend it to family and friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded April 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2015</t>
+  </si>
+  <si>
+    <t>Upon checking in we were immediately greeted by the very friendly staff. They were very professional and there was lot's of parking as well. We were immediately directed to the elevators and it was not hard to find at all. The whole look of the hotel was nice and I felt like I was in a premium hotel. Our room was perfect and clean. The only issue we had was the fridge smelt horrific as if old fish or something died in it. Other than that issue everything was perfect and quiet and we enjoyed our stay there. We drove a few miles down the road to do Indoor Gokart racing and it was a blast. If you are going to Houston, Texas you definitely have to go to The Galleria mall I think it was the 8th largest mall in the nation. Tolls to and from that exit can get costly so if you don't mind taking the roads that run along the expressway go for it. Would recommend it to family and friends.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r260687004-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -1204,9 +1859,6 @@
     <t>Stayed while on business.Easy to find (for Houston!)Desk clerk declined my request for a room on the upper floor when I checked in. "We're all booked up" though the rack we withdrew my card key still had 12-15 cards in it. It seemed like it would have been to much work. Ended up with room on first floor.Room was clean, bed comfortable, but able to hear road and parking lot noise.Wireless connection was unreliable, if able to connect, the connection would be lost quickly.Business Center (or lack of it) was a mess...one PC not set up, no connection to printer, no Word set up, other pc slow, printer had a jam (which I fixed) slow connection to internet, about 10 minutes to access and print boarding passTold morning Desk Clerk about printer not connected, response was "OH, OK".For the cost, cannot recommend, nor will accept reservations to stay their again.MoreShow less</t>
   </si>
   <si>
-    <t>March 2015</t>
-  </si>
-  <si>
     <t>DPinierio, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded March 21, 2015</t>
   </si>
   <si>
@@ -1264,6 +1916,57 @@
     <t>Everything was OK when we arrived, until we came back at night on the second day and we found that our room had not been cleaned (the beds were not made, the bathroom was as we left it in the morning, etc).   Poor reaction from the staff and the room remained like this because there was no one to clean it.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r251783989-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>251783989</t>
+  </si>
+  <si>
+    <t>01/30/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>Andrea took good care of us. The hotel is new and very clean. The staff is amazing. Did not use the pool but it looked inviting. Thee breakfast cold be changed a little more. Scrambled eggs go old after awhile. Fresh fruit was very good. I would go back again. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded January 31, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 31, 2015</t>
+  </si>
+  <si>
+    <t>Andrea took good care of us. The hotel is new and very clean. The staff is amazing. Did not use the pool but it looked inviting. Thee breakfast cold be changed a little more. Scrambled eggs go old after awhile. Fresh fruit was very good. I would go back again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r251313938-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>251313938</t>
+  </si>
+  <si>
+    <t>01/27/2015</t>
+  </si>
+  <si>
+    <t>Great room, full breakfast</t>
+  </si>
+  <si>
+    <t>For the money, you can't beat this place.  Our room was huge, everything was clean and well taken care of.  The people at the desk were friendly and helpful.  The breakfast, although self serve, was a full breakfast, not just the continental danish and orange juice you see so often.   We stayed here one night because it was near family and we were going on a cruise the next day.  Although we had reservations elsewhere for 2 nights after our cruise we cancelled them and rebooked here.  Although there is a large (and nice) room with tables to eat breakfast, the hotel has no restaurant.  Oddly enough, you can still get room service (from an outsourced service) of things like sandwiches and pizzas and salads.   Anyway, great place at a good price.MoreShow less</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded January 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 29, 2015</t>
+  </si>
+  <si>
+    <t>For the money, you can't beat this place.  Our room was huge, everything was clean and well taken care of.  The people at the desk were friendly and helpful.  The breakfast, although self serve, was a full breakfast, not just the continental danish and orange juice you see so often.   We stayed here one night because it was near family and we were going on a cruise the next day.  Although we had reservations elsewhere for 2 nights after our cruise we cancelled them and rebooked here.  Although there is a large (and nice) room with tables to eat breakfast, the hotel has no restaurant.  Oddly enough, you can still get room service (from an outsourced service) of things like sandwiches and pizzas and salads.   Anyway, great place at a good price.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r243684869-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -1343,6 +2046,48 @@
   </si>
   <si>
     <t>I have stayed at this hotel two times now. The first time was in October 2013 for 1 night. The second time was October 2014 for 2 nights. Obviously I liked the hotel, since I returned a second time. Overall it is a clean, updated hotel. Just know you don't get any frills. Which I'm OK with that, because I find that hotels with frills (room service, etc.) charge outrageous prices for everything. I like having a vending machine down the hall where I can buy a $2.00 20 oz soda. The front desk staff was friendly and the hotel as a whole is nice. Just know that if you put a "do not disturb" sign on your door, if the cleaning staff leaves, your room is not getting cleaned. You will also need to take towels, etc. to your room on your own. Again, no frills. I would suggest this hotel to anyone needing to say in this area though.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r236210672-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>236210672</t>
+  </si>
+  <si>
+    <t>10/25/2014</t>
+  </si>
+  <si>
+    <t>Service was not just ordinary, it was extraordinary.</t>
+  </si>
+  <si>
+    <t>Great customer service by Joshua, I had to change some things on my reservation before arrival. Upon arrival, he helped me check in early after a very lengthy drive, and he assured me of the proper rates once I changed my stay dates. He's definitly a Fred!! (Fred factor book) MoreShow less</t>
+  </si>
+  <si>
+    <t>DPinierio, Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded October 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2014</t>
+  </si>
+  <si>
+    <t>Great customer service by Joshua, I had to change some things on my reservation before arrival. Upon arrival, he helped me check in early after a very lengthy drive, and he assured me of the proper rates once I changed my stay dates. He's definitly a Fred!! (Fred factor book) More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r236178531-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>236178531</t>
+  </si>
+  <si>
+    <t>Awesome Hotel</t>
+  </si>
+  <si>
+    <t>This Holiday Inn is exceptionally clean, easy to locate, and their staff is very friendly. Joshua was wonderful at the front desk, ensuring we had everything we needed. He helped my friends with supplies they forgot, gave directions to get to location restaurants and attractions, and made sure we were comfortable.Awesome hotel, awesome staff, awesome pool.Thanks!MoreShow less</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded October 27, 2014</t>
+  </si>
+  <si>
+    <t>This Holiday Inn is exceptionally clean, easy to locate, and their staff is very friendly. Joshua was wonderful at the front desk, ensuring we had everything we needed. He helped my friends with supplies they forgot, gave directions to get to location restaurants and attractions, and made sure we were comfortable.Awesome hotel, awesome staff, awesome pool.Thanks!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r233530661-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
@@ -1361,12 +2106,6 @@
 That being said there are a few issues.  The first issue I had is that there was still that scum from soap that has been left in the holder.  Clearly when the room was turned, housekeeping simply removed the bar of soap that the previous guest had left and then didn't do anything else to clean out the shower.  While this may seem like a minimal...This is your typical Holiday Inn Express.  As is the case with most of Holiday Inn's "Express" hotels it is newer than some of the others.  All the furnishings, bed, fixtures, etc. were in pretty good shape.  For some people the bed is the most important thing and rest assured it is plenty comfortable.  My only complaint there is something I find at most hotels and that is that the "firm" pillows are anything but.  As a business traveler myself I also focus a lot on internet quality since it is a necessity for me working while on the road.  While they do not have their services password protected (terrible idea for them btw) it provided decent speed and I had no problems even streaming video.  There was an occasional slow down, but I was still able to work with no issue.  Staff was friendly and for those who are interested they offer a program where guests can work out at a nearby gym instead of being stuck with the tiny on-site fitness center.That being said there are a few issues.  The first issue I had is that there was still that scum from soap that has been left in the holder.  Clearly when the room was turned, housekeeping simply removed the bar of soap that the previous guest had left and then didn't do anything else to clean out the shower.  While this may seem like a minimal issue I consider it quite gross and does of course make me wonder what other corners were cut when it came to cleaning the room.  The other issue was noise.  While it may just be that the person in the room on the floor above mine is a heavy walker I find that a lot of these newer hotels seem to have similar noise issues.  There was an almost constant thumping sound like someone pacing back and forth, which led me to have to turn up the TV in the room in an attempt to drown it out.  I'm not even sure it was above me or if it was in an adjacent room, but either way I was glad to only be staying one night because that would drive me nuts.Also a side note to GPS users like myself; you may run into issues finding the place.  As a heads-up my GPS took me to what I'm assuming is the neighborhood behind the hotel because when it said that I had reached my destination I was at a dead end in a small residential neighborhood.  Thankfully from there I was able to stumble onto the main road where the hotel is actually located.MoreShow less</t>
   </si>
   <si>
-    <t>DPinierio, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded October 27, 2014</t>
-  </si>
-  <si>
-    <t>Responded October 27, 2014</t>
-  </si>
-  <si>
     <t>This is your typical Holiday Inn Express.  As is the case with most of Holiday Inn's "Express" hotels it is newer than some of the others.  All the furnishings, bed, fixtures, etc. were in pretty good shape.  For some people the bed is the most important thing and rest assured it is plenty comfortable.  My only complaint there is something I find at most hotels and that is that the "firm" pillows are anything but.  As a business traveler myself I also focus a lot on internet quality since it is a necessity for me working while on the road.  While they do not have their services password protected (terrible idea for them btw) it provided decent speed and I had no problems even streaming video.  There was an occasional slow down, but I was still able to work with no issue.  Staff was friendly and for those who are interested they offer a program where guests can work out at a nearby gym instead of being stuck with the tiny on-site fitness center.
 That being said there are a few issues.  The first issue I had is that there was still that scum from soap that has been left in the holder.  Clearly when the room was turned, housekeeping simply removed the bar of soap that the previous guest had left and then didn't do anything else to clean out the shower.  While this may seem like a minimal...This is your typical Holiday Inn Express.  As is the case with most of Holiday Inn's "Express" hotels it is newer than some of the others.  All the furnishings, bed, fixtures, etc. were in pretty good shape.  For some people the bed is the most important thing and rest assured it is plenty comfortable.  My only complaint there is something I find at most hotels and that is that the "firm" pillows are anything but.  As a business traveler myself I also focus a lot on internet quality since it is a necessity for me working while on the road.  While they do not have their services password protected (terrible idea for them btw) it provided decent speed and I had no problems even streaming video.  There was an occasional slow down, but I was still able to work with no issue.  Staff was friendly and for those who are interested they offer a program where guests can work out at a nearby gym instead of being stuck with the tiny on-site fitness center.That being said there are a few issues.  The first issue I had is that there was still that scum from soap that has been left in the holder.  Clearly when the room was turned, housekeeping simply removed the bar of soap that the previous guest had left and then didn't do anything else to clean out the shower.  While this may seem like a minimal issue I consider it quite gross and does of course make me wonder what other corners were cut when it came to cleaning the room.  The other issue was noise.  While it may just be that the person in the room on the floor above mine is a heavy walker I find that a lot of these newer hotels seem to have similar noise issues.  There was an almost constant thumping sound like someone pacing back and forth, which led me to have to turn up the TV in the room in an attempt to drown it out.  I'm not even sure it was above me or if it was in an adjacent room, but either way I was glad to only be staying one night because that would drive me nuts.Also a side note to GPS users like myself; you may run into issues finding the place.  As a heads-up my GPS took me to what I'm assuming is the neighborhood behind the hotel because when it said that I had reached my destination I was at a dead end in a small residential neighborhood.  Thankfully from there I was able to stumble onto the main road where the hotel is actually located.More</t>
   </si>
@@ -1424,6 +2163,57 @@
 1) Arrival is was easy using the Sat Nav and zip code address instructions 2) On arrival at the hotel the check in staff were extremely pleasant and friendly. 3) All area’s including the bedrooms where always well kept, tidy and clean 4) The rooms are what you would expect from a modern Holiday Inn. SEE the photos5) There is an on site free car park 6) Breakfast (self service) is included with hot and cold selections (the branded Holiday Inn Express range) sausage, biscuit &amp; gravy, powdered egg, toast, pancakes, pastries, cereal, fruit &amp; fresh coffee.7) I used the small gym facilities, which where clean, well maintained and air-conditioned8) Location, The hotel is quite remote from most of the interesting areas of the city, but all can be most easily driven to from the hotel9) Check out, was straight forward and hassle free. In summary the hotel scores 7/10 for an average Holiday Inn that just needs a better location.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r193500745-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>193500745</t>
+  </si>
+  <si>
+    <t>02/08/2014</t>
+  </si>
+  <si>
+    <t>Very pleasant stay!!!</t>
+  </si>
+  <si>
+    <t>The hotel is really clean and new. Very quiet! The service is the best! The hotel offers all the amenities you expect! The included breakfast is very good and convenient. We really enjoyed our stay here! If you want to come for a short stay or a long stay we really recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Phil H, Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded February 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 12, 2014</t>
+  </si>
+  <si>
+    <t>The hotel is really clean and new. Very quiet! The service is the best! The hotel offers all the amenities you expect! The included breakfast is very good and convenient. We really enjoyed our stay here! If you want to come for a short stay or a long stay we really recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r189067747-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>189067747</t>
+  </si>
+  <si>
+    <t>12/30/2013</t>
+  </si>
+  <si>
+    <t>Very Pleasant Stay</t>
+  </si>
+  <si>
+    <t>Was here for five days over Xmas. Spacious room, extremely comfortable bed, immaculately clean everything, and a great staff who went that extra mile.  Have to compliment the very lovely lady who handled breakfast every day --- for a hotel complimentary breakfast, this was outstanding. The one day she was not there, standards plummeted, so no doubt the normal high quality was due to her efforts and the pride she took in her breakfast bar. PLEASE folks, give her a raise!!! The eggs were hot and soft, and the biscuit hot and steamy, and the gravy fantastic!What I did not like: shower power too sketchy, skimpy, and was un-adjustable; lighting in the bathroom was simply awful -- had to do my make-up in the bedroom by a window. These were minor problems, however, and I will happily stay here again when next visiting my relatives in the area. There is also a Walgreens very close by and that was a big help in many ways.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Phil H, Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded December 31, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 31, 2013</t>
+  </si>
+  <si>
+    <t>Was here for five days over Xmas. Spacious room, extremely comfortable bed, immaculately clean everything, and a great staff who went that extra mile.  Have to compliment the very lovely lady who handled breakfast every day --- for a hotel complimentary breakfast, this was outstanding. The one day she was not there, standards plummeted, so no doubt the normal high quality was due to her efforts and the pride she took in her breakfast bar. PLEASE folks, give her a raise!!! The eggs were hot and soft, and the biscuit hot and steamy, and the gravy fantastic!What I did not like: shower power too sketchy, skimpy, and was un-adjustable; lighting in the bathroom was simply awful -- had to do my make-up in the bedroom by a window. These were minor problems, however, and I will happily stay here again when next visiting my relatives in the area. There is also a Walgreens very close by and that was a big help in many ways.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r179288603-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -1496,6 +2286,56 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r161622627-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>161622627</t>
+  </si>
+  <si>
+    <t>05/23/2013</t>
+  </si>
+  <si>
+    <t>Nice and quiet location with availability!</t>
+  </si>
+  <si>
+    <t>We had an issue come up at our home that prevented us from sleeping there one night and it was too late to call friends/family, so we ended up at the HIE because it is very close to my mom's house.  I made our reservations online at 11:00 p.m. using my corporate code for the night and we were at the hotel to check in less than an hour later.
+Being a Friday night, the hotel was fairly empty, which was nice.  Check in went as smoothly as could be expected since we had just made the reservation online a little bit before we arrived.  The gentleman working gave me my Priority Club goody bag, which was appreciated by my son.  
+The room was clean and quiet and the beds were comfortable.  There are a couple of 24 hour fast food restaurants nearby which made my husband happy since he was feeling a bit hungry.  
+Breakfast was good and my son loved the pancakes.  Because the hotel was fairly empty, there were plenty of places to sit in the dining room and no wait for anything.  We had somewhere to be early the next morning so we were back on the road almost immediately after breakfast and didn't spend much time in the room except to sleep and shower.
+I know my parents have put relatives up in this hotel on many occasions and I wouldn't hesitate to stay there...We had an issue come up at our home that prevented us from sleeping there one night and it was too late to call friends/family, so we ended up at the HIE because it is very close to my mom's house.  I made our reservations online at 11:00 p.m. using my corporate code for the night and we were at the hotel to check in less than an hour later.Being a Friday night, the hotel was fairly empty, which was nice.  Check in went as smoothly as could be expected since we had just made the reservation online a little bit before we arrived.  The gentleman working gave me my Priority Club goody bag, which was appreciated by my son.  The room was clean and quiet and the beds were comfortable.  There are a couple of 24 hour fast food restaurants nearby which made my husband happy since he was feeling a bit hungry.  Breakfast was good and my son loved the pancakes.  Because the hotel was fairly empty, there were plenty of places to sit in the dining room and no wait for anything.  We had somewhere to be early the next morning so we were back on the road almost immediately after breakfast and didn't spend much time in the room except to sleep and shower.I know my parents have put relatives up in this hotel on many occasions and I wouldn't hesitate to stay there again if we ever needed a place to stay close to home.  The great price ($75 after my corporate discount) and availability on a Friday night was much appreciated by this family in need of a bed to sleep in!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>We had an issue come up at our home that prevented us from sleeping there one night and it was too late to call friends/family, so we ended up at the HIE because it is very close to my mom's house.  I made our reservations online at 11:00 p.m. using my corporate code for the night and we were at the hotel to check in less than an hour later.
+Being a Friday night, the hotel was fairly empty, which was nice.  Check in went as smoothly as could be expected since we had just made the reservation online a little bit before we arrived.  The gentleman working gave me my Priority Club goody bag, which was appreciated by my son.  
+The room was clean and quiet and the beds were comfortable.  There are a couple of 24 hour fast food restaurants nearby which made my husband happy since he was feeling a bit hungry.  
+Breakfast was good and my son loved the pancakes.  Because the hotel was fairly empty, there were plenty of places to sit in the dining room and no wait for anything.  We had somewhere to be early the next morning so we were back on the road almost immediately after breakfast and didn't spend much time in the room except to sleep and shower.
+I know my parents have put relatives up in this hotel on many occasions and I wouldn't hesitate to stay there...We had an issue come up at our home that prevented us from sleeping there one night and it was too late to call friends/family, so we ended up at the HIE because it is very close to my mom's house.  I made our reservations online at 11:00 p.m. using my corporate code for the night and we were at the hotel to check in less than an hour later.Being a Friday night, the hotel was fairly empty, which was nice.  Check in went as smoothly as could be expected since we had just made the reservation online a little bit before we arrived.  The gentleman working gave me my Priority Club goody bag, which was appreciated by my son.  The room was clean and quiet and the beds were comfortable.  There are a couple of 24 hour fast food restaurants nearby which made my husband happy since he was feeling a bit hungry.  Breakfast was good and my son loved the pancakes.  Because the hotel was fairly empty, there were plenty of places to sit in the dining room and no wait for anything.  We had somewhere to be early the next morning so we were back on the road almost immediately after breakfast and didn't spend much time in the room except to sleep and shower.I know my parents have put relatives up in this hotel on many occasions and I wouldn't hesitate to stay there again if we ever needed a place to stay close to home.  The great price ($75 after my corporate discount) and availability on a Friday night was much appreciated by this family in need of a bed to sleep in!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r151810488-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>151810488</t>
+  </si>
+  <si>
+    <t>02/10/2013</t>
+  </si>
+  <si>
+    <t>Very nice HIE, and it was available</t>
+  </si>
+  <si>
+    <t>I travel to Houston every other week for business.  Since this city is booming, I'm finding it very tough to find hotel rooms at a reasonable price.  I don't normally stay at HI properties, because it's so hit or miss.  This HIE just happened to be available at a reasonable price, relatively speaking.  It's a decent location on Beltway 8.  I drove all over Houston with no access issues.  This HIE is soo nice.  The entry, lobby, &amp; breakfast areas are all new, sleek and modern.  The rooms smell clean, beds are comfortable, lots of outlets.  My only wish is for a full size hair dryer.  Beds were comfortable, fitness room was decent, breakfast was good - loved the cinnamon rolls.  Staff was always friendly.  I would consider staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>I travel to Houston every other week for business.  Since this city is booming, I'm finding it very tough to find hotel rooms at a reasonable price.  I don't normally stay at HI properties, because it's so hit or miss.  This HIE just happened to be available at a reasonable price, relatively speaking.  It's a decent location on Beltway 8.  I drove all over Houston with no access issues.  This HIE is soo nice.  The entry, lobby, &amp; breakfast areas are all new, sleek and modern.  The rooms smell clean, beds are comfortable, lots of outlets.  My only wish is for a full size hair dryer.  Beds were comfortable, fitness room was decent, breakfast was good - loved the cinnamon rolls.  Staff was always friendly.  I would consider staying here again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r149364073-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -1548,6 +2388,53 @@
   </si>
   <si>
     <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r145073836-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>145073836</t>
+  </si>
+  <si>
+    <t>11/10/2012</t>
+  </si>
+  <si>
+    <t>Beautiful hotel at a good rate.</t>
+  </si>
+  <si>
+    <t>I saw some other reviews complaining about this hotel. I guess if I had paid $200 for a room then I wouldn't have been as happy either. Thankfully, I only paid $110 (corporate rate). I've stayed at many HI Express locations (it is my favorite chain) and this was as good as any. The hotel seems very new. The room was spacious and nicely furnished. The breakfast was good with the usual HI Express fare (love those cinnamon rolls). The thing that stood out the most to me was the reception I received at check in. The attendant was friendly and because I'm a priority club member, she gave me a bag full of goodies. I wouldn't hesitate to stay here agin.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>I saw some other reviews complaining about this hotel. I guess if I had paid $200 for a room then I wouldn't have been as happy either. Thankfully, I only paid $110 (corporate rate). I've stayed at many HI Express locations (it is my favorite chain) and this was as good as any. The hotel seems very new. The room was spacious and nicely furnished. The breakfast was good with the usual HI Express fare (love those cinnamon rolls). The thing that stood out the most to me was the reception I received at check in. The attendant was friendly and because I'm a priority club member, she gave me a bag full of goodies. I wouldn't hesitate to stay here agin.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r144450980-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>144450980</t>
+  </si>
+  <si>
+    <t>11/04/2012</t>
+  </si>
+  <si>
+    <t>I was prepared to be disappointed, and I was</t>
+  </si>
+  <si>
+    <t>I travel to NW Houston quite regularly on business and invariably stay for 2 weeks. I normally stay at the Staybridge Willowbrook but this time it was full and I couldn't get a room. However, for exactly the same price as Staybridge I booked ten nights at the relatively new, and quite close by, Holiday Inn Express at Beltway and West Road.  Maybe I have been spolied by Staybridge but bearing in mind I paid the same room rate the Holiday Inn just doesn't compare.  The room was clean but the facilities were a let down.  I'm not sure of the point of having a fridge and a microwave when there isn't even a spoon provided, let alone a cup or a plate. 
+Breakfast was the biggest disappointment.  Apart from the horrid styro-foam plates and plastic utensils the food quality and choice was well below average. Coffee was like dish water.
+Nice to have a guest laundry, especially when staying close on 2 weeks, but having to feed the washer and dryer (only one of each for a hotel of close on 100 rooms!) with coins was a pain.
+Cleanliness - the room was serviced perfectly but in the 10 nights I stayed the carpets on the stair well were never touched (and it was messy when I arrived!) 
+And finally, whoever designed the hotel obviously doesn't realise that putting a pool directly against the north side of a large...I travel to NW Houston quite regularly on business and invariably stay for 2 weeks. I normally stay at the Staybridge Willowbrook but this time it was full and I couldn't get a room. However, for exactly the same price as Staybridge I booked ten nights at the relatively new, and quite close by, Holiday Inn Express at Beltway and West Road.  Maybe I have been spolied by Staybridge but bearing in mind I paid the same room rate the Holiday Inn just doesn't compare.  The room was clean but the facilities were a let down.  I'm not sure of the point of having a fridge and a microwave when there isn't even a spoon provided, let alone a cup or a plate. Breakfast was the biggest disappointment.  Apart from the horrid styro-foam plates and plastic utensils the food quality and choice was well below average. Coffee was like dish water.Nice to have a guest laundry, especially when staying close on 2 weeks, but having to feed the washer and dryer (only one of each for a hotel of close on 100 rooms!) with coins was a pain.Cleanliness - the room was serviced perfectly but in the 10 nights I stayed the carpets on the stair well were never touched (and it was messy when I arrived!)  And finally, whoever designed the hotel obviously doesn't realise that putting a pool directly against the north side of a large building means it will be in the shade all day.Am I being too harsh?  Under different circumstances this hotel might stand up, but with such tough competition, and from a fellow member of the IHG group, it represents poor value and has a very long way to go.MoreShow less</t>
+  </si>
+  <si>
+    <t>I travel to NW Houston quite regularly on business and invariably stay for 2 weeks. I normally stay at the Staybridge Willowbrook but this time it was full and I couldn't get a room. However, for exactly the same price as Staybridge I booked ten nights at the relatively new, and quite close by, Holiday Inn Express at Beltway and West Road.  Maybe I have been spolied by Staybridge but bearing in mind I paid the same room rate the Holiday Inn just doesn't compare.  The room was clean but the facilities were a let down.  I'm not sure of the point of having a fridge and a microwave when there isn't even a spoon provided, let alone a cup or a plate. 
+Breakfast was the biggest disappointment.  Apart from the horrid styro-foam plates and plastic utensils the food quality and choice was well below average. Coffee was like dish water.
+Nice to have a guest laundry, especially when staying close on 2 weeks, but having to feed the washer and dryer (only one of each for a hotel of close on 100 rooms!) with coins was a pain.
+Cleanliness - the room was serviced perfectly but in the 10 nights I stayed the carpets on the stair well were never touched (and it was messy when I arrived!) 
+And finally, whoever designed the hotel obviously doesn't realise that putting a pool directly against the north side of a large...I travel to NW Houston quite regularly on business and invariably stay for 2 weeks. I normally stay at the Staybridge Willowbrook but this time it was full and I couldn't get a room. However, for exactly the same price as Staybridge I booked ten nights at the relatively new, and quite close by, Holiday Inn Express at Beltway and West Road.  Maybe I have been spolied by Staybridge but bearing in mind I paid the same room rate the Holiday Inn just doesn't compare.  The room was clean but the facilities were a let down.  I'm not sure of the point of having a fridge and a microwave when there isn't even a spoon provided, let alone a cup or a plate. Breakfast was the biggest disappointment.  Apart from the horrid styro-foam plates and plastic utensils the food quality and choice was well below average. Coffee was like dish water.Nice to have a guest laundry, especially when staying close on 2 weeks, but having to feed the washer and dryer (only one of each for a hotel of close on 100 rooms!) with coins was a pain.Cleanliness - the room was serviced perfectly but in the 10 nights I stayed the carpets on the stair well were never touched (and it was messy when I arrived!)  And finally, whoever designed the hotel obviously doesn't realise that putting a pool directly against the north side of a large building means it will be in the shade all day.Am I being too harsh?  Under different circumstances this hotel might stand up, but with such tough competition, and from a fellow member of the IHG group, it represents poor value and has a very long way to go.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r129705961-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
@@ -1618,6 +2505,64 @@
   </si>
   <si>
     <t>Great quite clean place, close to the airport, would recommend to anybody! Enjoy!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r125679254-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>125679254</t>
+  </si>
+  <si>
+    <t>03/05/2012</t>
+  </si>
+  <si>
+    <t>Quiet, classy and new</t>
+  </si>
+  <si>
+    <t>I'm a frequent traveler to the NW-Beltway 8 area.  This nice new Holiday Inn works just fine for business travelers like me. 
+The hotel has ample parking.  It's near busy roads (Beltway 8) but not so near that you can hear it.  The pool area is pleasant in the evening, and the pool was very usable.  I chose to sit beside it and enjoy the conversation of friends. 
+Front desk staff were friendly and attentive, despite my 1AM arrival.  The layout is exactly like other newer Holiday Inns (very functional).  The business center had a couple of PCs and I could see people successfully using the available computer and printer.  
+In the rooms, the TVs were new, flat and speedy.  Room furnishings were better than average, and the room had a modern and classy look. The bed and betting were very comfortable.
+Breakfast was "just ok".  Bagels and bread were a little stale.  The presentation of oatmeal was unappealing.  On the positive side, the breakfast area was well organized and ideally setup if travelling with a family or other colleagues.  My recommendation is grab a banana from the hotel, then go get a coffee from the specialty coffee place a couple of blocks north on West Rd.
+The hotel is set-aside from other developments and has a large wall that separates it from a trailer park around the back.  Lighting and lines-of-site are good, and I felt as though the...I'm a frequent traveler to the NW-Beltway 8 area.  This nice new Holiday Inn works just fine for business travelers like me. The hotel has ample parking.  It's near busy roads (Beltway 8) but not so near that you can hear it.  The pool area is pleasant in the evening, and the pool was very usable.  I chose to sit beside it and enjoy the conversation of friends. Front desk staff were friendly and attentive, despite my 1AM arrival.  The layout is exactly like other newer Holiday Inns (very functional).  The business center had a couple of PCs and I could see people successfully using the available computer and printer.  In the rooms, the TVs were new, flat and speedy.  Room furnishings were better than average, and the room had a modern and classy look. The bed and betting were very comfortable.Breakfast was "just ok".  Bagels and bread were a little stale.  The presentation of oatmeal was unappealing.  On the positive side, the breakfast area was well organized and ideally setup if travelling with a family or other colleagues.  My recommendation is grab a banana from the hotel, then go get a coffee from the specialty coffee place a couple of blocks north on West Rd.The hotel is set-aside from other developments and has a large wall that separates it from a trailer park around the back.  Lighting and lines-of-site are good, and I felt as though the area was safe and secure.  I will plan to go back next time I’m in Houston on business.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>hiexpresshouston, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded March 7, 2012</t>
+  </si>
+  <si>
+    <t>Responded March 7, 2012</t>
+  </si>
+  <si>
+    <t>I'm a frequent traveler to the NW-Beltway 8 area.  This nice new Holiday Inn works just fine for business travelers like me. 
+The hotel has ample parking.  It's near busy roads (Beltway 8) but not so near that you can hear it.  The pool area is pleasant in the evening, and the pool was very usable.  I chose to sit beside it and enjoy the conversation of friends. 
+Front desk staff were friendly and attentive, despite my 1AM arrival.  The layout is exactly like other newer Holiday Inns (very functional).  The business center had a couple of PCs and I could see people successfully using the available computer and printer.  
+In the rooms, the TVs were new, flat and speedy.  Room furnishings were better than average, and the room had a modern and classy look. The bed and betting were very comfortable.
+Breakfast was "just ok".  Bagels and bread were a little stale.  The presentation of oatmeal was unappealing.  On the positive side, the breakfast area was well organized and ideally setup if travelling with a family or other colleagues.  My recommendation is grab a banana from the hotel, then go get a coffee from the specialty coffee place a couple of blocks north on West Rd.
+The hotel is set-aside from other developments and has a large wall that separates it from a trailer park around the back.  Lighting and lines-of-site are good, and I felt as though the...I'm a frequent traveler to the NW-Beltway 8 area.  This nice new Holiday Inn works just fine for business travelers like me. The hotel has ample parking.  It's near busy roads (Beltway 8) but not so near that you can hear it.  The pool area is pleasant in the evening, and the pool was very usable.  I chose to sit beside it and enjoy the conversation of friends. Front desk staff were friendly and attentive, despite my 1AM arrival.  The layout is exactly like other newer Holiday Inns (very functional).  The business center had a couple of PCs and I could see people successfully using the available computer and printer.  In the rooms, the TVs were new, flat and speedy.  Room furnishings were better than average, and the room had a modern and classy look. The bed and betting were very comfortable.Breakfast was "just ok".  Bagels and bread were a little stale.  The presentation of oatmeal was unappealing.  On the positive side, the breakfast area was well organized and ideally setup if travelling with a family or other colleagues.  My recommendation is grab a banana from the hotel, then go get a coffee from the specialty coffee place a couple of blocks north on West Rd.The hotel is set-aside from other developments and has a large wall that separates it from a trailer park around the back.  Lighting and lines-of-site are good, and I felt as though the area was safe and secure.  I will plan to go back next time I’m in Houston on business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r124058029-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>124058029</t>
+  </si>
+  <si>
+    <t>02/03/2012</t>
+  </si>
+  <si>
+    <t>Hotel experience</t>
+  </si>
+  <si>
+    <t>The Holiday Inn 'Express was new, very clean, employees very friendly and we just enjohed our stay tremendously. The hotel was easy and convient to get in and out of.  My stay was excellent.  I did not book this hotel, but this is where I stayed.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>The Holiday Inn 'Express was new, very clean, employees very friendly and we just enjohed our stay tremendously. The hotel was easy and convient to get in and out of.  My stay was excellent.  I did not book this hotel, but this is where I stayed.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r120908648-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
@@ -1708,6 +2653,42 @@
 The biggest problem I had was with the bathroom.  I was in a handicapped room because the hotel was full, and the shower was wheelchair accessible.  Sounds nice, except that there was no lip on the shower at all, so the water flowed all over the bathroom floor every time.  I nearly slipped the first...First let me say that this is a beautiful hotel.  I have never stay at a HIE before, but based on this visit, I definitely would again.  The hotel is very swanky in decor and feels like a boutique hotel.  The small lobby is very attractive and the dining room is comfortable and welcoming.  The complimentary breakfast was adequate, although the quality of the eggs and meats could be raised a bit.  Still not bad for a free breakfast, but Hilton really outdoes Holiday Inn in this area.Now the room was another story.  First, the good.  The bed was amazingly comfortable.  I had 4 pillows per bed with both soft and firm options that were marked as such.  The TV was very nice.  The decor was really superb for a hotel in this price range.  It felt like an expensive vegas hotel room.  Every room has a fridge and microwave and internet access.  I had trouble getting access to the internet and had to call the 800 number for assistance.  It finally worked on night #2 and I had no other issues after that.  The biggest problem I had was with the bathroom.  I was in a handicapped room because the hotel was full, and the shower was wheelchair accessible.  Sounds nice, except that there was no lip on the shower at all, so the water flowed all over the bathroom floor every time.  I nearly slipped the first night.  After that, I started placing the extra towels on the floor before each shower, which created a swamp of wet towels for the remainder of the day.  This was VERY unacceptable and something needs to be done to solve this.The other issue I had was with other guests.  There appeared to be a group of guys staying there who liked to party late into the night.  They would sit out by the pool drinking until about 1 am and then would go into the dining room and lobby being VERY loud, flirting with women, and generally being obnoxious.  I asked the desk person to quiet them down once, and then 20 min later they started in again so I had to yell out the door for them to shut the hell up.  This happened 2 of the 3 nights I was there.  All in all it was a decent visit.  The main problem was with the design of the handicapped room.  Other than that, i could have tolerated the noise.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r118216000-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>118216000</t>
+  </si>
+  <si>
+    <t>09/16/2011</t>
+  </si>
+  <si>
+    <t>Very nice HI Express</t>
+  </si>
+  <si>
+    <t>Just checked out and this hotel is very nice. It has quality rooms and a very modern, classy look to it. Big flat screen TV's, couch and table, in room computer work table/chair area, small refrigerator and a big bathroom with lots of shower water pressure. The pool area looked nice for a HI Express pool although I never used it. The breakfast in the morning was good. Scrambled eggs, sausage, biscuits and gravy, pancakes, muffins, yogurt, juice and coffee were all fresh. I would give it 5 stars but I try to reserve that rating for luxury resort type of places. Everything was clean and 1st class here, when I come back to Houton for business I will stay here again, I stayed 5 nights.MoreShow less</t>
+  </si>
+  <si>
+    <t>Just checked out and this hotel is very nice. It has quality rooms and a very modern, classy look to it. Big flat screen TV's, couch and table, in room computer work table/chair area, small refrigerator and a big bathroom with lots of shower water pressure. The pool area looked nice for a HI Express pool although I never used it. The breakfast in the morning was good. Scrambled eggs, sausage, biscuits and gravy, pancakes, muffins, yogurt, juice and coffee were all fresh. I would give it 5 stars but I try to reserve that rating for luxury resort type of places. Everything was clean and 1st class here, when I come back to Houton for business I will stay here again, I stayed 5 nights.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r118031485-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>118031485</t>
+  </si>
+  <si>
+    <t>09/12/2011</t>
+  </si>
+  <si>
+    <t>Good stay.</t>
+  </si>
+  <si>
+    <t>Just stayed in the Hotel for 6 nights and shouldn't complain. Everything is as expected in a Holiday Inn Express. Fine. Just the bathroom could have been more clean. Everything else was nice. Free Wifi is a given. Like a good breakfast. I would consider coming back next time when I'm in Houston. MoreShow less</t>
+  </si>
+  <si>
+    <t>Just stayed in the Hotel for 6 nights and shouldn't complain. Everything is as expected in a Holiday Inn Express. Fine. Just the bathroom could have been more clean. Everything else was nice. Free Wifi is a given. Like a good breakfast. I would consider coming back next time when I'm in Houston. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r113148472-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -1784,6 +2765,33 @@
   </si>
   <si>
     <t>I've never enjoyed a staff as much as I did here! EVERYONE was so very nice and BEYOND helpful!  The entire hotel was VERY clean and absolutely gorgeous.  The rooms were extremely comfortable as well as clean.  We're originally from Houston and back to visit.  This wS a GREAT location for is to quickly reach our families in both the northern outskirts of Houston as well as the Clearlake area.  HIGHLY recommended!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1773009-r94076181-Holiday_Inn_Express_Hotel_Suites_Houston_NW_Beltway_8_West_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>94076181</t>
+  </si>
+  <si>
+    <t>01/22/2011</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t>This hotel is awesome!  It was recently built &amp; is brand new.  The lobby &amp; rooms were elegant.  And very clean.  The location is decent &amp; safe.  The pool is outdoors and we didn't use it since it was raining.  They also had a fitness room.  The staff were friendly.  At check in, they even gave us a fancy goodie bag with water, pretzels, and chocolate inside!  See photo.  But, the internet wasn't working and took 1.5 hours, two trips to the front desk and two phone calls to fix it.  Breakfast was just ok - the normally rubbery egg omelets were either over cooked or dried out and were hard as plastic so we couldn't eat them.  The also ran out of milk.  However, there were other items to fill us up - mini muffins, english muffins, toast, peanut butter, cinnamon rolls, sausage links, biscuits, etc.  So breakfast was adequate.  We would absolutely stay at this hotel again because it was so new and clean.  You could still smell the paint - it was that new!  You could smell it but it wasn't overwhelming - it was that newly built construction smell.  The beds were firm (new) and had numerous pillows.  However, the bed next to the window was right next to the heating/AC unit that there was no way anyone could sleep on that side of the bed except to crawl over the foot of the bed, it...This hotel is awesome!  It was recently built &amp; is brand new.  The lobby &amp; rooms were elegant.  And very clean.  The location is decent &amp; safe.  The pool is outdoors and we didn't use it since it was raining.  They also had a fitness room.  The staff were friendly.  At check in, they even gave us a fancy goodie bag with water, pretzels, and chocolate inside!  See photo.  But, the internet wasn't working and took 1.5 hours, two trips to the front desk and two phone calls to fix it.  Breakfast was just ok - the normally rubbery egg omelets were either over cooked or dried out and were hard as plastic so we couldn't eat them.  The also ran out of milk.  However, there were other items to fill us up - mini muffins, english muffins, toast, peanut butter, cinnamon rolls, sausage links, biscuits, etc.  So breakfast was adequate.  We would absolutely stay at this hotel again because it was so new and clean.  You could still smell the paint - it was that new!  You could smell it but it wasn't overwhelming - it was that newly built construction smell.  The beds were firm (new) and had numerous pillows.  However, the bed next to the window was right next to the heating/AC unit that there was no way anyone could sleep on that side of the bed except to crawl over the foot of the bed, it was ridiculous.  It was so narrow; I had to take a picture.  See photo.  There were 4 of us and no one wanted to crawl in and out of the bed over the foot of the bed so 1 person slept on the sofa instead.  We made it work so we did have a good stay.  We would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2011</t>
+  </si>
+  <si>
+    <t>hiexpresshouston, General Manager at Holiday Inn Express Hotel &amp; Suites Houston NW-Beltway 8-West Road, responded to this reviewResponded February 9, 2011</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2011</t>
+  </si>
+  <si>
+    <t>This hotel is awesome!  It was recently built &amp; is brand new.  The lobby &amp; rooms were elegant.  And very clean.  The location is decent &amp; safe.  The pool is outdoors and we didn't use it since it was raining.  They also had a fitness room.  The staff were friendly.  At check in, they even gave us a fancy goodie bag with water, pretzels, and chocolate inside!  See photo.  But, the internet wasn't working and took 1.5 hours, two trips to the front desk and two phone calls to fix it.  Breakfast was just ok - the normally rubbery egg omelets were either over cooked or dried out and were hard as plastic so we couldn't eat them.  The also ran out of milk.  However, there were other items to fill us up - mini muffins, english muffins, toast, peanut butter, cinnamon rolls, sausage links, biscuits, etc.  So breakfast was adequate.  We would absolutely stay at this hotel again because it was so new and clean.  You could still smell the paint - it was that new!  You could smell it but it wasn't overwhelming - it was that newly built construction smell.  The beds were firm (new) and had numerous pillows.  However, the bed next to the window was right next to the heating/AC unit that there was no way anyone could sleep on that side of the bed except to crawl over the foot of the bed, it...This hotel is awesome!  It was recently built &amp; is brand new.  The lobby &amp; rooms were elegant.  And very clean.  The location is decent &amp; safe.  The pool is outdoors and we didn't use it since it was raining.  They also had a fitness room.  The staff were friendly.  At check in, they even gave us a fancy goodie bag with water, pretzels, and chocolate inside!  See photo.  But, the internet wasn't working and took 1.5 hours, two trips to the front desk and two phone calls to fix it.  Breakfast was just ok - the normally rubbery egg omelets were either over cooked or dried out and were hard as plastic so we couldn't eat them.  The also ran out of milk.  However, there were other items to fill us up - mini muffins, english muffins, toast, peanut butter, cinnamon rolls, sausage links, biscuits, etc.  So breakfast was adequate.  We would absolutely stay at this hotel again because it was so new and clean.  You could still smell the paint - it was that new!  You could smell it but it wasn't overwhelming - it was that newly built construction smell.  The beds were firm (new) and had numerous pillows.  However, the bed next to the window was right next to the heating/AC unit that there was no way anyone could sleep on that side of the bed except to crawl over the foot of the bed, it was ridiculous.  It was so narrow; I had to take a picture.  See photo.  There were 4 of us and no one wanted to crawl in and out of the bed over the foot of the bed so 1 person slept on the sofa instead.  We made it work so we did have a good stay.  We would stay here again.More</t>
   </si>
 </sst>
 </file>
@@ -2318,7 +3326,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -2375,7 +3383,7 @@
         <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
         <v>59</v>
@@ -2384,16 +3392,14 @@
         <v>60</v>
       </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>2</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -2401,7 +3407,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -2417,48 +3423,52 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
         <v>62</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>63</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
         <v>66</v>
       </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>67</v>
       </c>
-      <c r="O4" t="s">
-        <v>68</v>
-      </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
@@ -2495,10 +3505,10 @@
         <v>73</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="O5" t="s">
         <v>60</v>
@@ -2512,14 +3522,10 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>75</v>
-      </c>
-      <c r="X5" t="s">
-        <v>76</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
@@ -2535,48 +3541,54 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
         <v>78</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
         <v>79</v>
       </c>
-      <c r="J6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L6" t="s">
-        <v>82</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>83</v>
-      </c>
       <c r="O6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -2592,34 +3604,34 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
         <v>84</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>85</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>86</v>
       </c>
-      <c r="K7" t="s">
+      <c r="O7" t="s">
         <v>87</v>
-      </c>
-      <c r="L7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>83</v>
-      </c>
-      <c r="O7" t="s">
-        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2633,7 +3645,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -2649,34 +3661,34 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
         <v>89</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>90</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>91</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>92</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
         <v>93</v>
       </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>94</v>
-      </c>
       <c r="O8" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2687,10 +3699,14 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>94</v>
+      </c>
+      <c r="X8" t="s">
+        <v>95</v>
+      </c>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
@@ -2706,7 +3722,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2715,43 +3731,39 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10">
@@ -2767,7 +3779,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2776,45 +3788,43 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O10" t="s">
-        <v>68</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
+      <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>108</v>
+      </c>
+      <c r="X10" t="s">
+        <v>109</v>
+      </c>
       <c r="Y10" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
@@ -2830,7 +3840,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2839,25 +3849,25 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="J11" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K11" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2871,7 +3881,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12">
@@ -2887,7 +3897,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2896,22 +3906,22 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="J12" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="K12" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="L12" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
         <v>116</v>
-      </c>
-      <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s">
-        <v>112</v>
       </c>
       <c r="O12" t="s">
         <v>60</v>
@@ -2928,7 +3938,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13">
@@ -2944,7 +3954,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2953,39 +3963,45 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="J13" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="K13" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="L13" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
-      </c>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
@@ -3001,7 +4017,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -3010,25 +4026,25 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="J14" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3038,7 +4054,7 @@
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -3046,7 +4062,7 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15">
@@ -3062,7 +4078,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -3071,45 +4087,39 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="J15" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K15" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="L15" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
         <v>132</v>
       </c>
       <c r="O15" t="s">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16">
@@ -3125,7 +4135,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -3134,31 +4144,31 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="J16" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K16" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="L16" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O16" t="s">
         <v>60</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="n">
-        <v>5</v>
-      </c>
-      <c r="R16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
@@ -3170,7 +4180,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17">
@@ -3186,7 +4196,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -3195,34 +4205,34 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="J17" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K17" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L17" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="O17" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
       </c>
       <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
         <v>5</v>
@@ -3233,7 +4243,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18">
@@ -3249,7 +4259,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -3258,34 +4268,34 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="J18" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K18" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L18" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="O18" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
       </c>
-      <c r="Q18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
       <c r="R18" t="s"/>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
         <v>5</v>
@@ -3296,7 +4306,7 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19">
@@ -3312,7 +4322,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -3321,25 +4331,25 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="J19" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K19" t="s">
+        <v>158</v>
+      </c>
+      <c r="L19" t="s">
+        <v>159</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
         <v>154</v>
       </c>
-      <c r="L19" t="s">
-        <v>155</v>
-      </c>
-      <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s">
-        <v>156</v>
-      </c>
       <c r="O19" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3353,7 +4363,7 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20">
@@ -3369,7 +4379,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -3378,25 +4388,25 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="J20" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K20" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L20" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3407,14 +4417,10 @@
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>163</v>
-      </c>
-      <c r="X20" t="s">
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
         <v>164</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="21">
@@ -3430,52 +4436,48 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
+        <v>165</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
         <v>166</v>
       </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
+        <v>162</v>
+      </c>
+      <c r="K21" t="s">
         <v>167</v>
       </c>
-      <c r="J21" t="s">
+      <c r="L21" t="s">
         <v>168</v>
       </c>
-      <c r="K21" t="s">
-        <v>169</v>
-      </c>
-      <c r="L21" t="s">
-        <v>170</v>
-      </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="O21" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22">
@@ -3491,54 +4493,48 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
+        <v>169</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>170</v>
+      </c>
+      <c r="J22" t="s">
+        <v>162</v>
+      </c>
+      <c r="K22" t="s">
         <v>171</v>
       </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="L22" t="s">
         <v>172</v>
       </c>
-      <c r="J22" t="s">
-        <v>173</v>
-      </c>
-      <c r="K22" t="s">
-        <v>174</v>
-      </c>
-      <c r="L22" t="s">
-        <v>175</v>
-      </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="O22" t="s">
         <v>60</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
-      <c r="R22" t="n">
-        <v>4</v>
-      </c>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23">
@@ -3554,54 +4550,48 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
+        <v>173</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>174</v>
+      </c>
+      <c r="J23" t="s">
+        <v>175</v>
+      </c>
+      <c r="K23" t="s">
+        <v>176</v>
+      </c>
+      <c r="L23" t="s">
         <v>177</v>
       </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" t="s">
-        <v>178</v>
-      </c>
-      <c r="J23" t="s">
-        <v>179</v>
-      </c>
-      <c r="K23" t="s">
-        <v>180</v>
-      </c>
-      <c r="L23" t="s">
-        <v>181</v>
-      </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="O23" t="s">
         <v>60</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
-      <c r="S23" t="n">
-        <v>5</v>
-      </c>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24">
@@ -3617,48 +4607,54 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
+        <v>179</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>180</v>
+      </c>
+      <c r="J24" t="s">
+        <v>181</v>
+      </c>
+      <c r="K24" t="s">
+        <v>182</v>
+      </c>
+      <c r="L24" t="s">
         <v>183</v>
       </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
         <v>184</v>
       </c>
-      <c r="J24" t="s">
-        <v>185</v>
-      </c>
-      <c r="K24" t="s">
-        <v>186</v>
-      </c>
-      <c r="L24" t="s">
-        <v>187</v>
-      </c>
-      <c r="M24" t="n">
-        <v>5</v>
-      </c>
-      <c r="N24" t="s">
-        <v>188</v>
-      </c>
       <c r="O24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P24" t="s"/>
-      <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25">
@@ -3674,44 +4670,44 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
+        <v>185</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>186</v>
+      </c>
+      <c r="J25" t="s">
+        <v>187</v>
+      </c>
+      <c r="K25" t="s">
+        <v>188</v>
+      </c>
+      <c r="L25" t="s">
         <v>189</v>
       </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
         <v>190</v>
-      </c>
-      <c r="J25" t="s">
-        <v>185</v>
-      </c>
-      <c r="K25" t="s">
-        <v>191</v>
-      </c>
-      <c r="L25" t="s">
-        <v>192</v>
-      </c>
-      <c r="M25" t="n">
-        <v>5</v>
-      </c>
-      <c r="N25" t="s">
-        <v>188</v>
       </c>
       <c r="O25" t="s">
         <v>60</v>
       </c>
       <c r="P25" t="s"/>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
-      <c r="R25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -3719,7 +4715,7 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26">
@@ -3735,34 +4731,34 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
+        <v>191</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>192</v>
+      </c>
+      <c r="J26" t="s">
         <v>193</v>
       </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="K26" t="s">
         <v>194</v>
       </c>
-      <c r="J26" t="s">
+      <c r="L26" t="s">
         <v>195</v>
       </c>
-      <c r="K26" t="s">
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
         <v>196</v>
       </c>
-      <c r="L26" t="s">
+      <c r="O26" t="s">
         <v>197</v>
-      </c>
-      <c r="M26" t="n">
-        <v>5</v>
-      </c>
-      <c r="N26" t="s">
-        <v>188</v>
-      </c>
-      <c r="O26" t="s">
-        <v>53</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -3779,14 +4775,10 @@
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s">
-        <v>198</v>
-      </c>
-      <c r="X26" t="s">
-        <v>199</v>
-      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27">
@@ -3802,52 +4794,52 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
+        <v>198</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>199</v>
+      </c>
+      <c r="J27" t="s">
+        <v>200</v>
+      </c>
+      <c r="K27" t="s">
         <v>201</v>
       </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="L27" t="s">
         <v>202</v>
       </c>
-      <c r="J27" t="s">
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
         <v>203</v>
       </c>
-      <c r="K27" t="s">
-        <v>204</v>
-      </c>
-      <c r="L27" t="s">
-        <v>205</v>
-      </c>
-      <c r="M27" t="n">
-        <v>5</v>
-      </c>
-      <c r="N27" t="s">
-        <v>206</v>
-      </c>
       <c r="O27" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
       <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s">
-        <v>207</v>
-      </c>
-      <c r="X27" t="s">
-        <v>208</v>
-      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28">
@@ -3863,7 +4855,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3872,33 +4864,33 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J28" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="K28" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="L28" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="O28" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
       </c>
-      <c r="Q28" t="n">
-        <v>5</v>
-      </c>
-      <c r="R28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
@@ -3907,14 +4899,10 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
-        <v>207</v>
-      </c>
-      <c r="X28" t="s">
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
         <v>208</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="29">
@@ -3930,7 +4918,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3939,49 +4927,39 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="J29" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="K29" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L29" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="O29" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P29" t="s"/>
-      <c r="Q29" t="n">
-        <v>5</v>
-      </c>
-      <c r="R29" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>5</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>220</v>
-      </c>
-      <c r="X29" t="s">
-        <v>221</v>
-      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30">
@@ -3997,7 +4975,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -4006,32 +4984,34 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="J30" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="K30" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="L30" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="O30" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="P30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
-      <c r="S30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
         <v>5</v>
@@ -4039,14 +5019,10 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s">
-        <v>228</v>
-      </c>
-      <c r="X30" t="s">
-        <v>229</v>
-      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31">
@@ -4062,7 +5038,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -4071,49 +5047,45 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="J31" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="K31" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="L31" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="O31" t="s">
-        <v>60</v>
-      </c>
-      <c r="P31" t="s"/>
-      <c r="Q31" t="n">
-        <v>4</v>
-      </c>
-      <c r="R31" t="n">
-        <v>4</v>
-      </c>
-      <c r="S31" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s">
-        <v>237</v>
-      </c>
-      <c r="X31" t="s">
-        <v>238</v>
-      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32">
@@ -4129,7 +5101,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -4138,49 +5110,39 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="J32" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="K32" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="L32" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="O32" t="s">
-        <v>60</v>
-      </c>
-      <c r="P32" t="n">
-        <v>4</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>5</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s">
-        <v>245</v>
-      </c>
-      <c r="X32" t="s">
-        <v>246</v>
-      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33">
@@ -4196,7 +5158,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -4205,22 +5167,26 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="J33" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="K33" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="L33" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
-      <c r="N33" t="s"/>
-      <c r="O33" t="s"/>
+      <c r="N33" t="s">
+        <v>231</v>
+      </c>
+      <c r="O33" t="s">
+        <v>67</v>
+      </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
@@ -4230,14 +5196,10 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s">
-        <v>253</v>
-      </c>
-      <c r="X33" t="s">
-        <v>254</v>
-      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34">
@@ -4253,7 +5215,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -4262,47 +5224,43 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="J34" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="K34" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="L34" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>176</v>
+        <v>231</v>
       </c>
       <c r="O34" t="s">
         <v>60</v>
       </c>
-      <c r="P34" t="n">
-        <v>3</v>
-      </c>
+      <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
       <c r="R34" t="s"/>
-      <c r="S34" t="s"/>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s">
-        <v>261</v>
-      </c>
-      <c r="X34" t="s">
-        <v>262</v>
-      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35">
@@ -4318,7 +5276,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4327,49 +5285,43 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="J35" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="K35" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="L35" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P35" t="s"/>
-      <c r="Q35" t="n">
-        <v>4</v>
-      </c>
-      <c r="R35" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
       <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>4</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="X35" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="Y35" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36">
@@ -4385,7 +5337,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4394,43 +5346,43 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="J36" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="K36" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="L36" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="O36" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
-      <c r="S36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
       <c r="T36" t="s"/>
-      <c r="U36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s">
-        <v>278</v>
-      </c>
-      <c r="X36" t="s">
-        <v>279</v>
-      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37">
@@ -4446,7 +5398,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4455,31 +5407,31 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="J37" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="K37" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="L37" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="O37" t="s">
-        <v>60</v>
-      </c>
-      <c r="P37" t="n">
-        <v>5</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
-      <c r="R37" t="s"/>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
       <c r="S37" t="n">
         <v>5</v>
       </c>
@@ -4490,14 +5442,10 @@
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s">
-        <v>286</v>
-      </c>
-      <c r="X37" t="s">
-        <v>287</v>
-      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38">
@@ -4513,7 +5461,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4522,25 +5470,25 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="J38" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="K38" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="L38" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="M38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>294</v>
+        <v>246</v>
       </c>
       <c r="O38" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4551,14 +5499,10 @@
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s">
-        <v>295</v>
-      </c>
-      <c r="X38" t="s">
-        <v>296</v>
-      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39">
@@ -4574,7 +5518,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4583,49 +5527,39 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="J39" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="K39" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="L39" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>294</v>
+        <v>246</v>
       </c>
       <c r="O39" t="s">
-        <v>60</v>
-      </c>
-      <c r="P39" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>5</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
       <c r="R39" t="s"/>
       <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>5</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s">
-        <v>303</v>
-      </c>
-      <c r="X39" t="s">
-        <v>304</v>
-      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40">
@@ -4641,7 +5575,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4650,30 +5584,30 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="J40" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="K40" t="s">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="L40" t="s">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="O40" t="s">
-        <v>60</v>
-      </c>
-      <c r="P40" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q40" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
       <c r="R40" t="s"/>
       <c r="S40" t="n">
         <v>5</v>
@@ -4685,14 +5619,10 @@
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s">
-        <v>303</v>
-      </c>
-      <c r="X40" t="s">
-        <v>304</v>
-      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41">
@@ -4708,7 +5638,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>312</v>
+        <v>277</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4717,25 +5647,25 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
       <c r="J41" t="s">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="K41" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="L41" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="O41" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4746,14 +5676,10 @@
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s">
-        <v>303</v>
-      </c>
-      <c r="X41" t="s">
-        <v>304</v>
-      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42">
@@ -4769,7 +5695,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>318</v>
+        <v>283</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4778,33 +5704,31 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>319</v>
+        <v>284</v>
       </c>
       <c r="J42" t="s">
-        <v>320</v>
+        <v>279</v>
       </c>
       <c r="K42" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
       <c r="L42" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
-      </c>
-      <c r="P42" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q42" t="s"/>
-      <c r="R42" t="n">
-        <v>5</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="s"/>
       <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
@@ -4813,14 +5737,10 @@
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s">
-        <v>303</v>
-      </c>
-      <c r="X42" t="s">
-        <v>304</v>
-      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>323</v>
+        <v>286</v>
       </c>
     </row>
     <row r="43">
@@ -4836,7 +5756,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>324</v>
+        <v>287</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4845,39 +5765,43 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>325</v>
+        <v>288</v>
       </c>
       <c r="J43" t="s">
-        <v>326</v>
+        <v>289</v>
       </c>
       <c r="K43" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="L43" t="s">
-        <v>328</v>
+        <v>291</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
-      <c r="N43" t="s"/>
-      <c r="O43" t="s"/>
+      <c r="N43" t="s">
+        <v>282</v>
+      </c>
+      <c r="O43" t="s">
+        <v>67</v>
+      </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
       <c r="R43" t="s"/>
-      <c r="S43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
       <c r="T43" t="s"/>
-      <c r="U43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s">
-        <v>329</v>
-      </c>
-      <c r="X43" t="s">
-        <v>330</v>
-      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44">
@@ -4893,7 +5817,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4902,47 +5826,39 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>333</v>
+        <v>293</v>
       </c>
       <c r="J44" t="s">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="K44" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
       <c r="L44" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>337</v>
+        <v>282</v>
       </c>
       <c r="O44" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
       <c r="R44" t="s"/>
-      <c r="S44" t="n">
-        <v>5</v>
-      </c>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="n">
-        <v>5</v>
-      </c>
+      <c r="U44" t="s"/>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s">
-        <v>338</v>
-      </c>
-      <c r="X44" t="s">
-        <v>339</v>
-      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>340</v>
+        <v>296</v>
       </c>
     </row>
     <row r="45">
@@ -4958,7 +5874,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>341</v>
+        <v>297</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4967,47 +5883,49 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>342</v>
+        <v>298</v>
       </c>
       <c r="J45" t="s">
-        <v>343</v>
+        <v>299</v>
       </c>
       <c r="K45" t="s">
-        <v>344</v>
+        <v>300</v>
       </c>
       <c r="L45" t="s">
-        <v>345</v>
+        <v>301</v>
       </c>
       <c r="M45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>337</v>
+        <v>282</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P45" t="s"/>
-      <c r="Q45" t="s"/>
-      <c r="R45" t="n">
-        <v>4</v>
-      </c>
-      <c r="S45" t="s"/>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>338</v>
+        <v>302</v>
       </c>
       <c r="X45" t="s">
-        <v>339</v>
+        <v>303</v>
       </c>
       <c r="Y45" t="s">
-        <v>346</v>
+        <v>304</v>
       </c>
     </row>
     <row r="46">
@@ -5023,7 +5941,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>347</v>
+        <v>305</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -5032,49 +5950,43 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>348</v>
+        <v>306</v>
       </c>
       <c r="J46" t="s">
-        <v>349</v>
+        <v>307</v>
       </c>
       <c r="K46" t="s">
-        <v>350</v>
+        <v>308</v>
       </c>
       <c r="L46" t="s">
-        <v>351</v>
+        <v>309</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>352</v>
+        <v>310</v>
       </c>
       <c r="O46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P46" t="s"/>
-      <c r="Q46" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q46" t="s"/>
       <c r="R46" t="s"/>
-      <c r="S46" t="n">
-        <v>5</v>
-      </c>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
-      <c r="U46" t="n">
-        <v>5</v>
-      </c>
+      <c r="U46" t="s"/>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>353</v>
+        <v>311</v>
       </c>
       <c r="X46" t="s">
-        <v>354</v>
+        <v>312</v>
       </c>
       <c r="Y46" t="s">
-        <v>355</v>
+        <v>313</v>
       </c>
     </row>
     <row r="47">
@@ -5090,7 +6002,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>356</v>
+        <v>314</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -5099,39 +6011,49 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>357</v>
+        <v>315</v>
       </c>
       <c r="J47" t="s">
-        <v>358</v>
+        <v>307</v>
       </c>
       <c r="K47" t="s">
-        <v>359</v>
+        <v>316</v>
       </c>
       <c r="L47" t="s">
-        <v>360</v>
+        <v>317</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
-      <c r="N47" t="s"/>
-      <c r="O47" t="s"/>
-      <c r="P47" t="s"/>
-      <c r="Q47" t="s"/>
+      <c r="N47" t="s">
+        <v>310</v>
+      </c>
+      <c r="O47" t="s">
+        <v>67</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
       <c r="R47" t="s"/>
       <c r="S47" t="s"/>
       <c r="T47" t="s"/>
-      <c r="U47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>361</v>
+        <v>311</v>
       </c>
       <c r="X47" t="s">
-        <v>362</v>
+        <v>312</v>
       </c>
       <c r="Y47" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
     </row>
     <row r="48">
@@ -5147,7 +6069,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -5156,49 +6078,43 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="J48" t="s">
-        <v>366</v>
+        <v>321</v>
       </c>
       <c r="K48" t="s">
-        <v>367</v>
+        <v>322</v>
       </c>
       <c r="L48" t="s">
-        <v>368</v>
+        <v>323</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>369</v>
+        <v>310</v>
       </c>
       <c r="O48" t="s">
-        <v>60</v>
-      </c>
-      <c r="P48" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>5</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
       <c r="R48" t="s"/>
       <c r="S48" t="s"/>
       <c r="T48" t="s"/>
-      <c r="U48" t="n">
-        <v>5</v>
-      </c>
+      <c r="U48" t="s"/>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>370</v>
+        <v>324</v>
       </c>
       <c r="X48" t="s">
-        <v>371</v>
+        <v>325</v>
       </c>
       <c r="Y48" t="s">
-        <v>372</v>
+        <v>326</v>
       </c>
     </row>
     <row r="49">
@@ -5214,7 +6130,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>373</v>
+        <v>327</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -5223,49 +6139,39 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>374</v>
+        <v>328</v>
       </c>
       <c r="J49" t="s">
-        <v>375</v>
+        <v>329</v>
       </c>
       <c r="K49" t="s">
-        <v>376</v>
+        <v>330</v>
       </c>
       <c r="L49" t="s">
-        <v>377</v>
+        <v>331</v>
       </c>
       <c r="M49" t="n">
-        <v>4</v>
-      </c>
-      <c r="N49" t="s">
-        <v>369</v>
-      </c>
-      <c r="O49" t="s">
-        <v>60</v>
-      </c>
-      <c r="P49" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
       <c r="R49" t="s"/>
-      <c r="S49" t="n">
-        <v>5</v>
-      </c>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
-      <c r="U49" t="n">
-        <v>5</v>
-      </c>
+      <c r="U49" t="s"/>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>378</v>
+        <v>332</v>
       </c>
       <c r="X49" t="s">
-        <v>379</v>
+        <v>333</v>
       </c>
       <c r="Y49" t="s">
-        <v>380</v>
+        <v>334</v>
       </c>
     </row>
     <row r="50">
@@ -5281,7 +6187,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>381</v>
+        <v>335</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5290,49 +6196,49 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>382</v>
+        <v>336</v>
       </c>
       <c r="J50" t="s">
-        <v>383</v>
+        <v>329</v>
       </c>
       <c r="K50" t="s">
-        <v>384</v>
+        <v>337</v>
       </c>
       <c r="L50" t="s">
-        <v>385</v>
+        <v>338</v>
       </c>
       <c r="M50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>386</v>
+        <v>310</v>
       </c>
       <c r="O50" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P50" t="s"/>
-      <c r="Q50" t="s"/>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
       <c r="R50" t="n">
-        <v>4</v>
-      </c>
-      <c r="S50" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>387</v>
+        <v>332</v>
       </c>
       <c r="X50" t="s">
-        <v>388</v>
+        <v>333</v>
       </c>
       <c r="Y50" t="s">
-        <v>389</v>
+        <v>339</v>
       </c>
     </row>
     <row r="51">
@@ -5348,7 +6254,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5357,34 +6263,32 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>391</v>
+        <v>341</v>
       </c>
       <c r="J51" t="s">
-        <v>392</v>
+        <v>342</v>
       </c>
       <c r="K51" t="s">
-        <v>393</v>
+        <v>343</v>
       </c>
       <c r="L51" t="s">
-        <v>394</v>
+        <v>344</v>
       </c>
       <c r="M51" t="n">
-        <v>5</v>
-      </c>
-      <c r="N51" t="s"/>
-      <c r="O51" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>310</v>
+      </c>
+      <c r="O51" t="s">
+        <v>67</v>
+      </c>
       <c r="P51" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>5</v>
-      </c>
-      <c r="R51" t="n">
-        <v>5</v>
-      </c>
-      <c r="S51" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
         <v>5</v>
@@ -5393,13 +6297,13 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>395</v>
+        <v>345</v>
       </c>
       <c r="X51" t="s">
-        <v>396</v>
+        <v>346</v>
       </c>
       <c r="Y51" t="s">
-        <v>397</v>
+        <v>347</v>
       </c>
     </row>
     <row r="52">
@@ -5415,7 +6319,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>398</v>
+        <v>348</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5424,39 +6328,49 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>399</v>
+        <v>349</v>
       </c>
       <c r="J52" t="s">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K52" t="s">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="L52" t="s">
-        <v>402</v>
+        <v>352</v>
       </c>
       <c r="M52" t="n">
-        <v>2</v>
-      </c>
-      <c r="N52" t="s"/>
-      <c r="O52" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>353</v>
+      </c>
+      <c r="O52" t="s">
+        <v>67</v>
+      </c>
       <c r="P52" t="s"/>
-      <c r="Q52" t="s"/>
-      <c r="R52" t="s"/>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
       <c r="S52" t="s"/>
       <c r="T52" t="s"/>
-      <c r="U52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>403</v>
+        <v>354</v>
       </c>
       <c r="X52" t="s">
-        <v>404</v>
+        <v>355</v>
       </c>
       <c r="Y52" t="s">
-        <v>405</v>
+        <v>356</v>
       </c>
     </row>
     <row r="53">
@@ -5472,7 +6386,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>406</v>
+        <v>357</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5481,34 +6395,34 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>407</v>
+        <v>358</v>
       </c>
       <c r="J53" t="s">
-        <v>408</v>
+        <v>359</v>
       </c>
       <c r="K53" t="s">
-        <v>409</v>
+        <v>360</v>
       </c>
       <c r="L53" t="s">
-        <v>410</v>
+        <v>361</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>411</v>
+        <v>353</v>
       </c>
       <c r="O53" t="s">
-        <v>60</v>
-      </c>
-      <c r="P53" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q53" t="s"/>
-      <c r="R53" t="s"/>
-      <c r="S53" t="n">
-        <v>5</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="s"/>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
         <v>5</v>
@@ -5517,13 +6431,13 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>412</v>
+        <v>362</v>
       </c>
       <c r="X53" t="s">
-        <v>413</v>
+        <v>363</v>
       </c>
       <c r="Y53" t="s">
-        <v>414</v>
+        <v>364</v>
       </c>
     </row>
     <row r="54">
@@ -5539,7 +6453,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>415</v>
+        <v>365</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5548,49 +6462,43 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>416</v>
+        <v>366</v>
       </c>
       <c r="J54" t="s">
-        <v>417</v>
+        <v>367</v>
       </c>
       <c r="K54" t="s">
-        <v>418</v>
+        <v>368</v>
       </c>
       <c r="L54" t="s">
-        <v>419</v>
+        <v>369</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>420</v>
+        <v>353</v>
       </c>
       <c r="O54" t="s">
-        <v>60</v>
-      </c>
-      <c r="P54" t="n">
-        <v>5</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
       <c r="R54" t="s"/>
-      <c r="S54" t="n">
-        <v>5</v>
-      </c>
+      <c r="S54" t="s"/>
       <c r="T54" t="s"/>
-      <c r="U54" t="n">
-        <v>5</v>
-      </c>
+      <c r="U54" t="s"/>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>421</v>
+        <v>370</v>
       </c>
       <c r="X54" t="s">
-        <v>422</v>
+        <v>371</v>
       </c>
       <c r="Y54" t="s">
-        <v>423</v>
+        <v>372</v>
       </c>
     </row>
     <row r="55">
@@ -5606,7 +6514,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>424</v>
+        <v>373</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5615,49 +6523,49 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>425</v>
+        <v>374</v>
       </c>
       <c r="J55" t="s">
-        <v>426</v>
+        <v>375</v>
       </c>
       <c r="K55" t="s">
-        <v>427</v>
+        <v>376</v>
       </c>
       <c r="L55" t="s">
-        <v>428</v>
+        <v>377</v>
       </c>
       <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>353</v>
+      </c>
+      <c r="O55" t="s">
+        <v>67</v>
+      </c>
+      <c r="P55" t="n">
         <v>4</v>
-      </c>
-      <c r="N55" t="s">
-        <v>429</v>
-      </c>
-      <c r="O55" t="s">
-        <v>68</v>
-      </c>
-      <c r="P55" t="n">
-        <v>3</v>
       </c>
       <c r="Q55" t="s"/>
       <c r="R55" t="s"/>
       <c r="S55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>430</v>
+        <v>378</v>
       </c>
       <c r="X55" t="s">
-        <v>431</v>
+        <v>379</v>
       </c>
       <c r="Y55" t="s">
-        <v>432</v>
+        <v>380</v>
       </c>
     </row>
     <row r="56">
@@ -5673,7 +6581,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>433</v>
+        <v>381</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5682,49 +6590,39 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>434</v>
+        <v>382</v>
       </c>
       <c r="J56" t="s">
-        <v>435</v>
+        <v>383</v>
       </c>
       <c r="K56" t="s">
-        <v>436</v>
+        <v>384</v>
       </c>
       <c r="L56" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="M56" t="n">
-        <v>2</v>
-      </c>
-      <c r="N56" t="s">
-        <v>429</v>
-      </c>
-      <c r="O56" t="s">
-        <v>60</v>
-      </c>
-      <c r="P56" t="n">
         <v>4</v>
       </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
       <c r="R56" t="s"/>
-      <c r="S56" t="n">
-        <v>2</v>
-      </c>
+      <c r="S56" t="s"/>
       <c r="T56" t="s"/>
-      <c r="U56" t="n">
-        <v>4</v>
-      </c>
+      <c r="U56" t="s"/>
       <c r="V56" t="n">
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="X56" t="s">
-        <v>439</v>
+        <v>387</v>
       </c>
       <c r="Y56" t="s">
-        <v>440</v>
+        <v>388</v>
       </c>
     </row>
     <row r="57">
@@ -5740,7 +6638,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5749,53 +6647,47 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>442</v>
+        <v>390</v>
       </c>
       <c r="J57" t="s">
-        <v>443</v>
+        <v>391</v>
       </c>
       <c r="K57" t="s">
-        <v>444</v>
+        <v>392</v>
       </c>
       <c r="L57" t="s">
-        <v>445</v>
+        <v>393</v>
       </c>
       <c r="M57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>446</v>
+        <v>260</v>
       </c>
       <c r="O57" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P57" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>5</v>
-      </c>
-      <c r="R57" t="n">
-        <v>5</v>
-      </c>
-      <c r="S57" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>447</v>
+        <v>394</v>
       </c>
       <c r="X57" t="s">
-        <v>448</v>
+        <v>395</v>
       </c>
       <c r="Y57" t="s">
-        <v>449</v>
+        <v>396</v>
       </c>
     </row>
     <row r="58">
@@ -5811,7 +6703,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>450</v>
+        <v>397</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5820,25 +6712,25 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>451</v>
+        <v>398</v>
       </c>
       <c r="J58" t="s">
-        <v>452</v>
+        <v>399</v>
       </c>
       <c r="K58" t="s">
-        <v>453</v>
+        <v>400</v>
       </c>
       <c r="L58" t="s">
-        <v>454</v>
+        <v>401</v>
       </c>
       <c r="M58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>446</v>
+        <v>402</v>
       </c>
       <c r="O58" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P58" t="n">
         <v>3</v>
@@ -5846,12 +6738,8 @@
       <c r="Q58" t="n">
         <v>3</v>
       </c>
-      <c r="R58" t="n">
-        <v>2</v>
-      </c>
-      <c r="S58" t="n">
-        <v>4</v>
-      </c>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
         <v>4</v>
@@ -5860,13 +6748,13 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>455</v>
+        <v>403</v>
       </c>
       <c r="X58" t="s">
-        <v>456</v>
+        <v>404</v>
       </c>
       <c r="Y58" t="s">
-        <v>457</v>
+        <v>405</v>
       </c>
     </row>
     <row r="59">
@@ -5882,7 +6770,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>458</v>
+        <v>406</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5891,53 +6779,39 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>459</v>
+        <v>407</v>
       </c>
       <c r="J59" t="s">
-        <v>460</v>
+        <v>408</v>
       </c>
       <c r="K59" t="s">
-        <v>461</v>
+        <v>409</v>
       </c>
       <c r="L59" t="s">
-        <v>462</v>
+        <v>410</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
-      <c r="N59" t="s">
-        <v>463</v>
-      </c>
-      <c r="O59" t="s">
-        <v>53</v>
-      </c>
-      <c r="P59" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>5</v>
-      </c>
-      <c r="R59" t="n">
-        <v>3</v>
-      </c>
-      <c r="S59" t="n">
-        <v>5</v>
-      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
       <c r="T59" t="s"/>
-      <c r="U59" t="n">
-        <v>5</v>
-      </c>
+      <c r="U59" t="s"/>
       <c r="V59" t="n">
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>464</v>
+        <v>411</v>
       </c>
       <c r="X59" t="s">
-        <v>465</v>
+        <v>412</v>
       </c>
       <c r="Y59" t="s">
-        <v>466</v>
+        <v>413</v>
       </c>
     </row>
     <row r="60">
@@ -5953,7 +6827,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>467</v>
+        <v>414</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -5962,53 +6836,49 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>468</v>
+        <v>415</v>
       </c>
       <c r="J60" t="s">
-        <v>469</v>
+        <v>416</v>
       </c>
       <c r="K60" t="s">
-        <v>470</v>
+        <v>417</v>
       </c>
       <c r="L60" t="s">
-        <v>471</v>
+        <v>418</v>
       </c>
       <c r="M60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>472</v>
+        <v>402</v>
       </c>
       <c r="O60" t="s">
         <v>60</v>
       </c>
-      <c r="P60" t="n">
+      <c r="P60" t="s"/>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
         <v>3</v>
       </c>
-      <c r="Q60" t="n">
-        <v>5</v>
-      </c>
-      <c r="R60" t="n">
-        <v>5</v>
-      </c>
-      <c r="S60" t="n">
-        <v>5</v>
-      </c>
+      <c r="S60" t="s"/>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>473</v>
+        <v>411</v>
       </c>
       <c r="X60" t="s">
-        <v>474</v>
+        <v>412</v>
       </c>
       <c r="Y60" t="s">
-        <v>475</v>
+        <v>419</v>
       </c>
     </row>
     <row r="61">
@@ -6024,7 +6894,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>476</v>
+        <v>420</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -6033,49 +6903,43 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>477</v>
+        <v>421</v>
       </c>
       <c r="J61" t="s">
-        <v>478</v>
+        <v>422</v>
       </c>
       <c r="K61" t="s">
-        <v>479</v>
+        <v>423</v>
       </c>
       <c r="L61" t="s">
-        <v>480</v>
+        <v>424</v>
       </c>
       <c r="M61" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>481</v>
+        <v>402</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
-      </c>
-      <c r="P61" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>4</v>
-      </c>
-      <c r="R61" t="n">
-        <v>5</v>
-      </c>
-      <c r="S61" t="n">
-        <v>4</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
       <c r="T61" t="s"/>
-      <c r="U61" t="n">
-        <v>5</v>
-      </c>
+      <c r="U61" t="s"/>
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
+      <c r="W61" t="s">
+        <v>425</v>
+      </c>
+      <c r="X61" t="s">
+        <v>426</v>
+      </c>
       <c r="Y61" t="s">
-        <v>480</v>
+        <v>427</v>
       </c>
     </row>
     <row r="62">
@@ -6091,7 +6955,7 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>482</v>
+        <v>428</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -6100,35 +6964,31 @@
         <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>483</v>
+        <v>429</v>
       </c>
       <c r="J62" t="s">
-        <v>484</v>
+        <v>430</v>
       </c>
       <c r="K62" t="s">
-        <v>485</v>
+        <v>431</v>
       </c>
       <c r="L62" t="s">
-        <v>486</v>
+        <v>432</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>487</v>
+        <v>402</v>
       </c>
       <c r="O62" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
       </c>
-      <c r="Q62" t="n">
-        <v>5</v>
-      </c>
-      <c r="R62" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
       <c r="S62" t="n">
         <v>5</v>
       </c>
@@ -6139,10 +6999,14 @@
       <c r="V62" t="n">
         <v>0</v>
       </c>
-      <c r="W62" t="s"/>
-      <c r="X62" t="s"/>
+      <c r="W62" t="s">
+        <v>433</v>
+      </c>
+      <c r="X62" t="s">
+        <v>434</v>
+      </c>
       <c r="Y62" t="s">
-        <v>486</v>
+        <v>435</v>
       </c>
     </row>
     <row r="63">
@@ -6158,7 +7022,7 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>488</v>
+        <v>436</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
@@ -6167,49 +7031,47 @@
         <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>489</v>
+        <v>437</v>
       </c>
       <c r="J63" t="s">
-        <v>490</v>
+        <v>438</v>
       </c>
       <c r="K63" t="s">
-        <v>491</v>
+        <v>439</v>
       </c>
       <c r="L63" t="s">
-        <v>492</v>
+        <v>440</v>
       </c>
       <c r="M63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>493</v>
+        <v>402</v>
       </c>
       <c r="O63" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P63" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>3</v>
-      </c>
-      <c r="R63" t="n">
-        <v>3</v>
-      </c>
-      <c r="S63" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
       <c r="T63" t="s"/>
       <c r="U63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s"/>
-      <c r="X63" t="s"/>
+      <c r="W63" t="s">
+        <v>441</v>
+      </c>
+      <c r="X63" t="s">
+        <v>442</v>
+      </c>
       <c r="Y63" t="s">
-        <v>492</v>
+        <v>443</v>
       </c>
     </row>
     <row r="64">
@@ -6225,7 +7087,7 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>494</v>
+        <v>444</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -6234,49 +7096,49 @@
         <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>495</v>
+        <v>445</v>
       </c>
       <c r="J64" t="s">
-        <v>496</v>
+        <v>446</v>
       </c>
       <c r="K64" t="s">
-        <v>497</v>
+        <v>447</v>
       </c>
       <c r="L64" t="s">
-        <v>498</v>
+        <v>448</v>
       </c>
       <c r="M64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>499</v>
+        <v>449</v>
       </c>
       <c r="O64" t="s">
         <v>60</v>
       </c>
       <c r="P64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q64" t="n">
-        <v>3</v>
-      </c>
-      <c r="R64" t="n">
-        <v>4</v>
-      </c>
-      <c r="S64" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
       <c r="T64" t="s"/>
       <c r="U64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V64" t="n">
         <v>0</v>
       </c>
-      <c r="W64" t="s"/>
-      <c r="X64" t="s"/>
+      <c r="W64" t="s">
+        <v>450</v>
+      </c>
+      <c r="X64" t="s">
+        <v>451</v>
+      </c>
       <c r="Y64" t="s">
-        <v>498</v>
+        <v>452</v>
       </c>
     </row>
     <row r="65">
@@ -6292,7 +7154,7 @@
         <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>500</v>
+        <v>453</v>
       </c>
       <c r="G65" t="s">
         <v>46</v>
@@ -6301,49 +7163,43 @@
         <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>501</v>
+        <v>454</v>
       </c>
       <c r="J65" t="s">
-        <v>502</v>
+        <v>455</v>
       </c>
       <c r="K65" t="s">
-        <v>503</v>
+        <v>456</v>
       </c>
       <c r="L65" t="s">
-        <v>504</v>
+        <v>457</v>
       </c>
       <c r="M65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N65" t="s">
-        <v>505</v>
+        <v>458</v>
       </c>
       <c r="O65" t="s">
-        <v>60</v>
-      </c>
-      <c r="P65" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>5</v>
-      </c>
-      <c r="R65" t="n">
-        <v>5</v>
-      </c>
-      <c r="S65" t="n">
-        <v>5</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
       <c r="T65" t="s"/>
-      <c r="U65" t="n">
-        <v>3</v>
-      </c>
+      <c r="U65" t="s"/>
       <c r="V65" t="n">
         <v>0</v>
       </c>
-      <c r="W65" t="s"/>
-      <c r="X65" t="s"/>
+      <c r="W65" t="s">
+        <v>459</v>
+      </c>
+      <c r="X65" t="s">
+        <v>460</v>
+      </c>
       <c r="Y65" t="s">
-        <v>506</v>
+        <v>461</v>
       </c>
     </row>
     <row r="66">
@@ -6359,7 +7215,7 @@
         <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>507</v>
+        <v>462</v>
       </c>
       <c r="G66" t="s">
         <v>46</v>
@@ -6368,49 +7224,49 @@
         <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>508</v>
+        <v>463</v>
       </c>
       <c r="J66" t="s">
-        <v>509</v>
+        <v>464</v>
       </c>
       <c r="K66" t="s">
-        <v>510</v>
+        <v>465</v>
       </c>
       <c r="L66" t="s">
-        <v>511</v>
+        <v>466</v>
       </c>
       <c r="M66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>505</v>
+        <v>458</v>
       </c>
       <c r="O66" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q66" t="n">
-        <v>4</v>
-      </c>
-      <c r="R66" t="n">
-        <v>4</v>
-      </c>
-      <c r="S66" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
       <c r="T66" t="s"/>
       <c r="U66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V66" t="n">
         <v>0</v>
       </c>
-      <c r="W66" t="s"/>
-      <c r="X66" t="s"/>
+      <c r="W66" t="s">
+        <v>467</v>
+      </c>
+      <c r="X66" t="s">
+        <v>468</v>
+      </c>
       <c r="Y66" t="s">
-        <v>512</v>
+        <v>469</v>
       </c>
     </row>
     <row r="67">
@@ -6426,7 +7282,7 @@
         <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>513</v>
+        <v>470</v>
       </c>
       <c r="G67" t="s">
         <v>46</v>
@@ -6435,35 +7291,31 @@
         <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>514</v>
+        <v>471</v>
       </c>
       <c r="J67" t="s">
-        <v>515</v>
+        <v>472</v>
       </c>
       <c r="K67" t="s">
-        <v>516</v>
+        <v>473</v>
       </c>
       <c r="L67" t="s">
-        <v>517</v>
+        <v>474</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>518</v>
+        <v>458</v>
       </c>
       <c r="O67" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P67" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q67" t="n">
         <v>4</v>
       </c>
-      <c r="R67" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
       <c r="S67" t="n">
         <v>5</v>
       </c>
@@ -6475,13 +7327,13 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>519</v>
+        <v>467</v>
       </c>
       <c r="X67" t="s">
-        <v>520</v>
+        <v>468</v>
       </c>
       <c r="Y67" t="s">
-        <v>521</v>
+        <v>475</v>
       </c>
     </row>
     <row r="68">
@@ -6497,7 +7349,7 @@
         <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="G68" t="s">
         <v>46</v>
@@ -6506,53 +7358,47 @@
         <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>523</v>
+        <v>477</v>
       </c>
       <c r="J68" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="K68" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="L68" t="s">
-        <v>526</v>
+        <v>480</v>
       </c>
       <c r="M68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>527</v>
+        <v>481</v>
       </c>
       <c r="O68" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P68" t="n">
         <v>4</v>
       </c>
-      <c r="Q68" t="n">
-        <v>4</v>
-      </c>
-      <c r="R68" t="n">
-        <v>4</v>
-      </c>
-      <c r="S68" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
       <c r="T68" t="s"/>
       <c r="U68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V68" t="n">
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>528</v>
+        <v>467</v>
       </c>
       <c r="X68" t="s">
-        <v>529</v>
+        <v>468</v>
       </c>
       <c r="Y68" t="s">
-        <v>530</v>
+        <v>482</v>
       </c>
     </row>
     <row r="69">
@@ -6568,7 +7414,7 @@
         <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>531</v>
+        <v>483</v>
       </c>
       <c r="G69" t="s">
         <v>46</v>
@@ -6577,53 +7423,43 @@
         <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>532</v>
+        <v>484</v>
       </c>
       <c r="J69" t="s">
-        <v>533</v>
+        <v>485</v>
       </c>
       <c r="K69" t="s">
-        <v>534</v>
+        <v>486</v>
       </c>
       <c r="L69" t="s">
-        <v>535</v>
+        <v>487</v>
       </c>
       <c r="M69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>536</v>
+        <v>458</v>
       </c>
       <c r="O69" t="s">
-        <v>60</v>
-      </c>
-      <c r="P69" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>5</v>
-      </c>
-      <c r="R69" t="n">
-        <v>3</v>
-      </c>
-      <c r="S69" t="n">
-        <v>5</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
       <c r="T69" t="s"/>
-      <c r="U69" t="n">
-        <v>5</v>
-      </c>
+      <c r="U69" t="s"/>
       <c r="V69" t="n">
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>537</v>
+        <v>467</v>
       </c>
       <c r="X69" t="s">
-        <v>538</v>
+        <v>468</v>
       </c>
       <c r="Y69" t="s">
-        <v>539</v>
+        <v>488</v>
       </c>
     </row>
     <row r="70">
@@ -6639,7 +7475,7 @@
         <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>540</v>
+        <v>489</v>
       </c>
       <c r="G70" t="s">
         <v>46</v>
@@ -6648,49 +7484,43 @@
         <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>541</v>
+        <v>490</v>
       </c>
       <c r="J70" t="s">
-        <v>542</v>
+        <v>491</v>
       </c>
       <c r="K70" t="s">
-        <v>543</v>
+        <v>492</v>
       </c>
       <c r="L70" t="s">
-        <v>544</v>
+        <v>493</v>
       </c>
       <c r="M70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>536</v>
+        <v>458</v>
       </c>
       <c r="O70" t="s">
-        <v>60</v>
-      </c>
-      <c r="P70" t="n">
-        <v>4</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P70" t="s"/>
       <c r="Q70" t="s"/>
-      <c r="R70" t="n">
-        <v>4</v>
-      </c>
+      <c r="R70" t="s"/>
       <c r="S70" t="s"/>
       <c r="T70" t="s"/>
-      <c r="U70" t="n">
-        <v>5</v>
-      </c>
+      <c r="U70" t="s"/>
       <c r="V70" t="n">
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>545</v>
+        <v>467</v>
       </c>
       <c r="X70" t="s">
-        <v>546</v>
+        <v>468</v>
       </c>
       <c r="Y70" t="s">
-        <v>547</v>
+        <v>494</v>
       </c>
     </row>
     <row r="71">
@@ -6706,7 +7536,7 @@
         <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>548</v>
+        <v>495</v>
       </c>
       <c r="G71" t="s">
         <v>46</v>
@@ -6715,22 +7545,22 @@
         <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>549</v>
+        <v>496</v>
       </c>
       <c r="J71" t="s">
-        <v>550</v>
+        <v>497</v>
       </c>
       <c r="K71" t="s">
-        <v>551</v>
+        <v>498</v>
       </c>
       <c r="L71" t="s">
-        <v>552</v>
+        <v>499</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>553</v>
+        <v>458</v>
       </c>
       <c r="O71" t="s">
         <v>60</v>
@@ -6739,10 +7569,10 @@
         <v>5</v>
       </c>
       <c r="Q71" t="s"/>
-      <c r="R71" t="s"/>
-      <c r="S71" t="n">
-        <v>5</v>
-      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="s"/>
       <c r="T71" t="s"/>
       <c r="U71" t="n">
         <v>5</v>
@@ -6751,13 +7581,13 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>554</v>
+        <v>467</v>
       </c>
       <c r="X71" t="s">
-        <v>555</v>
+        <v>468</v>
       </c>
       <c r="Y71" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
     </row>
     <row r="72">
@@ -6773,7 +7603,7 @@
         <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>557</v>
+        <v>501</v>
       </c>
       <c r="G72" t="s">
         <v>46</v>
@@ -6782,53 +7612,39 @@
         <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>558</v>
+        <v>502</v>
       </c>
       <c r="J72" t="s">
-        <v>559</v>
+        <v>503</v>
       </c>
       <c r="K72" t="s">
-        <v>560</v>
+        <v>504</v>
       </c>
       <c r="L72" t="s">
-        <v>561</v>
+        <v>505</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
-      <c r="N72" t="s">
-        <v>562</v>
-      </c>
-      <c r="O72" t="s">
-        <v>53</v>
-      </c>
-      <c r="P72" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>5</v>
-      </c>
-      <c r="R72" t="n">
-        <v>4</v>
-      </c>
-      <c r="S72" t="n">
-        <v>5</v>
-      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
       <c r="T72" t="s"/>
-      <c r="U72" t="n">
-        <v>5</v>
-      </c>
+      <c r="U72" t="s"/>
       <c r="V72" t="n">
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>563</v>
+        <v>506</v>
       </c>
       <c r="X72" t="s">
-        <v>564</v>
+        <v>507</v>
       </c>
       <c r="Y72" t="s">
-        <v>565</v>
+        <v>508</v>
       </c>
     </row>
     <row r="73">
@@ -6844,7 +7660,7 @@
         <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>566</v>
+        <v>509</v>
       </c>
       <c r="G73" t="s">
         <v>46</v>
@@ -6853,34 +7669,32 @@
         <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>567</v>
+        <v>510</v>
       </c>
       <c r="J73" t="s">
-        <v>568</v>
+        <v>511</v>
       </c>
       <c r="K73" t="s">
-        <v>569</v>
+        <v>512</v>
       </c>
       <c r="L73" t="s">
-        <v>570</v>
+        <v>513</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
-      <c r="N73" t="s"/>
-      <c r="O73" t="s"/>
+      <c r="N73" t="s">
+        <v>481</v>
+      </c>
+      <c r="O73" t="s">
+        <v>67</v>
+      </c>
       <c r="P73" t="n">
         <v>5</v>
       </c>
-      <c r="Q73" t="n">
-        <v>5</v>
-      </c>
-      <c r="R73" t="n">
-        <v>5</v>
-      </c>
-      <c r="S73" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
       <c r="T73" t="s"/>
       <c r="U73" t="n">
         <v>5</v>
@@ -6889,13 +7703,3365 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
+        <v>506</v>
+      </c>
+      <c r="X73" t="s">
+        <v>507</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>515</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>516</v>
+      </c>
+      <c r="J74" t="s">
+        <v>517</v>
+      </c>
+      <c r="K74" t="s">
+        <v>518</v>
+      </c>
+      <c r="L74" t="s">
+        <v>519</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>481</v>
+      </c>
+      <c r="O74" t="s">
+        <v>60</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>450</v>
+      </c>
+      <c r="X74" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>521</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>522</v>
+      </c>
+      <c r="J75" t="s">
+        <v>523</v>
+      </c>
+      <c r="K75" t="s">
+        <v>524</v>
+      </c>
+      <c r="L75" t="s">
+        <v>525</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>481</v>
+      </c>
+      <c r="O75" t="s">
+        <v>67</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>526</v>
+      </c>
+      <c r="X75" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>529</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>530</v>
+      </c>
+      <c r="J76" t="s">
+        <v>531</v>
+      </c>
+      <c r="K76" t="s">
+        <v>532</v>
+      </c>
+      <c r="L76" t="s">
+        <v>533</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>481</v>
+      </c>
+      <c r="O76" t="s">
+        <v>60</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>3</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>526</v>
+      </c>
+      <c r="X76" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>535</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>536</v>
+      </c>
+      <c r="J77" t="s">
+        <v>537</v>
+      </c>
+      <c r="K77" t="s">
+        <v>538</v>
+      </c>
+      <c r="L77" t="s">
+        <v>539</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>540</v>
+      </c>
+      <c r="O77" t="s">
+        <v>87</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="s"/>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>541</v>
+      </c>
+      <c r="X77" t="s">
+        <v>542</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>544</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>545</v>
+      </c>
+      <c r="J78" t="s">
+        <v>546</v>
+      </c>
+      <c r="K78" t="s">
+        <v>547</v>
+      </c>
+      <c r="L78" t="s">
+        <v>548</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>549</v>
+      </c>
+      <c r="O78" t="s">
+        <v>67</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>550</v>
+      </c>
+      <c r="X78" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>553</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>554</v>
+      </c>
+      <c r="J79" t="s">
+        <v>555</v>
+      </c>
+      <c r="K79" t="s">
+        <v>556</v>
+      </c>
+      <c r="L79" t="s">
+        <v>557</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>549</v>
+      </c>
+      <c r="O79" t="s">
+        <v>67</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>558</v>
+      </c>
+      <c r="X79" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>561</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>562</v>
+      </c>
+      <c r="J80" t="s">
+        <v>563</v>
+      </c>
+      <c r="K80" t="s">
+        <v>564</v>
+      </c>
+      <c r="L80" t="s">
+        <v>565</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s"/>
+      <c r="O80" t="s"/>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="s"/>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>558</v>
+      </c>
+      <c r="X80" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>567</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>568</v>
+      </c>
+      <c r="J81" t="s">
+        <v>569</v>
+      </c>
+      <c r="K81" t="s">
+        <v>570</v>
+      </c>
+      <c r="L81" t="s">
         <v>571</v>
       </c>
-      <c r="X73" t="s">
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>549</v>
+      </c>
+      <c r="O81" t="s">
+        <v>67</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="s"/>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
         <v>572</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="X81" t="s">
         <v>573</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>575</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>576</v>
+      </c>
+      <c r="J82" t="s">
+        <v>577</v>
+      </c>
+      <c r="K82" t="s">
+        <v>578</v>
+      </c>
+      <c r="L82" t="s">
+        <v>579</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>549</v>
+      </c>
+      <c r="O82" t="s">
+        <v>67</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>580</v>
+      </c>
+      <c r="X82" t="s">
+        <v>581</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>583</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>584</v>
+      </c>
+      <c r="J83" t="s">
+        <v>585</v>
+      </c>
+      <c r="K83" t="s">
+        <v>586</v>
+      </c>
+      <c r="L83" t="s">
+        <v>587</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>549</v>
+      </c>
+      <c r="O83" t="s">
+        <v>67</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>580</v>
+      </c>
+      <c r="X83" t="s">
+        <v>581</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>589</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>590</v>
+      </c>
+      <c r="J84" t="s">
+        <v>591</v>
+      </c>
+      <c r="K84" t="s">
+        <v>592</v>
+      </c>
+      <c r="L84" t="s">
+        <v>593</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>594</v>
+      </c>
+      <c r="O84" t="s">
+        <v>60</v>
+      </c>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>595</v>
+      </c>
+      <c r="X84" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>598</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>599</v>
+      </c>
+      <c r="J85" t="s">
+        <v>600</v>
+      </c>
+      <c r="K85" t="s">
+        <v>601</v>
+      </c>
+      <c r="L85" t="s">
+        <v>602</v>
+      </c>
+      <c r="M85" t="n">
+        <v>2</v>
+      </c>
+      <c r="N85" t="s">
+        <v>594</v>
+      </c>
+      <c r="O85" t="s">
+        <v>67</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>1</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>603</v>
+      </c>
+      <c r="X85" t="s">
+        <v>604</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>606</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>607</v>
+      </c>
+      <c r="J86" t="s">
+        <v>608</v>
+      </c>
+      <c r="K86" t="s">
+        <v>609</v>
+      </c>
+      <c r="L86" t="s">
+        <v>610</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s"/>
+      <c r="O86" t="s"/>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>611</v>
+      </c>
+      <c r="X86" t="s">
+        <v>612</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>614</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>615</v>
+      </c>
+      <c r="J87" t="s">
+        <v>616</v>
+      </c>
+      <c r="K87" t="s">
+        <v>617</v>
+      </c>
+      <c r="L87" t="s">
+        <v>618</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2</v>
+      </c>
+      <c r="N87" t="s"/>
+      <c r="O87" t="s"/>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="s"/>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>619</v>
+      </c>
+      <c r="X87" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>622</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>623</v>
+      </c>
+      <c r="J88" t="s">
+        <v>624</v>
+      </c>
+      <c r="K88" t="s">
+        <v>625</v>
+      </c>
+      <c r="L88" t="s">
+        <v>626</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>627</v>
+      </c>
+      <c r="O88" t="s">
+        <v>67</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="s"/>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>628</v>
+      </c>
+      <c r="X88" t="s">
+        <v>629</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>631</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>632</v>
+      </c>
+      <c r="J89" t="s">
+        <v>633</v>
+      </c>
+      <c r="K89" t="s">
+        <v>634</v>
+      </c>
+      <c r="L89" t="s">
+        <v>635</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>627</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="s"/>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>636</v>
+      </c>
+      <c r="X89" t="s">
+        <v>637</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>639</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>640</v>
+      </c>
+      <c r="J90" t="s">
+        <v>641</v>
+      </c>
+      <c r="K90" t="s">
+        <v>642</v>
+      </c>
+      <c r="L90" t="s">
+        <v>643</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>644</v>
+      </c>
+      <c r="O90" t="s">
+        <v>67</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>645</v>
+      </c>
+      <c r="X90" t="s">
+        <v>646</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>648</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>649</v>
+      </c>
+      <c r="J91" t="s">
+        <v>650</v>
+      </c>
+      <c r="K91" t="s">
+        <v>651</v>
+      </c>
+      <c r="L91" t="s">
+        <v>652</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>653</v>
+      </c>
+      <c r="O91" t="s">
+        <v>67</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>654</v>
+      </c>
+      <c r="X91" t="s">
+        <v>655</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>657</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>658</v>
+      </c>
+      <c r="J92" t="s">
+        <v>659</v>
+      </c>
+      <c r="K92" t="s">
+        <v>660</v>
+      </c>
+      <c r="L92" t="s">
+        <v>661</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>662</v>
+      </c>
+      <c r="O92" t="s">
+        <v>87</v>
+      </c>
+      <c r="P92" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="n">
+        <v>4</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>4</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>663</v>
+      </c>
+      <c r="X92" t="s">
+        <v>664</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>666</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>667</v>
+      </c>
+      <c r="J93" t="s">
+        <v>668</v>
+      </c>
+      <c r="K93" t="s">
+        <v>669</v>
+      </c>
+      <c r="L93" t="s">
+        <v>670</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s"/>
+      <c r="O93" t="s"/>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>671</v>
+      </c>
+      <c r="X93" t="s">
+        <v>672</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>674</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>675</v>
+      </c>
+      <c r="J94" t="s">
+        <v>668</v>
+      </c>
+      <c r="K94" t="s">
+        <v>676</v>
+      </c>
+      <c r="L94" t="s">
+        <v>677</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>662</v>
+      </c>
+      <c r="O94" t="s">
+        <v>87</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="s"/>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>678</v>
+      </c>
+      <c r="X94" t="s">
+        <v>672</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>680</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>681</v>
+      </c>
+      <c r="J95" t="s">
+        <v>682</v>
+      </c>
+      <c r="K95" t="s">
+        <v>683</v>
+      </c>
+      <c r="L95" t="s">
+        <v>684</v>
+      </c>
+      <c r="M95" t="n">
+        <v>2</v>
+      </c>
+      <c r="N95" t="s">
+        <v>662</v>
+      </c>
+      <c r="O95" t="s">
+        <v>67</v>
+      </c>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="s"/>
+      <c r="S95" t="n">
+        <v>2</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>4</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>678</v>
+      </c>
+      <c r="X95" t="s">
+        <v>672</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>686</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>687</v>
+      </c>
+      <c r="J96" t="s">
+        <v>688</v>
+      </c>
+      <c r="K96" t="s">
+        <v>689</v>
+      </c>
+      <c r="L96" t="s">
+        <v>690</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>691</v>
+      </c>
+      <c r="O96" t="s">
+        <v>67</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>692</v>
+      </c>
+      <c r="X96" t="s">
+        <v>693</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>695</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>696</v>
+      </c>
+      <c r="J97" t="s">
+        <v>697</v>
+      </c>
+      <c r="K97" t="s">
+        <v>698</v>
+      </c>
+      <c r="L97" t="s">
+        <v>699</v>
+      </c>
+      <c r="M97" t="n">
+        <v>3</v>
+      </c>
+      <c r="N97" t="s">
+        <v>691</v>
+      </c>
+      <c r="O97" t="s">
+        <v>67</v>
+      </c>
+      <c r="P97" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>3</v>
+      </c>
+      <c r="R97" t="n">
+        <v>2</v>
+      </c>
+      <c r="S97" t="n">
+        <v>4</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>4</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>700</v>
+      </c>
+      <c r="X97" t="s">
+        <v>701</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>703</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>704</v>
+      </c>
+      <c r="J98" t="s">
+        <v>705</v>
+      </c>
+      <c r="K98" t="s">
+        <v>706</v>
+      </c>
+      <c r="L98" t="s">
+        <v>707</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s"/>
+      <c r="O98" t="s"/>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>708</v>
+      </c>
+      <c r="X98" t="s">
+        <v>709</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>711</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>712</v>
+      </c>
+      <c r="J99" t="s">
+        <v>713</v>
+      </c>
+      <c r="K99" t="s">
+        <v>714</v>
+      </c>
+      <c r="L99" t="s">
+        <v>715</v>
+      </c>
+      <c r="M99" t="n">
+        <v>4</v>
+      </c>
+      <c r="N99" t="s">
+        <v>716</v>
+      </c>
+      <c r="O99" t="s">
+        <v>197</v>
+      </c>
+      <c r="P99" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>717</v>
+      </c>
+      <c r="X99" t="s">
+        <v>718</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>720</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>721</v>
+      </c>
+      <c r="J100" t="s">
+        <v>722</v>
+      </c>
+      <c r="K100" t="s">
+        <v>723</v>
+      </c>
+      <c r="L100" t="s">
+        <v>724</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>725</v>
+      </c>
+      <c r="O100" t="s">
+        <v>60</v>
+      </c>
+      <c r="P100" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>3</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>726</v>
+      </c>
+      <c r="X100" t="s">
+        <v>727</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>729</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>730</v>
+      </c>
+      <c r="J101" t="s">
+        <v>731</v>
+      </c>
+      <c r="K101" t="s">
+        <v>732</v>
+      </c>
+      <c r="L101" t="s">
+        <v>733</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>734</v>
+      </c>
+      <c r="O101" t="s">
+        <v>67</v>
+      </c>
+      <c r="P101" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>5</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>735</v>
+      </c>
+      <c r="X101" t="s">
+        <v>736</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>738</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>739</v>
+      </c>
+      <c r="J102" t="s">
+        <v>740</v>
+      </c>
+      <c r="K102" t="s">
+        <v>741</v>
+      </c>
+      <c r="L102" t="s">
+        <v>742</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>743</v>
+      </c>
+      <c r="O102" t="s">
+        <v>60</v>
+      </c>
+      <c r="P102" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>4</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>4</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>744</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>745</v>
+      </c>
+      <c r="J103" t="s">
+        <v>746</v>
+      </c>
+      <c r="K103" t="s">
+        <v>747</v>
+      </c>
+      <c r="L103" t="s">
+        <v>748</v>
+      </c>
+      <c r="M103" t="n">
+        <v>4</v>
+      </c>
+      <c r="N103" t="s">
+        <v>749</v>
+      </c>
+      <c r="O103" t="s">
+        <v>60</v>
+      </c>
+      <c r="P103" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>4</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>4</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>751</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>752</v>
+      </c>
+      <c r="J104" t="s">
+        <v>753</v>
+      </c>
+      <c r="K104" t="s">
+        <v>754</v>
+      </c>
+      <c r="L104" t="s">
+        <v>755</v>
+      </c>
+      <c r="M104" t="n">
+        <v>4</v>
+      </c>
+      <c r="N104" t="s">
+        <v>756</v>
+      </c>
+      <c r="O104" t="s">
+        <v>67</v>
+      </c>
+      <c r="P104" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>4</v>
+      </c>
+      <c r="R104" t="n">
+        <v>4</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>4</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>758</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>759</v>
+      </c>
+      <c r="J105" t="s">
+        <v>760</v>
+      </c>
+      <c r="K105" t="s">
+        <v>761</v>
+      </c>
+      <c r="L105" t="s">
+        <v>762</v>
+      </c>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="s">
+        <v>763</v>
+      </c>
+      <c r="O105" t="s">
+        <v>53</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>764</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>765</v>
+      </c>
+      <c r="J106" t="s">
+        <v>766</v>
+      </c>
+      <c r="K106" t="s">
+        <v>767</v>
+      </c>
+      <c r="L106" t="s">
+        <v>768</v>
+      </c>
+      <c r="M106" t="n">
+        <v>4</v>
+      </c>
+      <c r="N106" t="s">
+        <v>769</v>
+      </c>
+      <c r="O106" t="s">
+        <v>67</v>
+      </c>
+      <c r="P106" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>3</v>
+      </c>
+      <c r="R106" t="n">
+        <v>3</v>
+      </c>
+      <c r="S106" t="n">
+        <v>4</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>4</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>770</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>771</v>
+      </c>
+      <c r="J107" t="s">
+        <v>772</v>
+      </c>
+      <c r="K107" t="s">
+        <v>773</v>
+      </c>
+      <c r="L107" t="s">
+        <v>774</v>
+      </c>
+      <c r="M107" t="n">
+        <v>3</v>
+      </c>
+      <c r="N107" t="s">
+        <v>775</v>
+      </c>
+      <c r="O107" t="s">
+        <v>67</v>
+      </c>
+      <c r="P107" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>3</v>
+      </c>
+      <c r="R107" t="n">
+        <v>4</v>
+      </c>
+      <c r="S107" t="n">
+        <v>4</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>3</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>776</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>777</v>
+      </c>
+      <c r="J108" t="s">
+        <v>778</v>
+      </c>
+      <c r="K108" t="s">
+        <v>779</v>
+      </c>
+      <c r="L108" t="s">
+        <v>780</v>
+      </c>
+      <c r="M108" t="n">
+        <v>4</v>
+      </c>
+      <c r="N108" t="s">
+        <v>781</v>
+      </c>
+      <c r="O108" t="s">
+        <v>67</v>
+      </c>
+      <c r="P108" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>5</v>
+      </c>
+      <c r="R108" t="n">
+        <v>3</v>
+      </c>
+      <c r="S108" t="n">
+        <v>5</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>5</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>783</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>784</v>
+      </c>
+      <c r="J109" t="s">
+        <v>785</v>
+      </c>
+      <c r="K109" t="s">
+        <v>786</v>
+      </c>
+      <c r="L109" t="s">
+        <v>787</v>
+      </c>
+      <c r="M109" t="n">
+        <v>2</v>
+      </c>
+      <c r="N109" t="s">
+        <v>781</v>
+      </c>
+      <c r="O109" t="s">
+        <v>67</v>
+      </c>
+      <c r="P109" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>3</v>
+      </c>
+      <c r="R109" t="n">
+        <v>3</v>
+      </c>
+      <c r="S109" t="n">
+        <v>3</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>3</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>789</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>790</v>
+      </c>
+      <c r="J110" t="s">
+        <v>791</v>
+      </c>
+      <c r="K110" t="s">
+        <v>792</v>
+      </c>
+      <c r="L110" t="s">
+        <v>793</v>
+      </c>
+      <c r="M110" t="n">
+        <v>4</v>
+      </c>
+      <c r="N110" t="s">
+        <v>794</v>
+      </c>
+      <c r="O110" t="s">
+        <v>67</v>
+      </c>
+      <c r="P110" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>5</v>
+      </c>
+      <c r="R110" t="n">
+        <v>5</v>
+      </c>
+      <c r="S110" t="n">
+        <v>5</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>3</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>796</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>797</v>
+      </c>
+      <c r="J111" t="s">
+        <v>798</v>
+      </c>
+      <c r="K111" t="s">
+        <v>799</v>
+      </c>
+      <c r="L111" t="s">
+        <v>800</v>
+      </c>
+      <c r="M111" t="n">
+        <v>4</v>
+      </c>
+      <c r="N111" t="s">
+        <v>794</v>
+      </c>
+      <c r="O111" t="s">
+        <v>67</v>
+      </c>
+      <c r="P111" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>4</v>
+      </c>
+      <c r="R111" t="n">
+        <v>4</v>
+      </c>
+      <c r="S111" t="n">
+        <v>4</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>4</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>802</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>803</v>
+      </c>
+      <c r="J112" t="s">
+        <v>804</v>
+      </c>
+      <c r="K112" t="s">
+        <v>805</v>
+      </c>
+      <c r="L112" t="s">
+        <v>806</v>
+      </c>
+      <c r="M112" t="n">
+        <v>5</v>
+      </c>
+      <c r="N112" t="s">
+        <v>807</v>
+      </c>
+      <c r="O112" t="s">
+        <v>67</v>
+      </c>
+      <c r="P112" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>4</v>
+      </c>
+      <c r="R112" t="n">
+        <v>4</v>
+      </c>
+      <c r="S112" t="n">
+        <v>5</v>
+      </c>
+      <c r="T112" t="s"/>
+      <c r="U112" t="n">
+        <v>5</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s">
+        <v>808</v>
+      </c>
+      <c r="X112" t="s">
+        <v>809</v>
+      </c>
+      <c r="Y112" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s">
+        <v>811</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="s">
+        <v>47</v>
+      </c>
+      <c r="I113" t="s">
+        <v>812</v>
+      </c>
+      <c r="J113" t="s">
+        <v>813</v>
+      </c>
+      <c r="K113" t="s">
+        <v>814</v>
+      </c>
+      <c r="L113" t="s">
+        <v>815</v>
+      </c>
+      <c r="M113" t="n">
+        <v>4</v>
+      </c>
+      <c r="N113" t="s">
+        <v>816</v>
+      </c>
+      <c r="O113" t="s">
+        <v>67</v>
+      </c>
+      <c r="P113" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>5</v>
+      </c>
+      <c r="R113" t="n">
+        <v>5</v>
+      </c>
+      <c r="S113" t="n">
+        <v>5</v>
+      </c>
+      <c r="T113" t="s"/>
+      <c r="U113" t="n">
+        <v>5</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s">
+        <v>817</v>
+      </c>
+      <c r="X113" t="s">
+        <v>818</v>
+      </c>
+      <c r="Y113" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>44</v>
+      </c>
+      <c r="F114" t="s">
+        <v>820</v>
+      </c>
+      <c r="G114" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I114" t="s">
+        <v>821</v>
+      </c>
+      <c r="J114" t="s">
+        <v>822</v>
+      </c>
+      <c r="K114" t="s">
+        <v>823</v>
+      </c>
+      <c r="L114" t="s">
+        <v>824</v>
+      </c>
+      <c r="M114" t="n">
+        <v>5</v>
+      </c>
+      <c r="N114" t="s">
+        <v>825</v>
+      </c>
+      <c r="O114" t="s">
+        <v>53</v>
+      </c>
+      <c r="P114" t="s"/>
+      <c r="Q114" t="n">
+        <v>5</v>
+      </c>
+      <c r="R114" t="n">
+        <v>5</v>
+      </c>
+      <c r="S114" t="n">
+        <v>5</v>
+      </c>
+      <c r="T114" t="s"/>
+      <c r="U114" t="s"/>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s">
+        <v>817</v>
+      </c>
+      <c r="X114" t="s">
+        <v>818</v>
+      </c>
+      <c r="Y114" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B115" t="s"/>
+      <c r="C115" t="s"/>
+      <c r="D115" t="n">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>44</v>
+      </c>
+      <c r="F115" t="s">
+        <v>827</v>
+      </c>
+      <c r="G115" t="s">
+        <v>46</v>
+      </c>
+      <c r="H115" t="s">
+        <v>47</v>
+      </c>
+      <c r="I115" t="s">
+        <v>828</v>
+      </c>
+      <c r="J115" t="s">
+        <v>829</v>
+      </c>
+      <c r="K115" t="s">
+        <v>830</v>
+      </c>
+      <c r="L115" t="s">
+        <v>831</v>
+      </c>
+      <c r="M115" t="n">
+        <v>4</v>
+      </c>
+      <c r="N115" t="s">
+        <v>832</v>
+      </c>
+      <c r="O115" t="s">
+        <v>67</v>
+      </c>
+      <c r="P115" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>4</v>
+      </c>
+      <c r="R115" t="n">
+        <v>4</v>
+      </c>
+      <c r="S115" t="n">
+        <v>4</v>
+      </c>
+      <c r="T115" t="s"/>
+      <c r="U115" t="n">
+        <v>4</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="s">
+        <v>833</v>
+      </c>
+      <c r="X115" t="s">
+        <v>834</v>
+      </c>
+      <c r="Y115" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B116" t="s"/>
+      <c r="C116" t="s"/>
+      <c r="D116" t="n">
+        <v>115</v>
+      </c>
+      <c r="E116" t="s">
+        <v>44</v>
+      </c>
+      <c r="F116" t="s">
+        <v>836</v>
+      </c>
+      <c r="G116" t="s">
+        <v>46</v>
+      </c>
+      <c r="H116" t="s">
+        <v>47</v>
+      </c>
+      <c r="I116" t="s">
+        <v>837</v>
+      </c>
+      <c r="J116" t="s">
+        <v>838</v>
+      </c>
+      <c r="K116" t="s">
+        <v>839</v>
+      </c>
+      <c r="L116" t="s">
+        <v>840</v>
+      </c>
+      <c r="M116" t="n">
+        <v>5</v>
+      </c>
+      <c r="N116" t="s">
+        <v>841</v>
+      </c>
+      <c r="O116" t="s">
+        <v>67</v>
+      </c>
+      <c r="P116" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>5</v>
+      </c>
+      <c r="R116" t="n">
+        <v>3</v>
+      </c>
+      <c r="S116" t="n">
+        <v>5</v>
+      </c>
+      <c r="T116" t="s"/>
+      <c r="U116" t="n">
+        <v>5</v>
+      </c>
+      <c r="V116" t="n">
+        <v>0</v>
+      </c>
+      <c r="W116" t="s">
+        <v>842</v>
+      </c>
+      <c r="X116" t="s">
+        <v>843</v>
+      </c>
+      <c r="Y116" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B117" t="s"/>
+      <c r="C117" t="s"/>
+      <c r="D117" t="n">
+        <v>116</v>
+      </c>
+      <c r="E117" t="s">
+        <v>44</v>
+      </c>
+      <c r="F117" t="s">
+        <v>845</v>
+      </c>
+      <c r="G117" t="s">
+        <v>46</v>
+      </c>
+      <c r="H117" t="s">
+        <v>47</v>
+      </c>
+      <c r="I117" t="s">
+        <v>846</v>
+      </c>
+      <c r="J117" t="s">
+        <v>847</v>
+      </c>
+      <c r="K117" t="s">
+        <v>848</v>
+      </c>
+      <c r="L117" t="s">
+        <v>849</v>
+      </c>
+      <c r="M117" t="n">
+        <v>3</v>
+      </c>
+      <c r="N117" t="s">
+        <v>841</v>
+      </c>
+      <c r="O117" t="s">
+        <v>67</v>
+      </c>
+      <c r="P117" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q117" t="s"/>
+      <c r="R117" t="n">
+        <v>4</v>
+      </c>
+      <c r="S117" t="s"/>
+      <c r="T117" t="s"/>
+      <c r="U117" t="n">
+        <v>5</v>
+      </c>
+      <c r="V117" t="n">
+        <v>0</v>
+      </c>
+      <c r="W117" t="s">
+        <v>850</v>
+      </c>
+      <c r="X117" t="s">
+        <v>851</v>
+      </c>
+      <c r="Y117" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B118" t="s"/>
+      <c r="C118" t="s"/>
+      <c r="D118" t="n">
+        <v>117</v>
+      </c>
+      <c r="E118" t="s">
+        <v>44</v>
+      </c>
+      <c r="F118" t="s">
+        <v>853</v>
+      </c>
+      <c r="G118" t="s">
+        <v>46</v>
+      </c>
+      <c r="H118" t="s">
+        <v>47</v>
+      </c>
+      <c r="I118" t="s">
+        <v>854</v>
+      </c>
+      <c r="J118" t="s">
+        <v>855</v>
+      </c>
+      <c r="K118" t="s">
+        <v>856</v>
+      </c>
+      <c r="L118" t="s">
+        <v>857</v>
+      </c>
+      <c r="M118" t="n">
+        <v>4</v>
+      </c>
+      <c r="N118" t="s">
+        <v>841</v>
+      </c>
+      <c r="O118" t="s">
+        <v>67</v>
+      </c>
+      <c r="P118" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>5</v>
+      </c>
+      <c r="R118" t="n">
+        <v>4</v>
+      </c>
+      <c r="S118" t="s"/>
+      <c r="T118" t="s"/>
+      <c r="U118" t="n">
+        <v>5</v>
+      </c>
+      <c r="V118" t="n">
+        <v>0</v>
+      </c>
+      <c r="W118" t="s">
+        <v>850</v>
+      </c>
+      <c r="X118" t="s">
+        <v>851</v>
+      </c>
+      <c r="Y118" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B119" t="s"/>
+      <c r="C119" t="s"/>
+      <c r="D119" t="n">
+        <v>118</v>
+      </c>
+      <c r="E119" t="s">
+        <v>44</v>
+      </c>
+      <c r="F119" t="s">
+        <v>859</v>
+      </c>
+      <c r="G119" t="s">
+        <v>46</v>
+      </c>
+      <c r="H119" t="s">
+        <v>47</v>
+      </c>
+      <c r="I119" t="s">
+        <v>860</v>
+      </c>
+      <c r="J119" t="s">
+        <v>861</v>
+      </c>
+      <c r="K119" t="s">
+        <v>862</v>
+      </c>
+      <c r="L119" t="s">
+        <v>863</v>
+      </c>
+      <c r="M119" t="n">
+        <v>4</v>
+      </c>
+      <c r="N119" t="s"/>
+      <c r="O119" t="s"/>
+      <c r="P119" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>4</v>
+      </c>
+      <c r="R119" t="n">
+        <v>4</v>
+      </c>
+      <c r="S119" t="n">
+        <v>3</v>
+      </c>
+      <c r="T119" t="s"/>
+      <c r="U119" t="n">
+        <v>4</v>
+      </c>
+      <c r="V119" t="n">
+        <v>0</v>
+      </c>
+      <c r="W119" t="s">
+        <v>850</v>
+      </c>
+      <c r="X119" t="s">
+        <v>851</v>
+      </c>
+      <c r="Y119" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B120" t="s"/>
+      <c r="C120" t="s"/>
+      <c r="D120" t="n">
+        <v>119</v>
+      </c>
+      <c r="E120" t="s">
+        <v>44</v>
+      </c>
+      <c r="F120" t="s">
+        <v>865</v>
+      </c>
+      <c r="G120" t="s">
+        <v>46</v>
+      </c>
+      <c r="H120" t="s">
+        <v>47</v>
+      </c>
+      <c r="I120" t="s">
+        <v>866</v>
+      </c>
+      <c r="J120" t="s">
+        <v>867</v>
+      </c>
+      <c r="K120" t="s">
+        <v>868</v>
+      </c>
+      <c r="L120" t="s">
+        <v>869</v>
+      </c>
+      <c r="M120" t="n">
+        <v>5</v>
+      </c>
+      <c r="N120" t="s">
+        <v>870</v>
+      </c>
+      <c r="O120" t="s">
+        <v>67</v>
+      </c>
+      <c r="P120" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q120" t="s"/>
+      <c r="R120" t="s"/>
+      <c r="S120" t="n">
+        <v>5</v>
+      </c>
+      <c r="T120" t="s"/>
+      <c r="U120" t="n">
+        <v>5</v>
+      </c>
+      <c r="V120" t="n">
+        <v>0</v>
+      </c>
+      <c r="W120" t="s">
+        <v>871</v>
+      </c>
+      <c r="X120" t="s">
+        <v>872</v>
+      </c>
+      <c r="Y120" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B121" t="s"/>
+      <c r="C121" t="s"/>
+      <c r="D121" t="n">
+        <v>120</v>
+      </c>
+      <c r="E121" t="s">
+        <v>44</v>
+      </c>
+      <c r="F121" t="s">
+        <v>874</v>
+      </c>
+      <c r="G121" t="s">
+        <v>46</v>
+      </c>
+      <c r="H121" t="s">
+        <v>47</v>
+      </c>
+      <c r="I121" t="s">
+        <v>875</v>
+      </c>
+      <c r="J121" t="s">
+        <v>876</v>
+      </c>
+      <c r="K121" t="s">
+        <v>877</v>
+      </c>
+      <c r="L121" t="s">
+        <v>878</v>
+      </c>
+      <c r="M121" t="n">
+        <v>5</v>
+      </c>
+      <c r="N121" t="s">
+        <v>879</v>
+      </c>
+      <c r="O121" t="s">
+        <v>60</v>
+      </c>
+      <c r="P121" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>5</v>
+      </c>
+      <c r="R121" t="n">
+        <v>4</v>
+      </c>
+      <c r="S121" t="n">
+        <v>5</v>
+      </c>
+      <c r="T121" t="s"/>
+      <c r="U121" t="n">
+        <v>5</v>
+      </c>
+      <c r="V121" t="n">
+        <v>0</v>
+      </c>
+      <c r="W121" t="s">
+        <v>880</v>
+      </c>
+      <c r="X121" t="s">
+        <v>881</v>
+      </c>
+      <c r="Y121" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B122" t="s"/>
+      <c r="C122" t="s"/>
+      <c r="D122" t="n">
+        <v>121</v>
+      </c>
+      <c r="E122" t="s">
+        <v>44</v>
+      </c>
+      <c r="F122" t="s">
+        <v>883</v>
+      </c>
+      <c r="G122" t="s">
+        <v>46</v>
+      </c>
+      <c r="H122" t="s">
+        <v>47</v>
+      </c>
+      <c r="I122" t="s">
+        <v>884</v>
+      </c>
+      <c r="J122" t="s">
+        <v>885</v>
+      </c>
+      <c r="K122" t="s">
+        <v>886</v>
+      </c>
+      <c r="L122" t="s">
+        <v>887</v>
+      </c>
+      <c r="M122" t="n">
+        <v>5</v>
+      </c>
+      <c r="N122" t="s"/>
+      <c r="O122" t="s"/>
+      <c r="P122" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>5</v>
+      </c>
+      <c r="R122" t="n">
+        <v>5</v>
+      </c>
+      <c r="S122" t="n">
+        <v>5</v>
+      </c>
+      <c r="T122" t="s"/>
+      <c r="U122" t="n">
+        <v>5</v>
+      </c>
+      <c r="V122" t="n">
+        <v>0</v>
+      </c>
+      <c r="W122" t="s">
+        <v>888</v>
+      </c>
+      <c r="X122" t="s">
+        <v>889</v>
+      </c>
+      <c r="Y122" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>60793</v>
+      </c>
+      <c r="B123" t="s"/>
+      <c r="C123" t="s"/>
+      <c r="D123" t="n">
+        <v>122</v>
+      </c>
+      <c r="E123" t="s">
+        <v>44</v>
+      </c>
+      <c r="F123" t="s">
+        <v>891</v>
+      </c>
+      <c r="G123" t="s">
+        <v>46</v>
+      </c>
+      <c r="H123" t="s">
+        <v>47</v>
+      </c>
+      <c r="I123" t="s">
+        <v>892</v>
+      </c>
+      <c r="J123" t="s">
+        <v>893</v>
+      </c>
+      <c r="K123" t="s">
+        <v>894</v>
+      </c>
+      <c r="L123" t="s">
+        <v>895</v>
+      </c>
+      <c r="M123" t="n">
+        <v>4</v>
+      </c>
+      <c r="N123" t="s">
+        <v>896</v>
+      </c>
+      <c r="O123" t="s">
+        <v>67</v>
+      </c>
+      <c r="P123" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>4</v>
+      </c>
+      <c r="R123" t="n">
+        <v>5</v>
+      </c>
+      <c r="S123" t="n">
+        <v>5</v>
+      </c>
+      <c r="T123" t="s"/>
+      <c r="U123" t="n">
+        <v>5</v>
+      </c>
+      <c r="V123" t="n">
+        <v>0</v>
+      </c>
+      <c r="W123" t="s">
+        <v>897</v>
+      </c>
+      <c r="X123" t="s">
+        <v>898</v>
+      </c>
+      <c r="Y123" t="s">
+        <v>899</v>
       </c>
     </row>
   </sheetData>
